--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -1599,7 +1599,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="7">
     <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -2762,7 +2762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" createdVersion="5" indent="0" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="7">
     <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <x:fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <x:workbookPr codeName="ЭтаКнига"/>
   <x:bookViews>
-    <x:workbookView xWindow="120" yWindow="135" windowWidth="17400" windowHeight="11940" firstSheet="0" activeTab="1"/>
+    <x:workbookView xWindow="120" yWindow="135" windowWidth="17400" windowHeight="11940" firstSheet="0" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -846,11 +846,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:numFmts count="1">
     <x:numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </x:numFmts>
-  <x:fonts count="9">
+  <x:fonts count="6" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="8"/>
       <x:name val="Arial"/>
@@ -878,30 +878,8 @@
       <x:charset val="204"/>
     </x:font>
     <x:font>
-      <x:sz val="8"/>
-      <x:color theme="0"/>
-      <x:name val="Arial"/>
-      <x:family val="2"/>
-      <x:charset val="204"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="8"/>
-      <x:name val="Arial"/>
-      <x:family val="2"/>
-      <x:charset val="204"/>
-    </x:font>
-    <x:font>
       <x:b/>
       <x:sz val="10"/>
-      <x:name val="Arial"/>
-      <x:family val="2"/>
-      <x:charset val="204"/>
-    </x:font>
-    <x:font>
-      <x:i/>
-      <x:sz val="9"/>
-      <x:color theme="0"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
       <x:charset val="204"/>
@@ -914,39 +892,15 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="6">
+  <x:fills count="2">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFFF99"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF666699"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFC0C0C0"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF99CCFF"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="14">
+  <x:borders count="9">
     <x:border>
       <x:left/>
       <x:right/>
@@ -1040,15 +994,6 @@
       <x:diagonal/>
     </x:border>
     <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="8"/>
-      </x:top>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
       <x:left style="thin">
         <x:color indexed="8"/>
       </x:left>
@@ -1059,58 +1004,6 @@
         <x:color indexed="65"/>
       </x:top>
       <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="8"/>
-      </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="8"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="8"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="8"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="8"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="8"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color indexed="8"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color indexed="8"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="8"/>
-      </x:bottom>
-      <x:diagonal/>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color indexed="65"/>
-      </x:left>
-      <x:right/>
-      <x:top style="thin">
-        <x:color indexed="8"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color indexed="8"/>
-      </x:bottom>
       <x:diagonal/>
     </x:border>
   </x:borders>
@@ -1131,7 +1024,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="55">
+  <x:cellXfs count="26">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1160,80 +1053,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <x:xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,9 +1077,25 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="3">
-    <x:cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
     <x:cellStyle name="Обычный 2" xfId="1"/>
     <x:cellStyle name="Обычный 2 2" xfId="2"/>
   </x:cellStyles>
@@ -1287,11 +1123,16 @@
       <x:color rgb="FFFFFF99"/>
     </x:mruColors>
   </x:colors>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy=" " refreshedDate="43579.724609375" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
+<x:pivotCacheDefinition xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy=" " refreshedDate="43579.724609375" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
   <x:cacheSource type="worksheet">
     <x:worksheetSource ref="B2:H207" sheet="Sheet1"/>
   </x:cacheSource>
@@ -1591,6 +1432,11 @@
       <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="158922.65" count="184"/>
     </x:cacheField>
   </x:cacheFields>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </x:ext>
+  </x:extLst>
 </x:pivotCacheDefinition>
 </file>
 
@@ -1599,7 +1445,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Data" grandTotalCaption="Общий итог" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="7">
     <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -2762,7 +2608,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataCaption="Значения" grandTotalCaption="Общий итог" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="7">
     <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
@@ -4253,7 +4099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr codeName="Лист3">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
@@ -4266,4745 +4112,4745 @@
       <x:selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="11.25"/>
+  <x:sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <x:cols>
     <x:col min="1" max="1" width="5.164062" style="0" customWidth="1"/>
     <x:col min="2" max="8" width="10.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:8" customFormat="1" ht="30.75" customHeight="1">
-      <x:c r="B2" s="49" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C2" s="49" t="s">
+    <x:row r="2" spans="1:8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="B2" s="14" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C2" s="14" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="50" t="s">
+      <x:c r="D2" s="15" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="50" t="s">
+      <x:c r="E2" s="15" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="49" t="s">
+      <x:c r="F2" s="14" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G2" s="50" t="s">
+      <x:c r="G2" s="15" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H2" s="50" t="s">
+      <x:c r="H2" s="15" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8" customFormat="1" ht="20.1" customHeight="1">
-      <x:c r="B3" s="48" t="s">
+    <x:row r="3" spans="1:8" customFormat="1" ht="20.1" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="B3" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C3" s="51" t="s">
+      <x:c r="C3" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D3" s="51" t="s">
+      <x:c r="D3" s="16" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="E3" s="52">
+      <x:c r="E3" s="17">
         <x:v>32266</x:v>
       </x:c>
-      <x:c r="F3" s="53" t="n">
+      <x:c r="F3" s="18" t="n">
         <x:v>1250</x:v>
       </x:c>
-      <x:c r="G3" s="54" t="n">
+      <x:c r="G3" s="19" t="n">
         <x:v>4.5</x:v>
       </x:c>
-      <x:c r="H3" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="B4" s="48" t="s">
+      <x:c r="H3" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B4" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="51" t="s">
+      <x:c r="C4" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D4" s="51" t="s">
+      <x:c r="D4" s="16" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E4" s="52">
+      <x:c r="E4" s="17">
         <x:v>32251</x:v>
       </x:c>
-      <x:c r="F4" s="53" t="n">
+      <x:c r="F4" s="18" t="n">
         <x:v>7885</x:v>
       </x:c>
-      <x:c r="G4" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="53" t="n">
+      <x:c r="G4" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H4" s="18" t="n">
         <x:v>7885</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="B5" s="48" t="s">
+    <x:row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B5" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="51" t="s">
+      <x:c r="C5" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="51" t="s">
+      <x:c r="D5" s="16" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E5" s="52">
+      <x:c r="E5" s="17">
         <x:v>32163</x:v>
       </x:c>
-      <x:c r="F5" s="53" t="n">
+      <x:c r="F5" s="18" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="G5" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="53" t="n">
+      <x:c r="G5" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H5" s="18" t="n">
         <x:v>4807</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="B6" s="48" t="s">
+    <x:row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B6" s="13" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="51" t="s">
+      <x:c r="C6" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D6" s="51" t="s">
+      <x:c r="D6" s="16" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E6" s="52">
+      <x:c r="E6" s="17">
         <x:v>32454</x:v>
       </x:c>
-      <x:c r="F6" s="53" t="n">
+      <x:c r="F6" s="18" t="n">
         <x:v>31987</x:v>
       </x:c>
-      <x:c r="G6" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="B7" s="48" t="s">
+      <x:c r="G6" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H6" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B7" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C7" s="51" t="s">
+      <x:c r="C7" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D7" s="51" t="s">
+      <x:c r="D7" s="16" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E7" s="52">
+      <x:c r="E7" s="17">
         <x:v>32265</x:v>
       </x:c>
-      <x:c r="F7" s="53" t="n">
+      <x:c r="F7" s="18" t="n">
         <x:v>6500</x:v>
       </x:c>
-      <x:c r="G7" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="53" t="n">
+      <x:c r="G7" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H7" s="18" t="n">
         <x:v>6500</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:8">
-      <x:c r="B8" s="48" t="s">
+    <x:row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B8" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C8" s="51" t="s">
+      <x:c r="C8" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D8" s="51" t="s">
+      <x:c r="D8" s="16" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E8" s="52">
+      <x:c r="E8" s="17">
         <x:v>32267</x:v>
       </x:c>
-      <x:c r="F8" s="53" t="n">
+      <x:c r="F8" s="18" t="n">
         <x:v>1449.5</x:v>
       </x:c>
-      <x:c r="G8" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:8">
-      <x:c r="B9" s="48" t="s">
+      <x:c r="G8" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H8" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B9" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C9" s="51" t="s">
+      <x:c r="C9" s="16" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D9" s="51" t="s">
+      <x:c r="D9" s="16" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E9" s="52">
+      <x:c r="E9" s="17">
         <x:v>32275</x:v>
       </x:c>
-      <x:c r="F9" s="53" t="n">
+      <x:c r="F9" s="18" t="n">
         <x:v>5587</x:v>
       </x:c>
-      <x:c r="G9" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8">
-      <x:c r="B10" s="48" t="s">
+      <x:c r="G9" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H9" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B10" s="13" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C10" s="51" t="s">
+      <x:c r="C10" s="16" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D10" s="51" t="s">
+      <x:c r="D10" s="16" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E10" s="52">
+      <x:c r="E10" s="17">
         <x:v>32275</x:v>
       </x:c>
-      <x:c r="F10" s="53" t="n">
+      <x:c r="F10" s="18" t="n">
         <x:v>4996</x:v>
       </x:c>
-      <x:c r="G10" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="53" t="n">
+      <x:c r="G10" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H10" s="18" t="n">
         <x:v>4996</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:8">
-      <x:c r="B11" s="48" t="s">
+    <x:row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B11" s="13" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C11" s="51" t="s">
+      <x:c r="C11" s="16" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D11" s="51" t="s">
+      <x:c r="D11" s="16" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="E11" s="52">
+      <x:c r="E11" s="17">
         <x:v>32282</x:v>
       </x:c>
-      <x:c r="F11" s="53" t="n">
+      <x:c r="F11" s="18" t="n">
         <x:v>2679.85</x:v>
       </x:c>
-      <x:c r="G11" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="53" t="n">
+      <x:c r="G11" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H11" s="18" t="n">
         <x:v>2679.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:8">
-      <x:c r="B12" s="48" t="s">
+    <x:row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B12" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C12" s="51" t="s">
+      <x:c r="C12" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D12" s="51" t="s">
+      <x:c r="D12" s="16" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E12" s="52">
+      <x:c r="E12" s="17">
         <x:v>32283</x:v>
       </x:c>
-      <x:c r="F12" s="53" t="n">
+      <x:c r="F12" s="18" t="n">
         <x:v>5201</x:v>
       </x:c>
-      <x:c r="G12" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H12" s="53" t="n">
+      <x:c r="G12" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H12" s="18" t="n">
         <x:v>5201</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:8">
-      <x:c r="B13" s="48" t="s">
+    <x:row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B13" s="13" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C13" s="51" t="s">
+      <x:c r="C13" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D13" s="51" t="s">
+      <x:c r="D13" s="16" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="E13" s="52">
+      <x:c r="E13" s="17">
         <x:v>32289</x:v>
       </x:c>
-      <x:c r="F13" s="53" t="n">
+      <x:c r="F13" s="18" t="n">
         <x:v>3115</x:v>
       </x:c>
-      <x:c r="G13" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H13" s="53" t="n">
+      <x:c r="G13" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="18" t="n">
         <x:v>3115</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:8">
-      <x:c r="B14" s="48" t="s">
+    <x:row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B14" s="13" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C14" s="51" t="s">
+      <x:c r="C14" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D14" s="51" t="s">
+      <x:c r="D14" s="16" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="E14" s="52">
+      <x:c r="E14" s="17">
         <x:v>32289</x:v>
       </x:c>
-      <x:c r="F14" s="53" t="n">
+      <x:c r="F14" s="18" t="n">
         <x:v>134.85</x:v>
       </x:c>
-      <x:c r="G14" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="53" t="n">
+      <x:c r="G14" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="18" t="n">
         <x:v>134.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:8">
-      <x:c r="B15" s="48" t="s">
+    <x:row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B15" s="13" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C15" s="51" t="s">
+      <x:c r="C15" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D15" s="51" t="s">
+      <x:c r="D15" s="16" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E15" s="52">
+      <x:c r="E15" s="17">
         <x:v>32289</x:v>
       </x:c>
-      <x:c r="F15" s="53" t="n">
+      <x:c r="F15" s="18" t="n">
         <x:v>20321.75</x:v>
       </x:c>
-      <x:c r="G15" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="53" t="n">
+      <x:c r="G15" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="18" t="n">
         <x:v>20321.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:8">
-      <x:c r="B16" s="48" t="s">
+    <x:row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B16" s="13" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C16" s="51" t="s">
+      <x:c r="C16" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D16" s="51" t="s">
+      <x:c r="D16" s="16" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="E16" s="52">
+      <x:c r="E16" s="17">
         <x:v>32297</x:v>
       </x:c>
-      <x:c r="F16" s="53" t="n">
+      <x:c r="F16" s="18" t="n">
         <x:v>2605</x:v>
       </x:c>
-      <x:c r="G16" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:8">
-      <x:c r="B17" s="48" t="s">
+      <x:c r="G16" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B17" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C17" s="51" t="s">
+      <x:c r="C17" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D17" s="51" t="s">
+      <x:c r="D17" s="16" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="E17" s="52">
+      <x:c r="E17" s="17">
         <x:v>32307</x:v>
       </x:c>
-      <x:c r="F17" s="53" t="n">
+      <x:c r="F17" s="18" t="n">
         <x:v>10195</x:v>
       </x:c>
-      <x:c r="G17" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H17" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:8">
-      <x:c r="B18" s="48" t="s">
+      <x:c r="G17" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H17" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B18" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C18" s="51" t="s">
+      <x:c r="C18" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D18" s="51" t="s">
+      <x:c r="D18" s="16" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="E18" s="52">
+      <x:c r="E18" s="17">
         <x:v>32313</x:v>
       </x:c>
-      <x:c r="F18" s="53" t="n">
+      <x:c r="F18" s="18" t="n">
         <x:v>5256</x:v>
       </x:c>
-      <x:c r="G18" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:8">
-      <x:c r="B19" s="48" t="s">
+      <x:c r="G18" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B19" s="13" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C19" s="51" t="s">
+      <x:c r="C19" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D19" s="51" t="s">
+      <x:c r="D19" s="16" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="E19" s="52">
+      <x:c r="E19" s="17">
         <x:v>32319</x:v>
       </x:c>
-      <x:c r="F19" s="53" t="n">
+      <x:c r="F19" s="18" t="n">
         <x:v>20602</x:v>
       </x:c>
-      <x:c r="G19" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H19" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:8">
-      <x:c r="B20" s="48" t="s">
+      <x:c r="G19" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B20" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C20" s="51" t="s">
+      <x:c r="C20" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D20" s="51" t="s">
+      <x:c r="D20" s="16" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E20" s="52">
+      <x:c r="E20" s="17">
         <x:v>32319</x:v>
       </x:c>
-      <x:c r="F20" s="53" t="n">
+      <x:c r="F20" s="18" t="n">
         <x:v>9955</x:v>
       </x:c>
-      <x:c r="G20" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H20" s="53" t="n">
+      <x:c r="G20" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H20" s="18" t="n">
         <x:v>9955</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:8">
-      <x:c r="B21" s="48" t="s">
+    <x:row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B21" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C21" s="51" t="s">
+      <x:c r="C21" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D21" s="51" t="s">
+      <x:c r="D21" s="16" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="E21" s="52">
+      <x:c r="E21" s="17">
         <x:v>32319</x:v>
       </x:c>
-      <x:c r="F21" s="53" t="n">
+      <x:c r="F21" s="18" t="n">
         <x:v>3719</x:v>
       </x:c>
-      <x:c r="G21" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H21" s="53" t="n">
+      <x:c r="G21" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H21" s="18" t="n">
         <x:v>3719</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:8">
-      <x:c r="B22" s="48" t="s">
+    <x:row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B22" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C22" s="51" t="s">
+      <x:c r="C22" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D22" s="51" t="s">
+      <x:c r="D22" s="16" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="E22" s="52">
+      <x:c r="E22" s="17">
         <x:v>32325</x:v>
       </x:c>
-      <x:c r="F22" s="53" t="n">
+      <x:c r="F22" s="18" t="n">
         <x:v>10064.65</x:v>
       </x:c>
-      <x:c r="G22" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H22" s="53" t="n">
+      <x:c r="G22" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H22" s="18" t="n">
         <x:v>10064.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:8">
-      <x:c r="B23" s="48" t="s">
+    <x:row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B23" s="13" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C23" s="51" t="s">
+      <x:c r="C23" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D23" s="51" t="s">
+      <x:c r="D23" s="16" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="E23" s="52">
+      <x:c r="E23" s="17">
         <x:v>32326</x:v>
       </x:c>
-      <x:c r="F23" s="53" t="n">
+      <x:c r="F23" s="18" t="n">
         <x:v>4674</x:v>
       </x:c>
-      <x:c r="G23" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H23" s="53" t="n">
+      <x:c r="G23" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H23" s="18" t="n">
         <x:v>4674</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:8">
-      <x:c r="B24" s="48" t="s">
+    <x:row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B24" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C24" s="51" t="s">
+      <x:c r="C24" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D24" s="51" t="s">
+      <x:c r="D24" s="16" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="E24" s="52">
+      <x:c r="E24" s="17">
         <x:v>32327</x:v>
       </x:c>
-      <x:c r="F24" s="53" t="n">
+      <x:c r="F24" s="18" t="n">
         <x:v>6897</x:v>
       </x:c>
-      <x:c r="G24" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H24" s="53" t="n">
+      <x:c r="G24" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="18" t="n">
         <x:v>6897</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:8">
-      <x:c r="B25" s="48" t="s">
+    <x:row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B25" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C25" s="51" t="s">
+      <x:c r="C25" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D25" s="51" t="s">
+      <x:c r="D25" s="16" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="E25" s="52">
+      <x:c r="E25" s="17">
         <x:v>32328</x:v>
       </x:c>
-      <x:c r="F25" s="53" t="n">
+      <x:c r="F25" s="18" t="n">
         <x:v>930</x:v>
       </x:c>
-      <x:c r="G25" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H25" s="53" t="n">
+      <x:c r="G25" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="18" t="n">
         <x:v>930</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:8">
-      <x:c r="B26" s="48" t="s">
+    <x:row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B26" s="13" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C26" s="51" t="s">
+      <x:c r="C26" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D26" s="51" t="s">
+      <x:c r="D26" s="16" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="E26" s="52">
+      <x:c r="E26" s="17">
         <x:v>32332</x:v>
       </x:c>
-      <x:c r="F26" s="53" t="n">
+      <x:c r="F26" s="18" t="n">
         <x:v>2920</x:v>
       </x:c>
-      <x:c r="G26" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H26" s="53" t="n">
+      <x:c r="G26" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H26" s="18" t="n">
         <x:v>2920</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:8">
-      <x:c r="B27" s="48" t="s">
+    <x:row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B27" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C27" s="51" t="s">
+      <x:c r="C27" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D27" s="51" t="s">
+      <x:c r="D27" s="16" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="E27" s="52">
+      <x:c r="E27" s="17">
         <x:v>32332</x:v>
       </x:c>
-      <x:c r="F27" s="53" t="n">
+      <x:c r="F27" s="18" t="n">
         <x:v>25210</x:v>
       </x:c>
-      <x:c r="G27" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H27" s="53" t="n">
+      <x:c r="G27" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H27" s="18" t="n">
         <x:v>25210</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:8">
-      <x:c r="B28" s="48" t="s">
+    <x:row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B28" s="13" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C28" s="51" t="s">
+      <x:c r="C28" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D28" s="51" t="s">
+      <x:c r="D28" s="16" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="E28" s="52">
+      <x:c r="E28" s="17">
         <x:v>32332</x:v>
       </x:c>
-      <x:c r="F28" s="53" t="n">
+      <x:c r="F28" s="18" t="n">
         <x:v>343.8</x:v>
       </x:c>
-      <x:c r="G28" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H28" s="53" t="n">
+      <x:c r="G28" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H28" s="18" t="n">
         <x:v>343.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:8">
-      <x:c r="B29" s="48" t="s">
+    <x:row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B29" s="13" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C29" s="51" t="s">
+      <x:c r="C29" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D29" s="51" t="s">
+      <x:c r="D29" s="16" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="E29" s="52">
+      <x:c r="E29" s="17">
         <x:v>32343</x:v>
       </x:c>
-      <x:c r="F29" s="53" t="n">
+      <x:c r="F29" s="18" t="n">
         <x:v>20108</x:v>
       </x:c>
-      <x:c r="G29" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H29" s="53" t="n">
+      <x:c r="G29" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H29" s="18" t="n">
         <x:v>20108</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:8">
-      <x:c r="B30" s="48" t="s">
+    <x:row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B30" s="13" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C30" s="51" t="s">
+      <x:c r="C30" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D30" s="51" t="s">
+      <x:c r="D30" s="16" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="E30" s="52">
+      <x:c r="E30" s="17">
         <x:v>32350</x:v>
       </x:c>
-      <x:c r="F30" s="53" t="n">
+      <x:c r="F30" s="18" t="n">
         <x:v>559.6</x:v>
       </x:c>
-      <x:c r="G30" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H30" s="53" t="n">
+      <x:c r="G30" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H30" s="18" t="n">
         <x:v>559.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:8">
-      <x:c r="B31" s="48" t="s">
+    <x:row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B31" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C31" s="51" t="s">
+      <x:c r="C31" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D31" s="51" t="s">
+      <x:c r="D31" s="16" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="E31" s="52">
+      <x:c r="E31" s="17">
         <x:v>32356</x:v>
       </x:c>
-      <x:c r="F31" s="53" t="n">
+      <x:c r="F31" s="18" t="n">
         <x:v>12685</x:v>
       </x:c>
-      <x:c r="G31" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H31" s="53" t="n">
+      <x:c r="G31" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H31" s="18" t="n">
         <x:v>12685</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:8">
-      <x:c r="B32" s="48" t="s">
+    <x:row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B32" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C32" s="51" t="s">
+      <x:c r="C32" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D32" s="51" t="s">
+      <x:c r="D32" s="16" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="E32" s="52">
+      <x:c r="E32" s="17">
         <x:v>32356</x:v>
       </x:c>
-      <x:c r="F32" s="53" t="n">
+      <x:c r="F32" s="18" t="n">
         <x:v>775</x:v>
       </x:c>
-      <x:c r="G32" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H32" s="53" t="n">
+      <x:c r="G32" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H32" s="18" t="n">
         <x:v>775</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:8">
-      <x:c r="B33" s="48" t="s">
+    <x:row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B33" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C33" s="51" t="s">
+      <x:c r="C33" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D33" s="51" t="s">
+      <x:c r="D33" s="16" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="E33" s="52">
+      <x:c r="E33" s="17">
         <x:v>32357</x:v>
       </x:c>
-      <x:c r="F33" s="53" t="n">
+      <x:c r="F33" s="18" t="n">
         <x:v>1238</x:v>
       </x:c>
-      <x:c r="G33" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H33" s="53" t="n">
+      <x:c r="G33" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H33" s="18" t="n">
         <x:v>1238</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:8">
-      <x:c r="B34" s="48" t="s">
+    <x:row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B34" s="13" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C34" s="51" t="s">
+      <x:c r="C34" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D34" s="51" t="s">
+      <x:c r="D34" s="16" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="E34" s="52">
+      <x:c r="E34" s="17">
         <x:v>32369</x:v>
       </x:c>
-      <x:c r="F34" s="53" t="n">
+      <x:c r="F34" s="18" t="n">
         <x:v>18532</x:v>
       </x:c>
-      <x:c r="G34" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H34" s="53" t="n">
+      <x:c r="G34" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H34" s="18" t="n">
         <x:v>18532</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:8">
-      <x:c r="B35" s="48" t="s">
+    <x:row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B35" s="13" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C35" s="51" t="s">
+      <x:c r="C35" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D35" s="51" t="s">
+      <x:c r="D35" s="16" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="E35" s="52">
+      <x:c r="E35" s="17">
         <x:v>32372</x:v>
       </x:c>
-      <x:c r="F35" s="53" t="n">
+      <x:c r="F35" s="18" t="n">
         <x:v>560</x:v>
       </x:c>
-      <x:c r="G35" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H35" s="53" t="n">
+      <x:c r="G35" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H35" s="18" t="n">
         <x:v>560</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:8">
-      <x:c r="B36" s="48" t="s">
+    <x:row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B36" s="13" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C36" s="51" t="s">
+      <x:c r="C36" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D36" s="51" t="s">
+      <x:c r="D36" s="16" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="E36" s="52">
+      <x:c r="E36" s="17">
         <x:v>32381</x:v>
       </x:c>
-      <x:c r="F36" s="53" t="n">
+      <x:c r="F36" s="18" t="n">
         <x:v>4110</x:v>
       </x:c>
-      <x:c r="G36" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H36" s="53" t="n">
+      <x:c r="G36" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="18" t="n">
         <x:v>4110</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:8">
-      <x:c r="B37" s="48" t="s">
+    <x:row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B37" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C37" s="51" t="s">
+      <x:c r="C37" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D37" s="51" t="s">
+      <x:c r="D37" s="16" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="E37" s="52">
+      <x:c r="E37" s="17">
         <x:v>32382</x:v>
       </x:c>
-      <x:c r="F37" s="53" t="n">
+      <x:c r="F37" s="18" t="n">
         <x:v>3117</x:v>
       </x:c>
-      <x:c r="G37" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H37" s="53" t="n">
+      <x:c r="G37" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H37" s="18" t="n">
         <x:v>3117</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:8">
-      <x:c r="B38" s="48" t="s">
+    <x:row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B38" s="13" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C38" s="51" t="s">
+      <x:c r="C38" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D38" s="51" t="s">
+      <x:c r="D38" s="16" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="E38" s="52">
+      <x:c r="E38" s="17">
         <x:v>32382</x:v>
       </x:c>
-      <x:c r="F38" s="53" t="n">
+      <x:c r="F38" s="18" t="n">
         <x:v>10152</x:v>
       </x:c>
-      <x:c r="G38" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H38" s="53" t="n">
+      <x:c r="G38" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H38" s="18" t="n">
         <x:v>10152</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:8">
-      <x:c r="B39" s="48" t="s">
+    <x:row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B39" s="13" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C39" s="51" t="s">
+      <x:c r="C39" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D39" s="51" t="s">
+      <x:c r="D39" s="16" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="E39" s="52">
+      <x:c r="E39" s="17">
         <x:v>32387</x:v>
       </x:c>
-      <x:c r="F39" s="53" t="n">
+      <x:c r="F39" s="18" t="n">
         <x:v>536.8</x:v>
       </x:c>
-      <x:c r="G39" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H39" s="53" t="n">
+      <x:c r="G39" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H39" s="18" t="n">
         <x:v>536.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:8">
-      <x:c r="B40" s="48" t="s">
+    <x:row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B40" s="13" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C40" s="51" t="s">
+      <x:c r="C40" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D40" s="51" t="s">
+      <x:c r="D40" s="16" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="E40" s="52">
+      <x:c r="E40" s="17">
         <x:v>32391</x:v>
       </x:c>
-      <x:c r="F40" s="53" t="n">
+      <x:c r="F40" s="18" t="n">
         <x:v>3632</x:v>
       </x:c>
-      <x:c r="G40" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H40" s="53" t="n">
+      <x:c r="G40" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H40" s="18" t="n">
         <x:v>3632</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:8">
-      <x:c r="B41" s="48" t="s">
+    <x:row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B41" s="13" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C41" s="51" t="s">
+      <x:c r="C41" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D41" s="51" t="s">
+      <x:c r="D41" s="16" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="E41" s="52">
+      <x:c r="E41" s="17">
         <x:v>32403</x:v>
       </x:c>
-      <x:c r="F41" s="53" t="n">
+      <x:c r="F41" s="18" t="n">
         <x:v>7807</x:v>
       </x:c>
-      <x:c r="G41" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H41" s="53" t="n">
+      <x:c r="G41" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H41" s="18" t="n">
         <x:v>7807</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:8">
-      <x:c r="B42" s="48" t="s">
+    <x:row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B42" s="13" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="C42" s="51" t="s">
+      <x:c r="C42" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D42" s="51" t="s">
+      <x:c r="D42" s="16" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="E42" s="52">
+      <x:c r="E42" s="17">
         <x:v>32411</x:v>
       </x:c>
-      <x:c r="F42" s="53" t="n">
+      <x:c r="F42" s="18" t="n">
         <x:v>971.7</x:v>
       </x:c>
-      <x:c r="G42" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H42" s="53" t="n">
+      <x:c r="G42" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H42" s="18" t="n">
         <x:v>971.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:8">
-      <x:c r="B43" s="48" t="s">
+    <x:row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B43" s="13" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C43" s="51" t="s">
+      <x:c r="C43" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D43" s="51" t="s">
+      <x:c r="D43" s="16" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="E43" s="52">
+      <x:c r="E43" s="17">
         <x:v>32417</x:v>
       </x:c>
-      <x:c r="F43" s="53" t="n">
+      <x:c r="F43" s="18" t="n">
         <x:v>12455</x:v>
       </x:c>
-      <x:c r="G43" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H43" s="53" t="n">
+      <x:c r="G43" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H43" s="18" t="n">
         <x:v>12455</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:8">
-      <x:c r="B44" s="48" t="s">
+    <x:row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B44" s="13" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C44" s="51" t="s">
+      <x:c r="C44" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D44" s="51" t="s">
+      <x:c r="D44" s="16" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="E44" s="52">
+      <x:c r="E44" s="17">
         <x:v>32425</x:v>
       </x:c>
-      <x:c r="F44" s="53" t="n">
+      <x:c r="F44" s="18" t="n">
         <x:v>64050</x:v>
       </x:c>
-      <x:c r="G44" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H44" s="53" t="n">
+      <x:c r="G44" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H44" s="18" t="n">
         <x:v>64050</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:8">
-      <x:c r="B45" s="48" t="s">
+    <x:row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B45" s="13" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C45" s="51" t="s">
+      <x:c r="C45" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D45" s="51" t="s">
+      <x:c r="D45" s="16" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="E45" s="52">
+      <x:c r="E45" s="17">
         <x:v>32433</x:v>
       </x:c>
-      <x:c r="F45" s="53" t="n">
+      <x:c r="F45" s="18" t="n">
         <x:v>787.8</x:v>
       </x:c>
-      <x:c r="G45" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H45" s="53" t="n">
+      <x:c r="G45" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H45" s="18" t="n">
         <x:v>787.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:8">
-      <x:c r="B46" s="48" t="s">
+    <x:row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B46" s="13" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C46" s="51" t="s">
+      <x:c r="C46" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D46" s="51" t="s">
+      <x:c r="D46" s="16" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="E46" s="52">
+      <x:c r="E46" s="17">
         <x:v>32460</x:v>
       </x:c>
-      <x:c r="F46" s="53" t="n">
+      <x:c r="F46" s="18" t="n">
         <x:v>766.8</x:v>
       </x:c>
-      <x:c r="G46" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H46" s="53" t="n">
+      <x:c r="G46" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H46" s="18" t="n">
         <x:v>766.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:8">
-      <x:c r="B47" s="48" t="s">
+    <x:row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B47" s="13" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C47" s="51" t="s">
+      <x:c r="C47" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D47" s="51" t="s">
+      <x:c r="D47" s="16" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="E47" s="52">
+      <x:c r="E47" s="17">
         <x:v>32475</x:v>
       </x:c>
-      <x:c r="F47" s="53" t="n">
+      <x:c r="F47" s="18" t="n">
         <x:v>15365</x:v>
       </x:c>
-      <x:c r="G47" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H47" s="53" t="n">
+      <x:c r="G47" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H47" s="18" t="n">
         <x:v>15365</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:8">
-      <x:c r="B48" s="48" t="s">
+    <x:row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B48" s="13" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C48" s="51" t="s">
+      <x:c r="C48" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D48" s="51" t="s">
+      <x:c r="D48" s="16" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="E48" s="52">
+      <x:c r="E48" s="17">
         <x:v>32480</x:v>
       </x:c>
-      <x:c r="F48" s="53" t="n">
+      <x:c r="F48" s="18" t="n">
         <x:v>7346</x:v>
       </x:c>
-      <x:c r="G48" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H48" s="53" t="n">
+      <x:c r="G48" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H48" s="18" t="n">
         <x:v>7346</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:8">
-      <x:c r="B49" s="48" t="s">
+    <x:row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B49" s="13" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C49" s="51" t="s">
+      <x:c r="C49" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D49" s="51" t="s">
+      <x:c r="D49" s="16" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="E49" s="52">
+      <x:c r="E49" s="17">
         <x:v>32491</x:v>
       </x:c>
-      <x:c r="F49" s="53" t="n">
+      <x:c r="F49" s="18" t="n">
         <x:v>1809.85</x:v>
       </x:c>
-      <x:c r="G49" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H49" s="53" t="n">
+      <x:c r="G49" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H49" s="18" t="n">
         <x:v>1809.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:8">
-      <x:c r="B50" s="48" t="s">
+    <x:row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B50" s="13" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C50" s="51" t="s">
+      <x:c r="C50" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D50" s="51" t="s">
+      <x:c r="D50" s="16" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="E50" s="52">
+      <x:c r="E50" s="17">
         <x:v>32502</x:v>
       </x:c>
-      <x:c r="F50" s="53" t="n">
+      <x:c r="F50" s="18" t="n">
         <x:v>6287.85</x:v>
       </x:c>
-      <x:c r="G50" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H50" s="53" t="n">
+      <x:c r="G50" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H50" s="18" t="n">
         <x:v>6287.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:8">
-      <x:c r="B51" s="48" t="s">
+    <x:row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B51" s="13" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C51" s="51" t="s">
+      <x:c r="C51" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D51" s="51" t="s">
+      <x:c r="D51" s="16" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="E51" s="52">
+      <x:c r="E51" s="17">
         <x:v>32513</x:v>
       </x:c>
-      <x:c r="F51" s="53" t="n">
+      <x:c r="F51" s="18" t="n">
         <x:v>325</x:v>
       </x:c>
-      <x:c r="G51" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H51" s="53" t="n">
+      <x:c r="G51" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H51" s="18" t="n">
         <x:v>325</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:8">
-      <x:c r="B52" s="48" t="s">
+    <x:row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B52" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C52" s="51" t="s">
+      <x:c r="C52" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D52" s="51" t="s">
+      <x:c r="D52" s="16" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="E52" s="52">
+      <x:c r="E52" s="17">
         <x:v>32515</x:v>
       </x:c>
-      <x:c r="F52" s="53" t="n">
+      <x:c r="F52" s="18" t="n">
         <x:v>16788</x:v>
       </x:c>
-      <x:c r="G52" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H52" s="53" t="n">
+      <x:c r="G52" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H52" s="18" t="n">
         <x:v>16788</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:8">
-      <x:c r="B53" s="48" t="s">
+    <x:row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B53" s="13" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C53" s="51" t="s">
+      <x:c r="C53" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D53" s="51" t="s">
+      <x:c r="D53" s="16" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="E53" s="52">
+      <x:c r="E53" s="17">
         <x:v>32524</x:v>
       </x:c>
-      <x:c r="F53" s="53" t="n">
+      <x:c r="F53" s="18" t="n">
         <x:v>24650</x:v>
       </x:c>
-      <x:c r="G53" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H53" s="53" t="n">
+      <x:c r="G53" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H53" s="18" t="n">
         <x:v>24650</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:8">
-      <x:c r="B54" s="48" t="s">
+    <x:row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B54" s="13" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C54" s="51" t="s">
+      <x:c r="C54" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D54" s="51" t="s">
+      <x:c r="D54" s="16" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="E54" s="52">
+      <x:c r="E54" s="17">
         <x:v>32540</x:v>
       </x:c>
-      <x:c r="F54" s="53" t="n">
+      <x:c r="F54" s="18" t="n">
         <x:v>14188</x:v>
       </x:c>
-      <x:c r="G54" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H54" s="53" t="n">
+      <x:c r="G54" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H54" s="18" t="n">
         <x:v>14188</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:8">
-      <x:c r="B55" s="48" t="s">
+    <x:row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B55" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C55" s="51" t="s">
+      <x:c r="C55" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D55" s="51" t="s">
+      <x:c r="D55" s="16" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="E55" s="52">
+      <x:c r="E55" s="17">
         <x:v>32544</x:v>
       </x:c>
-      <x:c r="F55" s="53" t="n">
+      <x:c r="F55" s="18" t="n">
         <x:v>23406</x:v>
       </x:c>
-      <x:c r="G55" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H55" s="53" t="n">
+      <x:c r="G55" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H55" s="18" t="n">
         <x:v>23406</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:8">
-      <x:c r="B56" s="48" t="s">
+    <x:row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B56" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C56" s="51" t="s">
+      <x:c r="C56" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D56" s="51" t="s">
+      <x:c r="D56" s="16" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="E56" s="52">
+      <x:c r="E56" s="17">
         <x:v>32548</x:v>
       </x:c>
-      <x:c r="F56" s="53" t="n">
+      <x:c r="F56" s="18" t="n">
         <x:v>19293.7</x:v>
       </x:c>
-      <x:c r="G56" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H56" s="53" t="n">
+      <x:c r="G56" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H56" s="18" t="n">
         <x:v>19293.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:8">
-      <x:c r="B57" s="48" t="s">
+    <x:row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B57" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C57" s="51" t="s">
+      <x:c r="C57" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D57" s="51" t="s">
+      <x:c r="D57" s="16" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="E57" s="52">
+      <x:c r="E57" s="17">
         <x:v>32558</x:v>
       </x:c>
-      <x:c r="F57" s="53" t="n">
+      <x:c r="F57" s="18" t="n">
         <x:v>1975</x:v>
       </x:c>
-      <x:c r="G57" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H57" s="53" t="n">
+      <x:c r="G57" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H57" s="18" t="n">
         <x:v>1975</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:8">
-      <x:c r="B58" s="48" t="s">
+    <x:row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B58" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C58" s="51" t="s">
+      <x:c r="C58" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D58" s="51" t="s">
+      <x:c r="D58" s="16" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="E58" s="52">
+      <x:c r="E58" s="17">
         <x:v>32561</x:v>
       </x:c>
-      <x:c r="F58" s="53" t="n">
+      <x:c r="F58" s="18" t="n">
         <x:v>12736</x:v>
       </x:c>
-      <x:c r="G58" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H58" s="53" t="n">
+      <x:c r="G58" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H58" s="18" t="n">
         <x:v>12736</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:8">
-      <x:c r="B59" s="48" t="s">
+    <x:row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B59" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C59" s="51" t="s">
+      <x:c r="C59" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D59" s="51" t="s">
+      <x:c r="D59" s="16" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="E59" s="52">
+      <x:c r="E59" s="17">
         <x:v>32564</x:v>
       </x:c>
-      <x:c r="F59" s="53" t="n">
+      <x:c r="F59" s="18" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="G59" s="54" t="n">
+      <x:c r="G59" s="19" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="H59" s="53" t="n">
+      <x:c r="H59" s="18" t="n">
         <x:v>2150</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:8">
-      <x:c r="B60" s="48" t="s">
+    <x:row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B60" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C60" s="51" t="s">
+      <x:c r="C60" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D60" s="51" t="s">
+      <x:c r="D60" s="16" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="E60" s="52">
+      <x:c r="E60" s="17">
         <x:v>32568</x:v>
       </x:c>
-      <x:c r="F60" s="53" t="n">
+      <x:c r="F60" s="18" t="n">
         <x:v>15355</x:v>
       </x:c>
-      <x:c r="G60" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H60" s="53" t="n">
+      <x:c r="G60" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H60" s="18" t="n">
         <x:v>15355</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:8">
-      <x:c r="B61" s="48" t="s">
+    <x:row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B61" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C61" s="51" t="s">
+      <x:c r="C61" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D61" s="51" t="s">
+      <x:c r="D61" s="16" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="E61" s="52">
+      <x:c r="E61" s="17">
         <x:v>32571</x:v>
       </x:c>
-      <x:c r="F61" s="53" t="n">
+      <x:c r="F61" s="18" t="n">
         <x:v>24277.3</x:v>
       </x:c>
-      <x:c r="G61" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H61" s="53" t="n">
+      <x:c r="G61" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H61" s="18" t="n">
         <x:v>24277.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:8">
-      <x:c r="B62" s="48" t="s">
+    <x:row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B62" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C62" s="51" t="s">
+      <x:c r="C62" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D62" s="51" t="s">
+      <x:c r="D62" s="16" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="E62" s="52">
+      <x:c r="E62" s="17">
         <x:v>32576</x:v>
       </x:c>
-      <x:c r="F62" s="53" t="n">
+      <x:c r="F62" s="18" t="n">
         <x:v>18320</x:v>
       </x:c>
-      <x:c r="G62" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H62" s="53" t="n">
+      <x:c r="G62" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H62" s="18" t="n">
         <x:v>18320</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:8">
-      <x:c r="B63" s="48" t="s">
+    <x:row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B63" s="13" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C63" s="51" t="s">
+      <x:c r="C63" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D63" s="51" t="s">
+      <x:c r="D63" s="16" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="E63" s="52">
+      <x:c r="E63" s="17">
         <x:v>32581</x:v>
       </x:c>
-      <x:c r="F63" s="53" t="n">
+      <x:c r="F63" s="18" t="n">
         <x:v>61869.3</x:v>
       </x:c>
-      <x:c r="G63" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H63" s="53" t="n">
+      <x:c r="G63" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H63" s="18" t="n">
         <x:v>61869.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:8">
-      <x:c r="B64" s="48" t="s">
+    <x:row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B64" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C64" s="51" t="s">
+      <x:c r="C64" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D64" s="51" t="s">
+      <x:c r="D64" s="16" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="E64" s="52">
+      <x:c r="E64" s="17">
         <x:v>32592</x:v>
       </x:c>
-      <x:c r="F64" s="53" t="n">
+      <x:c r="F64" s="18" t="n">
         <x:v>395</x:v>
       </x:c>
-      <x:c r="G64" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H64" s="53" t="n">
+      <x:c r="G64" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H64" s="18" t="n">
         <x:v>395</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:8">
-      <x:c r="B65" s="48" t="s">
+    <x:row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B65" s="13" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="C65" s="51" t="s">
+      <x:c r="C65" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D65" s="51" t="s">
+      <x:c r="D65" s="16" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="E65" s="52">
+      <x:c r="E65" s="17">
         <x:v>32593</x:v>
       </x:c>
-      <x:c r="F65" s="53" t="n">
+      <x:c r="F65" s="18" t="n">
         <x:v>17814</x:v>
       </x:c>
-      <x:c r="G65" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H65" s="53" t="n">
+      <x:c r="G65" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H65" s="18" t="n">
         <x:v>17814</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:8">
-      <x:c r="B66" s="48" t="s">
+    <x:row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B66" s="13" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C66" s="51" t="s">
+      <x:c r="C66" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D66" s="51" t="s">
+      <x:c r="D66" s="16" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="E66" s="52">
+      <x:c r="E66" s="17">
         <x:v>32594</x:v>
       </x:c>
-      <x:c r="F66" s="53" t="n">
+      <x:c r="F66" s="18" t="n">
         <x:v>19812</x:v>
       </x:c>
-      <x:c r="G66" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H66" s="53" t="n">
+      <x:c r="G66" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H66" s="18" t="n">
         <x:v>19812</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:8">
-      <x:c r="B67" s="48" t="s">
+    <x:row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B67" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C67" s="51" t="s">
+      <x:c r="C67" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D67" s="51" t="s">
+      <x:c r="D67" s="16" t="s">
         <x:v>116</x:v>
       </x:c>
-      <x:c r="E67" s="52">
+      <x:c r="E67" s="17">
         <x:v>32600</x:v>
       </x:c>
-      <x:c r="F67" s="53" t="n">
+      <x:c r="F67" s="18" t="n">
         <x:v>4495</x:v>
       </x:c>
-      <x:c r="G67" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H67" s="53" t="n">
+      <x:c r="G67" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H67" s="18" t="n">
         <x:v>4495</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:8">
-      <x:c r="B68" s="48" t="s">
+    <x:row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B68" s="13" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C68" s="51" t="s">
+      <x:c r="C68" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D68" s="51" t="s">
+      <x:c r="D68" s="16" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="E68" s="52">
+      <x:c r="E68" s="17">
         <x:v>32602</x:v>
       </x:c>
-      <x:c r="F68" s="53" t="n">
+      <x:c r="F68" s="18" t="n">
         <x:v>31847</x:v>
       </x:c>
-      <x:c r="G68" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H68" s="53" t="n">
+      <x:c r="G68" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H68" s="18" t="n">
         <x:v>31847</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:8">
-      <x:c r="B69" s="48" t="s">
+    <x:row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B69" s="13" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="C69" s="51" t="s">
+      <x:c r="C69" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D69" s="51" t="s">
+      <x:c r="D69" s="16" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="E69" s="52">
+      <x:c r="E69" s="17">
         <x:v>32604</x:v>
       </x:c>
-      <x:c r="F69" s="53" t="n">
+      <x:c r="F69" s="18" t="n">
         <x:v>33829.45</x:v>
       </x:c>
-      <x:c r="G69" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H69" s="53" t="n">
+      <x:c r="G69" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H69" s="18" t="n">
         <x:v>33829.45</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:8">
-      <x:c r="B70" s="48" t="s">
+    <x:row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B70" s="13" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="C70" s="51" t="s">
+      <x:c r="C70" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D70" s="51" t="s">
+      <x:c r="D70" s="16" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="E70" s="52">
+      <x:c r="E70" s="17">
         <x:v>32606</x:v>
       </x:c>
-      <x:c r="F70" s="53" t="n">
+      <x:c r="F70" s="18" t="n">
         <x:v>22354</x:v>
       </x:c>
-      <x:c r="G70" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H70" s="53" t="n">
+      <x:c r="G70" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H70" s="18" t="n">
         <x:v>22354</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:8">
-      <x:c r="B71" s="48" t="s">
+    <x:row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B71" s="13" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C71" s="51" t="s">
+      <x:c r="C71" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D71" s="51" t="s">
+      <x:c r="D71" s="16" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="E71" s="52">
+      <x:c r="E71" s="17">
         <x:v>32608</x:v>
       </x:c>
-      <x:c r="F71" s="53" t="n">
+      <x:c r="F71" s="18" t="n">
         <x:v>103041</x:v>
       </x:c>
-      <x:c r="G71" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H71" s="53" t="n">
+      <x:c r="G71" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H71" s="18" t="n">
         <x:v>103041</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:8">
-      <x:c r="B72" s="48" t="s">
+    <x:row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B72" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C72" s="51" t="s">
+      <x:c r="C72" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D72" s="51" t="s">
+      <x:c r="D72" s="16" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="E72" s="52">
+      <x:c r="E72" s="17">
         <x:v>32610</x:v>
       </x:c>
-      <x:c r="F72" s="53" t="n">
+      <x:c r="F72" s="18" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="G72" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H72" s="53" t="n">
+      <x:c r="G72" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H72" s="18" t="n">
         <x:v>3596</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:8">
-      <x:c r="B73" s="48" t="s">
+    <x:row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B73" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C73" s="51" t="s">
+      <x:c r="C73" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D73" s="51" t="s">
+      <x:c r="D73" s="16" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="E73" s="52">
+      <x:c r="E73" s="17">
         <x:v>32614</x:v>
       </x:c>
-      <x:c r="F73" s="53" t="n">
+      <x:c r="F73" s="18" t="n">
         <x:v>19414</x:v>
       </x:c>
-      <x:c r="G73" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H73" s="53" t="n">
+      <x:c r="G73" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H73" s="18" t="n">
         <x:v>19414</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:8">
-      <x:c r="B74" s="48" t="s">
+    <x:row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B74" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C74" s="51" t="s">
+      <x:c r="C74" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D74" s="51" t="s">
+      <x:c r="D74" s="16" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="E74" s="52">
+      <x:c r="E74" s="17">
         <x:v>32618</x:v>
       </x:c>
-      <x:c r="F74" s="53" t="n">
+      <x:c r="F74" s="18" t="n">
         <x:v>2195</x:v>
       </x:c>
-      <x:c r="G74" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H74" s="53" t="n">
+      <x:c r="G74" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H74" s="18" t="n">
         <x:v>2195</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:8">
-      <x:c r="B75" s="48" t="s">
+    <x:row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B75" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C75" s="51" t="s">
+      <x:c r="C75" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D75" s="51" t="s">
+      <x:c r="D75" s="16" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="E75" s="52">
+      <x:c r="E75" s="17">
         <x:v>32620</x:v>
       </x:c>
-      <x:c r="F75" s="53" t="n">
+      <x:c r="F75" s="18" t="n">
         <x:v>8560</x:v>
       </x:c>
-      <x:c r="G75" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H75" s="53" t="n">
+      <x:c r="G75" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H75" s="18" t="n">
         <x:v>8560</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:8">
-      <x:c r="B76" s="48" t="s">
+    <x:row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B76" s="13" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C76" s="51" t="s">
+      <x:c r="C76" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D76" s="51" t="s">
+      <x:c r="D76" s="16" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="E76" s="52">
+      <x:c r="E76" s="17">
         <x:v>32624</x:v>
       </x:c>
-      <x:c r="F76" s="53" t="n">
+      <x:c r="F76" s="18" t="n">
         <x:v>17781</x:v>
       </x:c>
-      <x:c r="G76" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H76" s="53" t="n">
+      <x:c r="G76" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H76" s="18" t="n">
         <x:v>17781</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:8">
-      <x:c r="B77" s="48" t="s">
+    <x:row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B77" s="13" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C77" s="51" t="s">
+      <x:c r="C77" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D77" s="51" t="s">
+      <x:c r="D77" s="16" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="E77" s="52">
+      <x:c r="E77" s="17">
         <x:v>32629</x:v>
       </x:c>
-      <x:c r="F77" s="53" t="n">
+      <x:c r="F77" s="18" t="n">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="G77" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H77" s="53" t="n">
+      <x:c r="G77" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H77" s="18" t="n">
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:8">
-      <x:c r="B78" s="48" t="s">
+    <x:row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B78" s="13" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="C78" s="51" t="s">
+      <x:c r="C78" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D78" s="51" t="s">
+      <x:c r="D78" s="16" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="E78" s="52">
+      <x:c r="E78" s="17">
         <x:v>32630</x:v>
       </x:c>
-      <x:c r="F78" s="53" t="n">
+      <x:c r="F78" s="18" t="n">
         <x:v>79116</x:v>
       </x:c>
-      <x:c r="G78" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H78" s="53" t="n">
+      <x:c r="G78" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H78" s="18" t="n">
         <x:v>79116</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:8">
-      <x:c r="B79" s="48" t="s">
+    <x:row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B79" s="13" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C79" s="51" t="s">
+      <x:c r="C79" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D79" s="51" t="s">
+      <x:c r="D79" s="16" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="E79" s="52">
+      <x:c r="E79" s="17">
         <x:v>32632</x:v>
       </x:c>
-      <x:c r="F79" s="53" t="n">
+      <x:c r="F79" s="18" t="n">
         <x:v>4445</x:v>
       </x:c>
-      <x:c r="G79" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H79" s="53" t="n">
+      <x:c r="G79" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H79" s="18" t="n">
         <x:v>4445</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:8">
-      <x:c r="B80" s="48" t="s">
+    <x:row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B80" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C80" s="51" t="s">
+      <x:c r="C80" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D80" s="51" t="s">
+      <x:c r="D80" s="16" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="E80" s="52">
+      <x:c r="E80" s="17">
         <x:v>32634</x:v>
       </x:c>
-      <x:c r="F80" s="53" t="n">
+      <x:c r="F80" s="18" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="G80" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H80" s="53" t="n">
+      <x:c r="G80" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H80" s="18" t="n">
         <x:v>9634</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:8">
-      <x:c r="B81" s="48" t="s">
+    <x:row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B81" s="13" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C81" s="51" t="s">
+      <x:c r="C81" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D81" s="51" t="s">
+      <x:c r="D81" s="16" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="E81" s="52">
+      <x:c r="E81" s="17">
         <x:v>32636</x:v>
       </x:c>
-      <x:c r="F81" s="53" t="n">
+      <x:c r="F81" s="18" t="n">
         <x:v>30566</x:v>
       </x:c>
-      <x:c r="G81" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H81" s="53" t="n">
+      <x:c r="G81" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H81" s="18" t="n">
         <x:v>30566</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:8">
-      <x:c r="B82" s="48" t="s">
+    <x:row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B82" s="13" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C82" s="51" t="s">
+      <x:c r="C82" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D82" s="51" t="s">
+      <x:c r="D82" s="16" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="E82" s="52">
+      <x:c r="E82" s="17">
         <x:v>32638</x:v>
       </x:c>
-      <x:c r="F82" s="53" t="n">
+      <x:c r="F82" s="18" t="n">
         <x:v>1416.45</x:v>
       </x:c>
-      <x:c r="G82" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H82" s="53" t="n">
+      <x:c r="G82" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H82" s="18" t="n">
         <x:v>1416.45</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:8">
-      <x:c r="B83" s="48" t="s">
+    <x:row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B83" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C83" s="51" t="s">
+      <x:c r="C83" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D83" s="51" t="s">
+      <x:c r="D83" s="16" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="E83" s="52">
+      <x:c r="E83" s="17">
         <x:v>32638</x:v>
       </x:c>
-      <x:c r="F83" s="53" t="n">
+      <x:c r="F83" s="18" t="n">
         <x:v>11164.8</x:v>
       </x:c>
-      <x:c r="G83" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H83" s="53" t="n">
+      <x:c r="G83" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H83" s="18" t="n">
         <x:v>11164.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:8">
-      <x:c r="B84" s="48" t="s">
+    <x:row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B84" s="13" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C84" s="51" t="s">
+      <x:c r="C84" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D84" s="51" t="s">
+      <x:c r="D84" s="16" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="E84" s="52">
+      <x:c r="E84" s="17">
         <x:v>32640</x:v>
       </x:c>
-      <x:c r="F84" s="53" t="n">
+      <x:c r="F84" s="18" t="n">
         <x:v>1185</x:v>
       </x:c>
-      <x:c r="G84" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H84" s="53" t="n">
+      <x:c r="G84" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H84" s="18" t="n">
         <x:v>1185</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:8">
-      <x:c r="B85" s="48" t="s">
+    <x:row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B85" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C85" s="51" t="s">
+      <x:c r="C85" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D85" s="51" t="s">
+      <x:c r="D85" s="16" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="E85" s="52">
+      <x:c r="E85" s="17">
         <x:v>32647</x:v>
       </x:c>
-      <x:c r="F85" s="53" t="n">
+      <x:c r="F85" s="18" t="n">
         <x:v>14049.95</x:v>
       </x:c>
-      <x:c r="G85" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H85" s="53" t="n">
+      <x:c r="G85" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H85" s="18" t="n">
         <x:v>14049.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:8">
-      <x:c r="B86" s="48" t="s">
+    <x:row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B86" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C86" s="51" t="s">
+      <x:c r="C86" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D86" s="51" t="s">
+      <x:c r="D86" s="16" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="E86" s="52">
+      <x:c r="E86" s="17">
         <x:v>32649</x:v>
       </x:c>
-      <x:c r="F86" s="53" t="n">
+      <x:c r="F86" s="18" t="n">
         <x:v>14045</x:v>
       </x:c>
-      <x:c r="G86" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H86" s="53" t="n">
+      <x:c r="G86" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H86" s="18" t="n">
         <x:v>14045</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:8">
-      <x:c r="B87" s="48" t="s">
+    <x:row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B87" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C87" s="51" t="s">
+      <x:c r="C87" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D87" s="51" t="s">
+      <x:c r="D87" s="16" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="E87" s="52">
+      <x:c r="E87" s="17">
         <x:v>32651</x:v>
       </x:c>
-      <x:c r="F87" s="53" t="n">
+      <x:c r="F87" s="18" t="n">
         <x:v>2706</x:v>
       </x:c>
-      <x:c r="G87" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H87" s="53" t="n">
+      <x:c r="G87" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H87" s="18" t="n">
         <x:v>2706</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:8">
-      <x:c r="B88" s="48" t="s">
+    <x:row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B88" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C88" s="51" t="s">
+      <x:c r="C88" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D88" s="51" t="s">
+      <x:c r="D88" s="16" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="E88" s="52">
+      <x:c r="E88" s="17">
         <x:v>32654</x:v>
       </x:c>
-      <x:c r="F88" s="53" t="n">
+      <x:c r="F88" s="18" t="n">
         <x:v>8507</x:v>
       </x:c>
-      <x:c r="G88" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H88" s="53" t="n">
+      <x:c r="G88" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H88" s="18" t="n">
         <x:v>8507</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:8">
-      <x:c r="B89" s="48" t="s">
+    <x:row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B89" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C89" s="51" t="s">
+      <x:c r="C89" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D89" s="51" t="s">
+      <x:c r="D89" s="16" t="s">
         <x:v>142</x:v>
       </x:c>
-      <x:c r="E89" s="52">
+      <x:c r="E89" s="17">
         <x:v>32660</x:v>
       </x:c>
-      <x:c r="F89" s="53" t="n">
+      <x:c r="F89" s="18" t="n">
         <x:v>1950</x:v>
       </x:c>
-      <x:c r="G89" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H89" s="53" t="n">
+      <x:c r="G89" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H89" s="18" t="n">
         <x:v>1950</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:8">
-      <x:c r="B90" s="48" t="s">
+    <x:row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B90" s="13" t="s">
         <x:v>143</x:v>
       </x:c>
-      <x:c r="C90" s="51" t="s">
+      <x:c r="C90" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D90" s="51" t="s">
+      <x:c r="D90" s="16" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="E90" s="52">
+      <x:c r="E90" s="17">
         <x:v>32660</x:v>
       </x:c>
-      <x:c r="F90" s="53" t="n">
+      <x:c r="F90" s="18" t="n">
         <x:v>76698.75</x:v>
       </x:c>
-      <x:c r="G90" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H90" s="53" t="n">
+      <x:c r="G90" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H90" s="18" t="n">
         <x:v>76698.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:8">
-      <x:c r="B91" s="48" t="s">
+    <x:row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B91" s="13" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C91" s="51" t="s">
+      <x:c r="C91" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D91" s="51" t="s">
+      <x:c r="D91" s="16" t="s">
         <x:v>145</x:v>
       </x:c>
-      <x:c r="E91" s="52">
+      <x:c r="E91" s="17">
         <x:v>32661</x:v>
       </x:c>
-      <x:c r="F91" s="53" t="n">
+      <x:c r="F91" s="18" t="n">
         <x:v>479.8</x:v>
       </x:c>
-      <x:c r="G91" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H91" s="53" t="n">
+      <x:c r="G91" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H91" s="18" t="n">
         <x:v>479.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:8">
-      <x:c r="B92" s="48" t="s">
+    <x:row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B92" s="13" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="C92" s="51" t="s">
+      <x:c r="C92" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D92" s="51" t="s">
+      <x:c r="D92" s="16" t="s">
         <x:v>147</x:v>
       </x:c>
-      <x:c r="E92" s="52">
+      <x:c r="E92" s="17">
         <x:v>32663</x:v>
       </x:c>
-      <x:c r="F92" s="53" t="n">
+      <x:c r="F92" s="18" t="n">
         <x:v>4113.75</x:v>
       </x:c>
-      <x:c r="G92" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H92" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:8">
-      <x:c r="B93" s="48" t="s">
+      <x:c r="G92" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H92" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B93" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C93" s="51" t="s">
+      <x:c r="C93" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D93" s="51" t="s">
+      <x:c r="D93" s="16" t="s">
         <x:v>148</x:v>
       </x:c>
-      <x:c r="E93" s="52">
+      <x:c r="E93" s="17">
         <x:v>32665</x:v>
       </x:c>
-      <x:c r="F93" s="53" t="n">
+      <x:c r="F93" s="18" t="n">
         <x:v>7531.75</x:v>
       </x:c>
-      <x:c r="G93" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H93" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:8">
-      <x:c r="B94" s="48" t="s">
+      <x:c r="G93" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H93" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B94" s="13" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="C94" s="51" t="s">
+      <x:c r="C94" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D94" s="51" t="s">
+      <x:c r="D94" s="16" t="s">
         <x:v>150</x:v>
       </x:c>
-      <x:c r="E94" s="52">
+      <x:c r="E94" s="17">
         <x:v>32668</x:v>
       </x:c>
-      <x:c r="F94" s="53" t="n">
+      <x:c r="F94" s="18" t="n">
         <x:v>123740</x:v>
       </x:c>
-      <x:c r="G94" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H94" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:8">
-      <x:c r="B95" s="48" t="s">
+      <x:c r="G94" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H94" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B95" s="13" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C95" s="51" t="s">
+      <x:c r="C95" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D95" s="51" t="s">
+      <x:c r="D95" s="16" t="s">
         <x:v>151</x:v>
       </x:c>
-      <x:c r="E95" s="52">
+      <x:c r="E95" s="17">
         <x:v>32671</x:v>
       </x:c>
-      <x:c r="F95" s="53" t="n">
+      <x:c r="F95" s="18" t="n">
         <x:v>12953.6</x:v>
       </x:c>
-      <x:c r="G95" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H95" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:8">
-      <x:c r="B96" s="48" t="s">
+      <x:c r="G95" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H95" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B96" s="13" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C96" s="51" t="s">
+      <x:c r="C96" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D96" s="51" t="s">
+      <x:c r="D96" s="16" t="s">
         <x:v>152</x:v>
       </x:c>
-      <x:c r="E96" s="52">
+      <x:c r="E96" s="17">
         <x:v>32673</x:v>
       </x:c>
-      <x:c r="F96" s="53" t="n">
+      <x:c r="F96" s="18" t="n">
         <x:v>472.9</x:v>
       </x:c>
-      <x:c r="G96" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H96" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:8">
-      <x:c r="B97" s="48" t="s">
+      <x:c r="G96" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H96" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B97" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C97" s="51" t="s">
+      <x:c r="C97" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D97" s="51" t="s">
+      <x:c r="D97" s="16" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="E97" s="52">
+      <x:c r="E97" s="17">
         <x:v>32675</x:v>
       </x:c>
-      <x:c r="F97" s="53" t="n">
+      <x:c r="F97" s="18" t="n">
         <x:v>859.95</x:v>
       </x:c>
-      <x:c r="G97" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H97" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:8">
-      <x:c r="B98" s="48" t="s">
+      <x:c r="G97" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H97" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B98" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C98" s="51" t="s">
+      <x:c r="C98" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D98" s="51" t="s">
+      <x:c r="D98" s="16" t="s">
         <x:v>154</x:v>
       </x:c>
-      <x:c r="E98" s="52">
+      <x:c r="E98" s="17">
         <x:v>32679</x:v>
       </x:c>
-      <x:c r="F98" s="53" t="n">
+      <x:c r="F98" s="18" t="n">
         <x:v>6094.8</x:v>
       </x:c>
-      <x:c r="G98" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H98" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:8">
-      <x:c r="B99" s="48" t="s">
+      <x:c r="G98" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H98" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B99" s="13" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C99" s="51" t="s">
+      <x:c r="C99" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D99" s="51" t="s">
+      <x:c r="D99" s="16" t="s">
         <x:v>155</x:v>
       </x:c>
-      <x:c r="E99" s="52">
+      <x:c r="E99" s="17">
         <x:v>32693</x:v>
       </x:c>
-      <x:c r="F99" s="53" t="n">
+      <x:c r="F99" s="18" t="n">
         <x:v>11629.85</x:v>
       </x:c>
-      <x:c r="G99" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H99" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:8">
-      <x:c r="B100" s="48" t="s">
+      <x:c r="G99" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H99" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B100" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C100" s="51" t="s">
+      <x:c r="C100" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D100" s="51" t="s">
+      <x:c r="D100" s="16" t="s">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="E100" s="52">
+      <x:c r="E100" s="17">
         <x:v>33761</x:v>
       </x:c>
-      <x:c r="F100" s="53" t="n">
+      <x:c r="F100" s="18" t="n">
         <x:v>2844</x:v>
       </x:c>
-      <x:c r="G100" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H100" s="53" t="n">
+      <x:c r="G100" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H100" s="18" t="n">
         <x:v>2844</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:8">
-      <x:c r="B101" s="48" t="s">
+    <x:row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B101" s="13" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C101" s="51" t="s">
+      <x:c r="C101" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D101" s="51" t="s">
+      <x:c r="D101" s="16" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="E101" s="52">
+      <x:c r="E101" s="17">
         <x:v>33798</x:v>
       </x:c>
-      <x:c r="F101" s="53" t="n">
+      <x:c r="F101" s="18" t="n">
         <x:v>39797.7</x:v>
       </x:c>
-      <x:c r="G101" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H101" s="53" t="n">
+      <x:c r="G101" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H101" s="18" t="n">
         <x:v>39797.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:8">
-      <x:c r="B102" s="48" t="s">
+    <x:row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B102" s="13" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="C102" s="51" t="s">
+      <x:c r="C102" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D102" s="51" t="s">
+      <x:c r="D102" s="16" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="E102" s="52">
+      <x:c r="E102" s="17">
         <x:v>33803</x:v>
       </x:c>
-      <x:c r="F102" s="53" t="n">
+      <x:c r="F102" s="18" t="n">
         <x:v>51673.15</x:v>
       </x:c>
-      <x:c r="G102" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H102" s="53" t="n">
+      <x:c r="G102" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H102" s="18" t="n">
         <x:v>51673.15</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:8">
-      <x:c r="B103" s="48" t="s">
+    <x:row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B103" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C103" s="51" t="s">
+      <x:c r="C103" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D103" s="51" t="s">
+      <x:c r="D103" s="16" t="s">
         <x:v>160</x:v>
       </x:c>
-      <x:c r="E103" s="52">
+      <x:c r="E103" s="17">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="F103" s="53" t="n">
+      <x:c r="F103" s="18" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="G103" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H103" s="53" t="n">
+      <x:c r="G103" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H103" s="18" t="n">
         <x:v>31219.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:8">
-      <x:c r="B104" s="48" t="s">
+    <x:row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B104" s="13" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C104" s="51" t="s">
+      <x:c r="C104" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D104" s="51" t="s">
+      <x:c r="D104" s="16" t="s">
         <x:v>161</x:v>
       </x:c>
-      <x:c r="E104" s="52">
+      <x:c r="E104" s="17">
         <x:v>33870</x:v>
       </x:c>
-      <x:c r="F104" s="53" t="n">
+      <x:c r="F104" s="18" t="n">
         <x:v>3531.8</x:v>
       </x:c>
-      <x:c r="G104" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H104" s="53" t="n">
+      <x:c r="G104" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H104" s="18" t="n">
         <x:v>3531.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:8">
-      <x:c r="B105" s="48" t="s">
+    <x:row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B105" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C105" s="51" t="s">
+      <x:c r="C105" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D105" s="51" t="s">
+      <x:c r="D105" s="16" t="s">
         <x:v>162</x:v>
       </x:c>
-      <x:c r="E105" s="52">
+      <x:c r="E105" s="17">
         <x:v>33901</x:v>
       </x:c>
-      <x:c r="F105" s="53" t="n">
+      <x:c r="F105" s="18" t="n">
         <x:v>28389</x:v>
       </x:c>
-      <x:c r="G105" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H105" s="53" t="n">
+      <x:c r="G105" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H105" s="18" t="n">
         <x:v>28389</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:8">
-      <x:c r="B106" s="48" t="s">
+    <x:row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B106" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C106" s="51" t="s">
+      <x:c r="C106" s="16" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D106" s="51" t="s">
+      <x:c r="D106" s="16" t="s">
         <x:v>163</x:v>
       </x:c>
-      <x:c r="E106" s="52">
+      <x:c r="E106" s="17">
         <x:v>33921</x:v>
       </x:c>
-      <x:c r="F106" s="53" t="n">
+      <x:c r="F106" s="18" t="n">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="G106" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H106" s="53" t="n">
+      <x:c r="G106" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H106" s="18" t="n">
         <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:8">
-      <x:c r="B107" s="48" t="s">
+    <x:row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B107" s="13" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C107" s="51" t="s">
+      <x:c r="C107" s="16" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D107" s="51" t="s">
+      <x:c r="D107" s="16" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="E107" s="52">
+      <x:c r="E107" s="17">
         <x:v>33952</x:v>
       </x:c>
-      <x:c r="F107" s="53" t="n">
+      <x:c r="F107" s="18" t="n">
         <x:v>4720.8</x:v>
       </x:c>
-      <x:c r="G107" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H107" s="53" t="n">
+      <x:c r="G107" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H107" s="18" t="n">
         <x:v>4720.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:8">
-      <x:c r="B108" s="48" t="s">
+    <x:row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B108" s="13" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C108" s="51" t="s">
+      <x:c r="C108" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D108" s="51" t="s">
+      <x:c r="D108" s="16" t="s">
         <x:v>165</x:v>
       </x:c>
-      <x:c r="E108" s="52">
+      <x:c r="E108" s="17">
         <x:v>33971</x:v>
       </x:c>
-      <x:c r="F108" s="53" t="n">
+      <x:c r="F108" s="18" t="n">
         <x:v>5565</x:v>
       </x:c>
-      <x:c r="G108" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H108" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="109" spans="1:8">
-      <x:c r="B109" s="48" t="s">
+      <x:c r="G108" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H108" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B109" s="13" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C109" s="51" t="s">
+      <x:c r="C109" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D109" s="51" t="s">
+      <x:c r="D109" s="16" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="E109" s="52">
+      <x:c r="E109" s="17">
         <x:v>34012</x:v>
       </x:c>
-      <x:c r="F109" s="53" t="n">
+      <x:c r="F109" s="18" t="n">
         <x:v>2514.65</x:v>
       </x:c>
-      <x:c r="G109" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H109" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110" spans="1:8">
-      <x:c r="B110" s="48" t="s">
+      <x:c r="G109" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H109" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B110" s="13" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="C110" s="51" t="s">
+      <x:c r="C110" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D110" s="51" t="s">
+      <x:c r="D110" s="16" t="s">
         <x:v>168</x:v>
       </x:c>
-      <x:c r="E110" s="52">
+      <x:c r="E110" s="17">
         <x:v>34041</x:v>
       </x:c>
-      <x:c r="F110" s="53" t="n">
+      <x:c r="F110" s="18" t="n">
         <x:v>4894.95</x:v>
       </x:c>
-      <x:c r="G110" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H110" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:8">
-      <x:c r="B111" s="48" t="s">
+      <x:c r="G110" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H110" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B111" s="13" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C111" s="51" t="s">
+      <x:c r="C111" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D111" s="51" t="s">
+      <x:c r="D111" s="16" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="E111" s="52">
+      <x:c r="E111" s="17">
         <x:v>34049</x:v>
       </x:c>
-      <x:c r="F111" s="53" t="n">
+      <x:c r="F111" s="18" t="n">
         <x:v>23104</x:v>
       </x:c>
-      <x:c r="G111" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H111" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="112" spans="1:8">
-      <x:c r="B112" s="48" t="s">
+      <x:c r="G111" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H111" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B112" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C112" s="51" t="s">
+      <x:c r="C112" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D112" s="51" t="s">
+      <x:c r="D112" s="16" t="s">
         <x:v>170</x:v>
       </x:c>
-      <x:c r="E112" s="52">
+      <x:c r="E112" s="17">
         <x:v>34072</x:v>
       </x:c>
-      <x:c r="F112" s="53" t="n">
+      <x:c r="F112" s="18" t="n">
         <x:v>6734.85</x:v>
       </x:c>
-      <x:c r="G112" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H112" s="53" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:8">
-      <x:c r="B113" s="48" t="s">
+      <x:c r="G112" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H112" s="18" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B113" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C113" s="51" t="s">
+      <x:c r="C113" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D113" s="51" t="s">
+      <x:c r="D113" s="16" t="s">
         <x:v>171</x:v>
       </x:c>
-      <x:c r="E113" s="52">
+      <x:c r="E113" s="17">
         <x:v>34082</x:v>
       </x:c>
-      <x:c r="F113" s="53" t="n">
+      <x:c r="F113" s="18" t="n">
         <x:v>21614</x:v>
       </x:c>
-      <x:c r="G113" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H113" s="53" t="n">
+      <x:c r="G113" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H113" s="18" t="n">
         <x:v>21614</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:8">
-      <x:c r="B114" s="48" t="s">
+    <x:row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B114" s="13" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C114" s="51" t="s">
+      <x:c r="C114" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D114" s="51" t="s">
+      <x:c r="D114" s="16" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="E114" s="52">
+      <x:c r="E114" s="17">
         <x:v>34104</x:v>
       </x:c>
-      <x:c r="F114" s="53" t="n">
+      <x:c r="F114" s="18" t="n">
         <x:v>14557.95</x:v>
       </x:c>
-      <x:c r="G114" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H114" s="53" t="n">
+      <x:c r="G114" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H114" s="18" t="n">
         <x:v>14557.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:8">
-      <x:c r="B115" s="48" t="s">
+    <x:row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B115" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C115" s="51" t="s">
+      <x:c r="C115" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D115" s="51" t="s">
+      <x:c r="D115" s="16" t="s">
         <x:v>173</x:v>
       </x:c>
-      <x:c r="E115" s="52">
+      <x:c r="E115" s="17">
         <x:v>34114</x:v>
       </x:c>
-      <x:c r="F115" s="53" t="n">
+      <x:c r="F115" s="18" t="n">
         <x:v>784.9</x:v>
       </x:c>
-      <x:c r="G115" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H115" s="53" t="n">
+      <x:c r="G115" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H115" s="18" t="n">
         <x:v>784.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:8">
-      <x:c r="B116" s="48" t="s">
+    <x:row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B116" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C116" s="51" t="s">
+      <x:c r="C116" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D116" s="51" t="s">
+      <x:c r="D116" s="16" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="E116" s="52">
+      <x:c r="E116" s="17">
         <x:v>34122</x:v>
       </x:c>
-      <x:c r="F116" s="53" t="n">
+      <x:c r="F116" s="18" t="n">
         <x:v>820</x:v>
       </x:c>
-      <x:c r="G116" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H116" s="53" t="n">
+      <x:c r="G116" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H116" s="18" t="n">
         <x:v>820</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:8">
-      <x:c r="B117" s="48" t="s">
+    <x:row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B117" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C117" s="51" t="s">
+      <x:c r="C117" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D117" s="51" t="s">
+      <x:c r="D117" s="16" t="s">
         <x:v>175</x:v>
       </x:c>
-      <x:c r="E117" s="52">
+      <x:c r="E117" s="17">
         <x:v>34173</x:v>
       </x:c>
-      <x:c r="F117" s="53" t="n">
+      <x:c r="F117" s="18" t="n">
         <x:v>44854</x:v>
       </x:c>
-      <x:c r="G117" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H117" s="53" t="n">
+      <x:c r="G117" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H117" s="18" t="n">
         <x:v>44854</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:8">
-      <x:c r="B118" s="48" t="s">
+    <x:row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B118" s="13" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C118" s="51" t="s">
+      <x:c r="C118" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D118" s="51" t="s">
+      <x:c r="D118" s="16" t="s">
         <x:v>176</x:v>
       </x:c>
-      <x:c r="E118" s="52">
+      <x:c r="E118" s="17">
         <x:v>34205</x:v>
       </x:c>
-      <x:c r="F118" s="53" t="n">
+      <x:c r="F118" s="18" t="n">
         <x:v>13945</x:v>
       </x:c>
-      <x:c r="G118" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H118" s="53" t="n">
+      <x:c r="G118" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H118" s="18" t="n">
         <x:v>13945</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:8">
-      <x:c r="B119" s="48" t="s">
+    <x:row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B119" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C119" s="51" t="s">
+      <x:c r="C119" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D119" s="51" t="s">
+      <x:c r="D119" s="16" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="E119" s="52">
+      <x:c r="E119" s="17">
         <x:v>34213</x:v>
       </x:c>
-      <x:c r="F119" s="53" t="n">
+      <x:c r="F119" s="18" t="n">
         <x:v>33071</x:v>
       </x:c>
-      <x:c r="G119" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H119" s="53" t="n">
+      <x:c r="G119" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H119" s="18" t="n">
         <x:v>33071</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:8">
-      <x:c r="B120" s="48" t="s">
+    <x:row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B120" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C120" s="51" t="s">
+      <x:c r="C120" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D120" s="51" t="s">
+      <x:c r="D120" s="16" t="s">
         <x:v>178</x:v>
       </x:c>
-      <x:c r="E120" s="52">
+      <x:c r="E120" s="17">
         <x:v>34216</x:v>
       </x:c>
-      <x:c r="F120" s="53" t="n">
+      <x:c r="F120" s="18" t="n">
         <x:v>6583.8</x:v>
       </x:c>
-      <x:c r="G120" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H120" s="53" t="n">
+      <x:c r="G120" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H120" s="18" t="n">
         <x:v>6583.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:8">
-      <x:c r="B121" s="48" t="s">
+    <x:row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B121" s="13" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C121" s="51" t="s">
+      <x:c r="C121" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D121" s="51" t="s">
+      <x:c r="D121" s="16" t="s">
         <x:v>179</x:v>
       </x:c>
-      <x:c r="E121" s="52">
+      <x:c r="E121" s="17">
         <x:v>34243</x:v>
       </x:c>
-      <x:c r="F121" s="53" t="n">
+      <x:c r="F121" s="18" t="n">
         <x:v>10107</x:v>
       </x:c>
-      <x:c r="G121" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H121" s="53" t="n">
+      <x:c r="G121" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H121" s="18" t="n">
         <x:v>10107</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:8">
-      <x:c r="B122" s="48" t="s">
+    <x:row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B122" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C122" s="51" t="s">
+      <x:c r="C122" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D122" s="51" t="s">
+      <x:c r="D122" s="16" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="E122" s="52">
+      <x:c r="E122" s="17">
         <x:v>34244</x:v>
       </x:c>
-      <x:c r="F122" s="53" t="n">
+      <x:c r="F122" s="18" t="n">
         <x:v>25071</x:v>
       </x:c>
-      <x:c r="G122" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H122" s="53" t="n">
+      <x:c r="G122" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H122" s="18" t="n">
         <x:v>25071</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:8">
-      <x:c r="B123" s="48" t="s">
+    <x:row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B123" s="13" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C123" s="51" t="s">
+      <x:c r="C123" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D123" s="51" t="s">
+      <x:c r="D123" s="16" t="s">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="E123" s="52">
+      <x:c r="E123" s="17">
         <x:v>34250</x:v>
       </x:c>
-      <x:c r="F123" s="53" t="n">
+      <x:c r="F123" s="18" t="n">
         <x:v>8294</x:v>
       </x:c>
-      <x:c r="G123" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H123" s="53" t="n">
+      <x:c r="G123" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H123" s="18" t="n">
         <x:v>8294</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:8">
-      <x:c r="B124" s="48" t="s">
+    <x:row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B124" s="13" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C124" s="51" t="s">
+      <x:c r="C124" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D124" s="51" t="s">
+      <x:c r="D124" s="16" t="s">
         <x:v>182</x:v>
       </x:c>
-      <x:c r="E124" s="52">
+      <x:c r="E124" s="17">
         <x:v>34261</x:v>
       </x:c>
-      <x:c r="F124" s="53" t="n">
+      <x:c r="F124" s="18" t="n">
         <x:v>1004.8</x:v>
       </x:c>
-      <x:c r="G124" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H124" s="53" t="n">
+      <x:c r="G124" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H124" s="18" t="n">
         <x:v>1004.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:8">
-      <x:c r="B125" s="48" t="s">
+    <x:row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B125" s="13" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="C125" s="51" t="s">
+      <x:c r="C125" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D125" s="51" t="s">
+      <x:c r="D125" s="16" t="s">
         <x:v>184</x:v>
       </x:c>
-      <x:c r="E125" s="52">
+      <x:c r="E125" s="17">
         <x:v>34268</x:v>
       </x:c>
-      <x:c r="F125" s="53" t="n">
+      <x:c r="F125" s="18" t="n">
         <x:v>6300</x:v>
       </x:c>
-      <x:c r="G125" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H125" s="53" t="n">
+      <x:c r="G125" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H125" s="18" t="n">
         <x:v>6300</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:8">
-      <x:c r="B126" s="48" t="s">
+    <x:row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B126" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C126" s="51" t="s">
+      <x:c r="C126" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D126" s="51" t="s">
+      <x:c r="D126" s="16" t="s">
         <x:v>185</x:v>
       </x:c>
-      <x:c r="E126" s="52">
+      <x:c r="E126" s="17">
         <x:v>34274</x:v>
       </x:c>
-      <x:c r="F126" s="53" t="n">
+      <x:c r="F126" s="18" t="n">
         <x:v>11989.2</x:v>
       </x:c>
-      <x:c r="G126" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H126" s="53" t="n">
+      <x:c r="G126" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H126" s="18" t="n">
         <x:v>11989.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:8">
-      <x:c r="B127" s="48" t="s">
+    <x:row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B127" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C127" s="51" t="s">
+      <x:c r="C127" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D127" s="51" t="s">
+      <x:c r="D127" s="16" t="s">
         <x:v>186</x:v>
       </x:c>
-      <x:c r="E127" s="52">
+      <x:c r="E127" s="17">
         <x:v>34274</x:v>
       </x:c>
-      <x:c r="F127" s="53" t="n">
+      <x:c r="F127" s="18" t="n">
         <x:v>906</x:v>
       </x:c>
-      <x:c r="G127" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H127" s="53" t="n">
+      <x:c r="G127" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H127" s="18" t="n">
         <x:v>906</x:v>
       </x:c>
     </x:row>
-    <x:row r="128" spans="1:8">
-      <x:c r="B128" s="48" t="s">
+    <x:row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B128" s="13" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C128" s="51" t="s">
+      <x:c r="C128" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D128" s="51" t="s">
+      <x:c r="D128" s="16" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="E128" s="52">
+      <x:c r="E128" s="17">
         <x:v>34275</x:v>
       </x:c>
-      <x:c r="F128" s="53" t="n">
+      <x:c r="F128" s="18" t="n">
         <x:v>2419</x:v>
       </x:c>
-      <x:c r="G128" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H128" s="53" t="n">
+      <x:c r="G128" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H128" s="18" t="n">
         <x:v>2419</x:v>
       </x:c>
     </x:row>
-    <x:row r="129" spans="1:8">
-      <x:c r="B129" s="48" t="s">
+    <x:row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B129" s="13" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="C129" s="51" t="s">
+      <x:c r="C129" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D129" s="51" t="s">
+      <x:c r="D129" s="16" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="E129" s="52">
+      <x:c r="E129" s="17">
         <x:v>34287</x:v>
       </x:c>
-      <x:c r="F129" s="53" t="n">
+      <x:c r="F129" s="18" t="n">
         <x:v>6675.95</x:v>
       </x:c>
-      <x:c r="G129" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H129" s="53" t="n">
+      <x:c r="G129" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H129" s="18" t="n">
         <x:v>6675.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="130" spans="1:8">
-      <x:c r="B130" s="48" t="s">
+    <x:row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B130" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C130" s="51" t="s">
+      <x:c r="C130" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D130" s="51" t="s">
+      <x:c r="D130" s="16" t="s">
         <x:v>190</x:v>
       </x:c>
-      <x:c r="E130" s="52">
+      <x:c r="E130" s="17">
         <x:v>34300</x:v>
       </x:c>
-      <x:c r="F130" s="53" t="n">
+      <x:c r="F130" s="18" t="n">
         <x:v>2971</x:v>
       </x:c>
-      <x:c r="G130" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H130" s="53" t="n">
+      <x:c r="G130" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H130" s="18" t="n">
         <x:v>2971</x:v>
       </x:c>
     </x:row>
-    <x:row r="131" spans="1:8">
-      <x:c r="B131" s="48" t="s">
+    <x:row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B131" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C131" s="51" t="s">
+      <x:c r="C131" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D131" s="51" t="s">
+      <x:c r="D131" s="16" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="E131" s="52">
+      <x:c r="E131" s="17">
         <x:v>34300</x:v>
       </x:c>
-      <x:c r="F131" s="53" t="n">
+      <x:c r="F131" s="18" t="n">
         <x:v>6785.4</x:v>
       </x:c>
-      <x:c r="G131" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H131" s="53" t="n">
+      <x:c r="G131" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H131" s="18" t="n">
         <x:v>6785.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="132" spans="1:8">
-      <x:c r="B132" s="48" t="s">
+    <x:row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B132" s="13" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C132" s="51" t="s">
+      <x:c r="C132" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D132" s="51" t="s">
+      <x:c r="D132" s="16" t="s">
         <x:v>192</x:v>
       </x:c>
-      <x:c r="E132" s="52">
+      <x:c r="E132" s="17">
         <x:v>34304</x:v>
       </x:c>
-      <x:c r="F132" s="53" t="n">
+      <x:c r="F132" s="18" t="n">
         <x:v>47710.75</x:v>
       </x:c>
-      <x:c r="G132" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H132" s="53" t="n">
+      <x:c r="G132" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H132" s="18" t="n">
         <x:v>47710.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="133" spans="1:8">
-      <x:c r="B133" s="48" t="s">
+    <x:row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B133" s="13" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C133" s="51" t="s">
+      <x:c r="C133" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D133" s="51" t="s">
+      <x:c r="D133" s="16" t="s">
         <x:v>193</x:v>
       </x:c>
-      <x:c r="E133" s="52">
+      <x:c r="E133" s="17">
         <x:v>34315</x:v>
       </x:c>
-      <x:c r="F133" s="53" t="n">
+      <x:c r="F133" s="18" t="n">
         <x:v>1240</x:v>
       </x:c>
-      <x:c r="G133" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H133" s="53" t="n">
+      <x:c r="G133" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H133" s="18" t="n">
         <x:v>1240</x:v>
       </x:c>
     </x:row>
-    <x:row r="134" spans="1:8">
-      <x:c r="B134" s="48" t="s">
+    <x:row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B134" s="13" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C134" s="51" t="s">
+      <x:c r="C134" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D134" s="51" t="s">
+      <x:c r="D134" s="16" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="E134" s="52">
+      <x:c r="E134" s="17">
         <x:v>34320</x:v>
       </x:c>
-      <x:c r="F134" s="53" t="n">
+      <x:c r="F134" s="18" t="n">
         <x:v>1846</x:v>
       </x:c>
-      <x:c r="G134" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H134" s="53" t="n">
+      <x:c r="G134" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H134" s="18" t="n">
         <x:v>1846</x:v>
       </x:c>
     </x:row>
-    <x:row r="135" spans="1:8">
-      <x:c r="B135" s="48" t="s">
+    <x:row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B135" s="13" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="C135" s="51" t="s">
+      <x:c r="C135" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D135" s="51" t="s">
+      <x:c r="D135" s="16" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="E135" s="52">
+      <x:c r="E135" s="17">
         <x:v>34328</x:v>
       </x:c>
-      <x:c r="F135" s="53" t="n">
+      <x:c r="F135" s="18" t="n">
         <x:v>3546</x:v>
       </x:c>
-      <x:c r="G135" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H135" s="53" t="n">
+      <x:c r="G135" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H135" s="18" t="n">
         <x:v>3546</x:v>
       </x:c>
     </x:row>
-    <x:row r="136" spans="1:8">
-      <x:c r="B136" s="48" t="s">
+    <x:row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B136" s="13" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C136" s="51" t="s">
+      <x:c r="C136" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D136" s="51" t="s">
+      <x:c r="D136" s="16" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="E136" s="52">
+      <x:c r="E136" s="17">
         <x:v>34335</x:v>
       </x:c>
-      <x:c r="F136" s="53" t="n">
+      <x:c r="F136" s="18" t="n">
         <x:v>3087</x:v>
       </x:c>
-      <x:c r="G136" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H136" s="53" t="n">
+      <x:c r="G136" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H136" s="18" t="n">
         <x:v>3087</x:v>
       </x:c>
     </x:row>
-    <x:row r="137" spans="1:8">
-      <x:c r="B137" s="48" t="s">
+    <x:row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B137" s="13" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C137" s="51" t="s">
+      <x:c r="C137" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D137" s="51" t="s">
+      <x:c r="D137" s="16" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="E137" s="52">
+      <x:c r="E137" s="17">
         <x:v>34343</x:v>
       </x:c>
-      <x:c r="F137" s="53" t="n">
+      <x:c r="F137" s="18" t="n">
         <x:v>10054</x:v>
       </x:c>
-      <x:c r="G137" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H137" s="53" t="n">
+      <x:c r="G137" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H137" s="18" t="n">
         <x:v>10054</x:v>
       </x:c>
     </x:row>
-    <x:row r="138" spans="1:8">
-      <x:c r="B138" s="48" t="s">
+    <x:row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B138" s="13" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C138" s="51" t="s">
+      <x:c r="C138" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D138" s="51" t="s">
+      <x:c r="D138" s="16" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="E138" s="52">
+      <x:c r="E138" s="17">
         <x:v>34351</x:v>
       </x:c>
-      <x:c r="F138" s="53" t="n">
+      <x:c r="F138" s="18" t="n">
         <x:v>4229.8</x:v>
       </x:c>
-      <x:c r="G138" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H138" s="53" t="n">
+      <x:c r="G138" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H138" s="18" t="n">
         <x:v>4229.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="139" spans="1:8">
-      <x:c r="B139" s="48" t="s">
+    <x:row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B139" s="13" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C139" s="51" t="s">
+      <x:c r="C139" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D139" s="51" t="s">
+      <x:c r="D139" s="16" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="E139" s="52">
+      <x:c r="E139" s="17">
         <x:v>34378</x:v>
       </x:c>
-      <x:c r="F139" s="53" t="n">
+      <x:c r="F139" s="18" t="n">
         <x:v>15052</x:v>
       </x:c>
-      <x:c r="G139" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H139" s="53" t="n">
+      <x:c r="G139" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H139" s="18" t="n">
         <x:v>15052</x:v>
       </x:c>
     </x:row>
-    <x:row r="140" spans="1:8">
-      <x:c r="B140" s="48" t="s">
+    <x:row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B140" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C140" s="51" t="s">
+      <x:c r="C140" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D140" s="51" t="s">
+      <x:c r="D140" s="16" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="E140" s="52">
+      <x:c r="E140" s="17">
         <x:v>34396</x:v>
       </x:c>
-      <x:c r="F140" s="53" t="n">
+      <x:c r="F140" s="18" t="n">
         <x:v>5011</x:v>
       </x:c>
-      <x:c r="G140" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H140" s="53" t="n">
+      <x:c r="G140" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H140" s="18" t="n">
         <x:v>5011</x:v>
       </x:c>
     </x:row>
-    <x:row r="141" spans="1:8">
-      <x:c r="B141" s="48" t="s">
+    <x:row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B141" s="13" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C141" s="51" t="s">
+      <x:c r="C141" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D141" s="51" t="s">
+      <x:c r="D141" s="16" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="E141" s="52">
+      <x:c r="E141" s="17">
         <x:v>34407</x:v>
       </x:c>
-      <x:c r="F141" s="53" t="n">
+      <x:c r="F141" s="18" t="n">
         <x:v>12900.75</x:v>
       </x:c>
-      <x:c r="G141" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H141" s="53" t="n">
+      <x:c r="G141" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H141" s="18" t="n">
         <x:v>12900.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="142" spans="1:8">
-      <x:c r="B142" s="48" t="s">
+    <x:row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B142" s="13" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C142" s="51" t="s">
+      <x:c r="C142" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D142" s="51" t="s">
+      <x:c r="D142" s="16" t="s">
         <x:v>202</x:v>
       </x:c>
-      <x:c r="E142" s="52">
+      <x:c r="E142" s="17">
         <x:v>34418</x:v>
       </x:c>
-      <x:c r="F142" s="53" t="n">
+      <x:c r="F142" s="18" t="n">
         <x:v>7671.9</x:v>
       </x:c>
-      <x:c r="G142" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H142" s="53" t="n">
+      <x:c r="G142" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H142" s="18" t="n">
         <x:v>7671.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="143" spans="1:8">
-      <x:c r="B143" s="48" t="s">
+    <x:row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B143" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C143" s="51" t="s">
+      <x:c r="C143" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D143" s="51" t="s">
+      <x:c r="D143" s="16" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="E143" s="52">
+      <x:c r="E143" s="17">
         <x:v>34431</x:v>
       </x:c>
-      <x:c r="F143" s="53" t="n">
+      <x:c r="F143" s="18" t="n">
         <x:v>97698.6</x:v>
       </x:c>
-      <x:c r="G143" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H143" s="53" t="n">
+      <x:c r="G143" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H143" s="18" t="n">
         <x:v>97698.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="144" spans="1:8">
-      <x:c r="B144" s="48" t="s">
+    <x:row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B144" s="13" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C144" s="51" t="s">
+      <x:c r="C144" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D144" s="51" t="s">
+      <x:c r="D144" s="16" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="E144" s="52">
+      <x:c r="E144" s="17">
         <x:v>34440</x:v>
       </x:c>
-      <x:c r="F144" s="53" t="n">
+      <x:c r="F144" s="18" t="n">
         <x:v>3860.85</x:v>
       </x:c>
-      <x:c r="G144" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H144" s="53" t="n">
+      <x:c r="G144" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H144" s="18" t="n">
         <x:v>3860.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="145" spans="1:8">
-      <x:c r="B145" s="48" t="s">
+    <x:row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B145" s="13" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C145" s="51" t="s">
+      <x:c r="C145" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D145" s="51" t="s">
+      <x:c r="D145" s="16" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="E145" s="52">
+      <x:c r="E145" s="17">
         <x:v>34455</x:v>
       </x:c>
-      <x:c r="F145" s="53" t="n">
+      <x:c r="F145" s="18" t="n">
         <x:v>13226.8</x:v>
       </x:c>
-      <x:c r="G145" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H145" s="53" t="n">
+      <x:c r="G145" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H145" s="18" t="n">
         <x:v>13226.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="146" spans="1:8">
-      <x:c r="B146" s="48" t="s">
+    <x:row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B146" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C146" s="51" t="s">
+      <x:c r="C146" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D146" s="51" t="s">
+      <x:c r="D146" s="16" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="E146" s="52">
+      <x:c r="E146" s="17">
         <x:v>34459</x:v>
       </x:c>
-      <x:c r="F146" s="53" t="n">
+      <x:c r="F146" s="18" t="n">
         <x:v>13935.95</x:v>
       </x:c>
-      <x:c r="G146" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H146" s="53" t="n">
+      <x:c r="G146" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H146" s="18" t="n">
         <x:v>13935.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="147" spans="1:8">
-      <x:c r="B147" s="48" t="s">
+    <x:row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B147" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C147" s="51" t="s">
+      <x:c r="C147" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D147" s="51" t="s">
+      <x:c r="D147" s="16" t="s">
         <x:v>207</x:v>
       </x:c>
-      <x:c r="E147" s="52">
+      <x:c r="E147" s="17">
         <x:v>34463</x:v>
       </x:c>
-      <x:c r="F147" s="53" t="n">
+      <x:c r="F147" s="18" t="n">
         <x:v>12367</x:v>
       </x:c>
-      <x:c r="G147" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H147" s="53" t="n">
+      <x:c r="G147" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H147" s="18" t="n">
         <x:v>12367</x:v>
       </x:c>
     </x:row>
-    <x:row r="148" spans="1:8">
-      <x:c r="B148" s="48" t="s">
+    <x:row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B148" s="13" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="C148" s="51" t="s">
+      <x:c r="C148" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D148" s="51" t="s">
+      <x:c r="D148" s="16" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="E148" s="52">
+      <x:c r="E148" s="17">
         <x:v>34476</x:v>
       </x:c>
-      <x:c r="F148" s="53" t="n">
+      <x:c r="F148" s="18" t="n">
         <x:v>9793.55</x:v>
       </x:c>
-      <x:c r="G148" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H148" s="53" t="n">
+      <x:c r="G148" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H148" s="18" t="n">
         <x:v>9793.55</x:v>
       </x:c>
     </x:row>
-    <x:row r="149" spans="1:8">
-      <x:c r="B149" s="48" t="s">
+    <x:row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B149" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C149" s="51" t="s">
+      <x:c r="C149" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D149" s="51" t="s">
+      <x:c r="D149" s="16" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="E149" s="52">
+      <x:c r="E149" s="17">
         <x:v>34486</x:v>
       </x:c>
-      <x:c r="F149" s="53" t="n">
+      <x:c r="F149" s="18" t="n">
         <x:v>2206.85</x:v>
       </x:c>
-      <x:c r="G149" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H149" s="53" t="n">
+      <x:c r="G149" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H149" s="18" t="n">
         <x:v>2206.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="150" spans="1:8">
-      <x:c r="B150" s="48" t="s">
+    <x:row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B150" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C150" s="51" t="s">
+      <x:c r="C150" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D150" s="51" t="s">
+      <x:c r="D150" s="16" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="E150" s="52">
+      <x:c r="E150" s="17">
         <x:v>34489</x:v>
       </x:c>
-      <x:c r="F150" s="53" t="n">
+      <x:c r="F150" s="18" t="n">
         <x:v>102453.6</x:v>
       </x:c>
-      <x:c r="G150" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H150" s="53" t="n">
+      <x:c r="G150" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H150" s="18" t="n">
         <x:v>102453.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="151" spans="1:8">
-      <x:c r="B151" s="48" t="s">
+    <x:row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B151" s="13" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="C151" s="51" t="s">
+      <x:c r="C151" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D151" s="51" t="s">
+      <x:c r="D151" s="16" t="s">
         <x:v>212</x:v>
       </x:c>
-      <x:c r="E151" s="52">
+      <x:c r="E151" s="17">
         <x:v>34494</x:v>
       </x:c>
-      <x:c r="F151" s="53" t="n">
+      <x:c r="F151" s="18" t="n">
         <x:v>3153</x:v>
       </x:c>
-      <x:c r="G151" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H151" s="53" t="n">
+      <x:c r="G151" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H151" s="18" t="n">
         <x:v>3153</x:v>
       </x:c>
     </x:row>
-    <x:row r="152" spans="1:8">
-      <x:c r="B152" s="48" t="s">
+    <x:row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B152" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C152" s="51" t="s">
+      <x:c r="C152" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D152" s="51" t="s">
+      <x:c r="D152" s="16" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="E152" s="52">
+      <x:c r="E152" s="17">
         <x:v>34499</x:v>
       </x:c>
-      <x:c r="F152" s="53" t="n">
+      <x:c r="F152" s="18" t="n">
         <x:v>342</x:v>
       </x:c>
-      <x:c r="G152" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H152" s="53" t="n">
+      <x:c r="G152" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H152" s="18" t="n">
         <x:v>342</x:v>
       </x:c>
     </x:row>
-    <x:row r="153" spans="1:8">
-      <x:c r="B153" s="48" t="s">
+    <x:row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B153" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C153" s="51" t="s">
+      <x:c r="C153" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D153" s="51" t="s">
+      <x:c r="D153" s="16" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="E153" s="52">
+      <x:c r="E153" s="17">
         <x:v>34511</x:v>
       </x:c>
-      <x:c r="F153" s="53" t="n">
+      <x:c r="F153" s="18" t="n">
         <x:v>2692.85</x:v>
       </x:c>
-      <x:c r="G153" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H153" s="53" t="n">
+      <x:c r="G153" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H153" s="18" t="n">
         <x:v>2692.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="154" spans="1:8">
-      <x:c r="B154" s="48" t="s">
+    <x:row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B154" s="13" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C154" s="51" t="s">
+      <x:c r="C154" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D154" s="51" t="s">
+      <x:c r="D154" s="16" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="E154" s="52">
+      <x:c r="E154" s="17">
         <x:v>34516</x:v>
       </x:c>
-      <x:c r="F154" s="53" t="n">
+      <x:c r="F154" s="18" t="n">
         <x:v>28862</x:v>
       </x:c>
-      <x:c r="G154" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H154" s="53" t="n">
+      <x:c r="G154" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H154" s="18" t="n">
         <x:v>28862</x:v>
       </x:c>
     </x:row>
-    <x:row r="155" spans="1:8">
-      <x:c r="B155" s="48" t="s">
+    <x:row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B155" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C155" s="51" t="s">
+      <x:c r="C155" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D155" s="51" t="s">
+      <x:c r="D155" s="16" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="E155" s="52">
+      <x:c r="E155" s="17">
         <x:v>34519</x:v>
       </x:c>
-      <x:c r="F155" s="53" t="n">
+      <x:c r="F155" s="18" t="n">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="G155" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H155" s="53" t="n">
+      <x:c r="G155" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H155" s="18" t="n">
         <x:v>104</x:v>
       </x:c>
     </x:row>
-    <x:row r="156" spans="1:8">
-      <x:c r="B156" s="48" t="s">
+    <x:row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B156" s="13" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C156" s="51" t="s">
+      <x:c r="C156" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D156" s="51" t="s">
+      <x:c r="D156" s="16" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="E156" s="52">
+      <x:c r="E156" s="17">
         <x:v>34521</x:v>
       </x:c>
-      <x:c r="F156" s="53" t="n">
+      <x:c r="F156" s="18" t="n">
         <x:v>9471.95</x:v>
       </x:c>
-      <x:c r="G156" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H156" s="53" t="n">
+      <x:c r="G156" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H156" s="18" t="n">
         <x:v>9471.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="157" spans="1:8">
-      <x:c r="B157" s="48" t="s">
+    <x:row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B157" s="13" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C157" s="51" t="s">
+      <x:c r="C157" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D157" s="51" t="s">
+      <x:c r="D157" s="16" t="s">
         <x:v>218</x:v>
       </x:c>
-      <x:c r="E157" s="52">
+      <x:c r="E157" s="17">
         <x:v>34523</x:v>
       </x:c>
-      <x:c r="F157" s="53" t="n">
+      <x:c r="F157" s="18" t="n">
         <x:v>5654.8</x:v>
       </x:c>
-      <x:c r="G157" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H157" s="53" t="n">
+      <x:c r="G157" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H157" s="18" t="n">
         <x:v>5654.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="158" spans="1:8">
-      <x:c r="B158" s="48" t="s">
+    <x:row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B158" s="13" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C158" s="51" t="s">
+      <x:c r="C158" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D158" s="51" t="s">
+      <x:c r="D158" s="16" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="E158" s="52">
+      <x:c r="E158" s="17">
         <x:v>34525</x:v>
       </x:c>
-      <x:c r="F158" s="53" t="n">
+      <x:c r="F158" s="18" t="n">
         <x:v>2356.9</x:v>
       </x:c>
-      <x:c r="G158" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H158" s="53" t="n">
+      <x:c r="G158" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H158" s="18" t="n">
         <x:v>2356.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="159" spans="1:8">
-      <x:c r="B159" s="48" t="s">
+    <x:row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B159" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C159" s="51" t="s">
+      <x:c r="C159" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D159" s="51" t="s">
+      <x:c r="D159" s="16" t="s">
         <x:v>220</x:v>
       </x:c>
-      <x:c r="E159" s="52">
+      <x:c r="E159" s="17">
         <x:v>34531</x:v>
       </x:c>
-      <x:c r="F159" s="53" t="n">
+      <x:c r="F159" s="18" t="n">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G159" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H159" s="53" t="n">
+      <x:c r="G159" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H159" s="18" t="n">
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="160" spans="1:8">
-      <x:c r="B160" s="48" t="s">
+    <x:row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B160" s="13" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="C160" s="51" t="s">
+      <x:c r="C160" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D160" s="51" t="s">
+      <x:c r="D160" s="16" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="E160" s="52">
+      <x:c r="E160" s="17">
         <x:v>34537</x:v>
       </x:c>
-      <x:c r="F160" s="53" t="n">
+      <x:c r="F160" s="18" t="n">
         <x:v>13814.05</x:v>
       </x:c>
-      <x:c r="G160" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H160" s="53" t="n">
+      <x:c r="G160" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H160" s="18" t="n">
         <x:v>13814.05</x:v>
       </x:c>
     </x:row>
-    <x:row r="161" spans="1:8">
-      <x:c r="B161" s="48" t="s">
+    <x:row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B161" s="13" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C161" s="51" t="s">
+      <x:c r="C161" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D161" s="51" t="s">
+      <x:c r="D161" s="16" t="s">
         <x:v>223</x:v>
       </x:c>
-      <x:c r="E161" s="52">
+      <x:c r="E161" s="17">
         <x:v>34541</x:v>
       </x:c>
-      <x:c r="F161" s="53" t="n">
+      <x:c r="F161" s="18" t="n">
         <x:v>4178.85</x:v>
       </x:c>
-      <x:c r="G161" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H161" s="53" t="n">
+      <x:c r="G161" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H161" s="18" t="n">
         <x:v>4178.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="162" spans="1:8">
-      <x:c r="B162" s="48" t="s">
+    <x:row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B162" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C162" s="51" t="s">
+      <x:c r="C162" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D162" s="51" t="s">
+      <x:c r="D162" s="16" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="E162" s="52">
+      <x:c r="E162" s="17">
         <x:v>34548</x:v>
       </x:c>
-      <x:c r="F162" s="53" t="n">
+      <x:c r="F162" s="18" t="n">
         <x:v>5511.75</x:v>
       </x:c>
-      <x:c r="G162" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H162" s="53" t="n">
+      <x:c r="G162" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H162" s="18" t="n">
         <x:v>5511.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="163" spans="1:8">
-      <x:c r="B163" s="48" t="s">
+    <x:row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B163" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C163" s="51" t="s">
+      <x:c r="C163" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D163" s="51" t="s">
+      <x:c r="D163" s="16" t="s">
         <x:v>225</x:v>
       </x:c>
-      <x:c r="E163" s="52">
+      <x:c r="E163" s="17">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="F163" s="53" t="n">
+      <x:c r="F163" s="18" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="G163" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H163" s="53" t="n">
+      <x:c r="G163" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H163" s="18" t="n">
         <x:v>3640</x:v>
       </x:c>
     </x:row>
-    <x:row r="164" spans="1:8">
-      <x:c r="B164" s="48" t="s">
+    <x:row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B164" s="13" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C164" s="51" t="s">
+      <x:c r="C164" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D164" s="51" t="s">
+      <x:c r="D164" s="16" t="s">
         <x:v>226</x:v>
       </x:c>
-      <x:c r="E164" s="52">
+      <x:c r="E164" s="17">
         <x:v>34556</x:v>
       </x:c>
-      <x:c r="F164" s="53" t="n">
+      <x:c r="F164" s="18" t="n">
         <x:v>3650</x:v>
       </x:c>
-      <x:c r="G164" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H164" s="53" t="n">
+      <x:c r="G164" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H164" s="18" t="n">
         <x:v>3650</x:v>
       </x:c>
     </x:row>
-    <x:row r="165" spans="1:8">
-      <x:c r="B165" s="48" t="s">
+    <x:row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B165" s="13" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C165" s="51" t="s">
+      <x:c r="C165" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D165" s="51" t="s">
+      <x:c r="D165" s="16" t="s">
         <x:v>227</x:v>
       </x:c>
-      <x:c r="E165" s="52">
+      <x:c r="E165" s="17">
         <x:v>34583</x:v>
       </x:c>
-      <x:c r="F165" s="53" t="n">
+      <x:c r="F165" s="18" t="n">
         <x:v>7868</x:v>
       </x:c>
-      <x:c r="G165" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H165" s="53" t="n">
+      <x:c r="G165" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H165" s="18" t="n">
         <x:v>7868</x:v>
       </x:c>
     </x:row>
-    <x:row r="166" spans="1:8">
-      <x:c r="B166" s="48" t="s">
+    <x:row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B166" s="13" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="C166" s="51" t="s">
+      <x:c r="C166" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D166" s="51" t="s">
+      <x:c r="D166" s="16" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="E166" s="52">
+      <x:c r="E166" s="17">
         <x:v>34585</x:v>
       </x:c>
-      <x:c r="F166" s="53" t="n">
+      <x:c r="F166" s="18" t="n">
         <x:v>5983</x:v>
       </x:c>
-      <x:c r="G166" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H166" s="53" t="n">
+      <x:c r="G166" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H166" s="18" t="n">
         <x:v>5983</x:v>
       </x:c>
     </x:row>
-    <x:row r="167" spans="1:8">
-      <x:c r="B167" s="48" t="s">
+    <x:row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B167" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C167" s="51" t="s">
+      <x:c r="C167" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D167" s="51" t="s">
+      <x:c r="D167" s="16" t="s">
         <x:v>229</x:v>
       </x:c>
-      <x:c r="E167" s="52">
+      <x:c r="E167" s="17">
         <x:v>34589</x:v>
       </x:c>
-      <x:c r="F167" s="53" t="n">
+      <x:c r="F167" s="18" t="n">
         <x:v>6731</x:v>
       </x:c>
-      <x:c r="G167" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H167" s="53" t="n">
+      <x:c r="G167" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H167" s="18" t="n">
         <x:v>6731</x:v>
       </x:c>
     </x:row>
-    <x:row r="168" spans="1:8">
-      <x:c r="B168" s="48" t="s">
+    <x:row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B168" s="13" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C168" s="51" t="s">
+      <x:c r="C168" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D168" s="51" t="s">
+      <x:c r="D168" s="16" t="s">
         <x:v>230</x:v>
       </x:c>
-      <x:c r="E168" s="52">
+      <x:c r="E168" s="17">
         <x:v>34591</x:v>
       </x:c>
-      <x:c r="F168" s="53" t="n">
+      <x:c r="F168" s="18" t="n">
         <x:v>72089.9</x:v>
       </x:c>
-      <x:c r="G168" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H168" s="53" t="n">
+      <x:c r="G168" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H168" s="18" t="n">
         <x:v>72089.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="169" spans="1:8">
-      <x:c r="B169" s="48" t="s">
+    <x:row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B169" s="13" t="s">
         <x:v>146</x:v>
       </x:c>
-      <x:c r="C169" s="51" t="s">
+      <x:c r="C169" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D169" s="51" t="s">
+      <x:c r="D169" s="16" t="s">
         <x:v>231</x:v>
       </x:c>
-      <x:c r="E169" s="52">
+      <x:c r="E169" s="17">
         <x:v>34593</x:v>
       </x:c>
-      <x:c r="F169" s="53" t="n">
+      <x:c r="F169" s="18" t="n">
         <x:v>716</x:v>
       </x:c>
-      <x:c r="G169" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H169" s="53" t="n">
+      <x:c r="G169" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H169" s="18" t="n">
         <x:v>716</x:v>
       </x:c>
     </x:row>
-    <x:row r="170" spans="1:8">
-      <x:c r="B170" s="48" t="s">
+    <x:row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B170" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C170" s="51" t="s">
+      <x:c r="C170" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D170" s="51" t="s">
+      <x:c r="D170" s="16" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="E170" s="52">
+      <x:c r="E170" s="17">
         <x:v>34597</x:v>
       </x:c>
-      <x:c r="F170" s="53" t="n">
+      <x:c r="F170" s="18" t="n">
         <x:v>1827</x:v>
       </x:c>
-      <x:c r="G170" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H170" s="53" t="n">
+      <x:c r="G170" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H170" s="18" t="n">
         <x:v>1827</x:v>
       </x:c>
     </x:row>
-    <x:row r="171" spans="1:8">
-      <x:c r="B171" s="48" t="s">
+    <x:row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B171" s="13" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="C171" s="51" t="s">
+      <x:c r="C171" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D171" s="51" t="s">
+      <x:c r="D171" s="16" t="s">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="E171" s="52">
+      <x:c r="E171" s="17">
         <x:v>34611</x:v>
       </x:c>
-      <x:c r="F171" s="53" t="n">
+      <x:c r="F171" s="18" t="n">
         <x:v>7990</x:v>
       </x:c>
-      <x:c r="G171" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H171" s="53" t="n">
+      <x:c r="G171" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H171" s="18" t="n">
         <x:v>7990</x:v>
       </x:c>
     </x:row>
-    <x:row r="172" spans="1:8">
-      <x:c r="B172" s="48" t="s">
+    <x:row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B172" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C172" s="51" t="s">
+      <x:c r="C172" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D172" s="51" t="s">
+      <x:c r="D172" s="16" t="s">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="E172" s="52">
+      <x:c r="E172" s="17">
         <x:v>34613</x:v>
       </x:c>
-      <x:c r="F172" s="53" t="n">
+      <x:c r="F172" s="18" t="n">
         <x:v>4205</x:v>
       </x:c>
-      <x:c r="G172" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H172" s="53" t="n">
+      <x:c r="G172" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H172" s="18" t="n">
         <x:v>4205</x:v>
       </x:c>
     </x:row>
-    <x:row r="173" spans="1:8">
-      <x:c r="B173" s="48" t="s">
+    <x:row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B173" s="13" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="C173" s="51" t="s">
+      <x:c r="C173" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D173" s="51" t="s">
+      <x:c r="D173" s="16" t="s">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="E173" s="52">
+      <x:c r="E173" s="17">
         <x:v>34625</x:v>
       </x:c>
-      <x:c r="F173" s="53" t="n">
+      <x:c r="F173" s="18" t="n">
         <x:v>10263.75</x:v>
       </x:c>
-      <x:c r="G173" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H173" s="53" t="n">
+      <x:c r="G173" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H173" s="18" t="n">
         <x:v>10263.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="174" spans="1:8">
-      <x:c r="B174" s="48" t="s">
+    <x:row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B174" s="13" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="C174" s="51" t="s">
+      <x:c r="C174" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D174" s="51" t="s">
+      <x:c r="D174" s="16" t="s">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="E174" s="52">
+      <x:c r="E174" s="17">
         <x:v>34628</x:v>
       </x:c>
-      <x:c r="F174" s="53" t="n">
+      <x:c r="F174" s="18" t="n">
         <x:v>4029.55</x:v>
       </x:c>
-      <x:c r="G174" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H174" s="53" t="n">
+      <x:c r="G174" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H174" s="18" t="n">
         <x:v>4029.55</x:v>
       </x:c>
     </x:row>
-    <x:row r="175" spans="1:8">
-      <x:c r="B175" s="48" t="s">
+    <x:row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B175" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C175" s="51" t="s">
+      <x:c r="C175" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D175" s="51" t="s">
+      <x:c r="D175" s="16" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="E175" s="52">
+      <x:c r="E175" s="17">
         <x:v>34649</x:v>
       </x:c>
-      <x:c r="F175" s="53" t="n">
+      <x:c r="F175" s="18" t="n">
         <x:v>12949.7</x:v>
       </x:c>
-      <x:c r="G175" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H175" s="53" t="n">
+      <x:c r="G175" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H175" s="18" t="n">
         <x:v>12949.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="176" spans="1:8">
-      <x:c r="B176" s="48" t="s">
+    <x:row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B176" s="13" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C176" s="51" t="s">
+      <x:c r="C176" s="16" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D176" s="51" t="s">
+      <x:c r="D176" s="16" t="s">
         <x:v>240</x:v>
       </x:c>
-      <x:c r="E176" s="52">
+      <x:c r="E176" s="17">
         <x:v>34650</x:v>
       </x:c>
-      <x:c r="F176" s="53" t="n">
+      <x:c r="F176" s="18" t="n">
         <x:v>20711.9</x:v>
       </x:c>
-      <x:c r="G176" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H176" s="53" t="n">
+      <x:c r="G176" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H176" s="18" t="n">
         <x:v>20711.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="177" spans="1:8">
-      <x:c r="B177" s="48" t="s">
+    <x:row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B177" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C177" s="51" t="s">
+      <x:c r="C177" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D177" s="51" t="s">
+      <x:c r="D177" s="16" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="E177" s="52">
+      <x:c r="E177" s="17">
         <x:v>34652</x:v>
       </x:c>
-      <x:c r="F177" s="53" t="n">
+      <x:c r="F177" s="18" t="n">
         <x:v>3975.75</x:v>
       </x:c>
-      <x:c r="G177" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H177" s="53" t="n">
+      <x:c r="G177" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H177" s="18" t="n">
         <x:v>3975.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="178" spans="1:8">
-      <x:c r="B178" s="48" t="s">
+    <x:row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B178" s="13" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C178" s="51" t="s">
+      <x:c r="C178" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D178" s="51" t="s">
+      <x:c r="D178" s="16" t="s">
         <x:v>242</x:v>
       </x:c>
-      <x:c r="E178" s="52">
+      <x:c r="E178" s="17">
         <x:v>34654</x:v>
       </x:c>
-      <x:c r="F178" s="53" t="n">
+      <x:c r="F178" s="18" t="n">
         <x:v>8305.95</x:v>
       </x:c>
-      <x:c r="G178" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H178" s="53" t="n">
+      <x:c r="G178" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H178" s="18" t="n">
         <x:v>8305.95</x:v>
       </x:c>
     </x:row>
-    <x:row r="179" spans="1:8">
-      <x:c r="B179" s="48" t="s">
+    <x:row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B179" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C179" s="51" t="s">
+      <x:c r="C179" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D179" s="51" t="s">
+      <x:c r="D179" s="16" t="s">
         <x:v>243</x:v>
       </x:c>
-      <x:c r="E179" s="52">
+      <x:c r="E179" s="17">
         <x:v>34660</x:v>
       </x:c>
-      <x:c r="F179" s="53" t="n">
+      <x:c r="F179" s="18" t="n">
         <x:v>51730.8</x:v>
       </x:c>
-      <x:c r="G179" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H179" s="53" t="n">
+      <x:c r="G179" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H179" s="18" t="n">
         <x:v>51730.8</x:v>
       </x:c>
     </x:row>
-    <x:row r="180" spans="1:8">
-      <x:c r="B180" s="48" t="s">
+    <x:row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B180" s="13" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="C180" s="51" t="s">
+      <x:c r="C180" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D180" s="51" t="s">
+      <x:c r="D180" s="16" t="s">
         <x:v>244</x:v>
       </x:c>
-      <x:c r="E180" s="52">
+      <x:c r="E180" s="17">
         <x:v>34661</x:v>
       </x:c>
-      <x:c r="F180" s="53" t="n">
+      <x:c r="F180" s="18" t="n">
         <x:v>2099</x:v>
       </x:c>
-      <x:c r="G180" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H180" s="53" t="n">
+      <x:c r="G180" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H180" s="18" t="n">
         <x:v>2099</x:v>
       </x:c>
     </x:row>
-    <x:row r="181" spans="1:8">
-      <x:c r="B181" s="48" t="s">
+    <x:row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B181" s="13" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C181" s="51" t="s">
+      <x:c r="C181" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D181" s="51" t="s">
+      <x:c r="D181" s="16" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="E181" s="52">
+      <x:c r="E181" s="17">
         <x:v>34662</x:v>
       </x:c>
-      <x:c r="F181" s="53" t="n">
+      <x:c r="F181" s="18" t="n">
         <x:v>45160.1</x:v>
       </x:c>
-      <x:c r="G181" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H181" s="53" t="n">
+      <x:c r="G181" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H181" s="18" t="n">
         <x:v>45160.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="182" spans="1:8">
-      <x:c r="B182" s="48" t="s">
+    <x:row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B182" s="13" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C182" s="51" t="s">
+      <x:c r="C182" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D182" s="51" t="s">
+      <x:c r="D182" s="16" t="s">
         <x:v>246</x:v>
       </x:c>
-      <x:c r="E182" s="52">
+      <x:c r="E182" s="17">
         <x:v>34664</x:v>
       </x:c>
-      <x:c r="F182" s="53" t="n">
+      <x:c r="F182" s="18" t="n">
         <x:v>4774.85</x:v>
       </x:c>
-      <x:c r="G182" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H182" s="53" t="n">
+      <x:c r="G182" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H182" s="18" t="n">
         <x:v>4774.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="183" spans="1:8">
-      <x:c r="B183" s="48" t="s">
+    <x:row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B183" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C183" s="51" t="s">
+      <x:c r="C183" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D183" s="51" t="s">
+      <x:c r="D183" s="16" t="s">
         <x:v>247</x:v>
       </x:c>
-      <x:c r="E183" s="52">
+      <x:c r="E183" s="17">
         <x:v>34677</x:v>
       </x:c>
-      <x:c r="F183" s="53" t="n">
+      <x:c r="F183" s="18" t="n">
         <x:v>64115.75</x:v>
       </x:c>
-      <x:c r="G183" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H183" s="53" t="n">
+      <x:c r="G183" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H183" s="18" t="n">
         <x:v>64115.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="184" spans="1:8">
-      <x:c r="B184" s="48" t="s">
+    <x:row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B184" s="13" t="s">
         <x:v>130</x:v>
       </x:c>
-      <x:c r="C184" s="51" t="s">
+      <x:c r="C184" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D184" s="51" t="s">
+      <x:c r="D184" s="16" t="s">
         <x:v>248</x:v>
       </x:c>
-      <x:c r="E184" s="52">
+      <x:c r="E184" s="17">
         <x:v>34678</x:v>
       </x:c>
-      <x:c r="F184" s="53" t="n">
+      <x:c r="F184" s="18" t="n">
         <x:v>2577.85</x:v>
       </x:c>
-      <x:c r="G184" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H184" s="53" t="n">
+      <x:c r="G184" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H184" s="18" t="n">
         <x:v>2577.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="185" spans="1:8">
-      <x:c r="B185" s="48" t="s">
+    <x:row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B185" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C185" s="51" t="s">
+      <x:c r="C185" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D185" s="51" t="s">
+      <x:c r="D185" s="16" t="s">
         <x:v>249</x:v>
       </x:c>
-      <x:c r="E185" s="52">
+      <x:c r="E185" s="17">
         <x:v>34679</x:v>
       </x:c>
-      <x:c r="F185" s="53" t="n">
+      <x:c r="F185" s="18" t="n">
         <x:v>1999</x:v>
       </x:c>
-      <x:c r="G185" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H185" s="53" t="n">
+      <x:c r="G185" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H185" s="18" t="n">
         <x:v>1999</x:v>
       </x:c>
     </x:row>
-    <x:row r="186" spans="1:8">
-      <x:c r="B186" s="48" t="s">
+    <x:row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B186" s="13" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="C186" s="51" t="s">
+      <x:c r="C186" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D186" s="51" t="s">
+      <x:c r="D186" s="16" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="E186" s="52">
+      <x:c r="E186" s="17">
         <x:v>34682</x:v>
       </x:c>
-      <x:c r="F186" s="53" t="n">
+      <x:c r="F186" s="18" t="n">
         <x:v>158922.65</x:v>
       </x:c>
-      <x:c r="G186" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H186" s="53" t="n">
+      <x:c r="G186" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H186" s="18" t="n">
         <x:v>158922.65</x:v>
       </x:c>
     </x:row>
-    <x:row r="187" spans="1:8">
-      <x:c r="B187" s="48" t="s">
+    <x:row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B187" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C187" s="51" t="s">
+      <x:c r="C187" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D187" s="51" t="s">
+      <x:c r="D187" s="16" t="s">
         <x:v>251</x:v>
       </x:c>
-      <x:c r="E187" s="52">
+      <x:c r="E187" s="17">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="F187" s="53" t="n">
+      <x:c r="F187" s="18" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="G187" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H187" s="53" t="n">
+      <x:c r="G187" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H187" s="18" t="n">
         <x:v>6935</x:v>
       </x:c>
     </x:row>
-    <x:row r="188" spans="1:8">
-      <x:c r="B188" s="48" t="s">
+    <x:row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B188" s="13" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C188" s="51" t="s">
+      <x:c r="C188" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D188" s="51" t="s">
+      <x:c r="D188" s="16" t="s">
         <x:v>252</x:v>
       </x:c>
-      <x:c r="E188" s="52">
+      <x:c r="E188" s="17">
         <x:v>34684</x:v>
       </x:c>
-      <x:c r="F188" s="53" t="n">
+      <x:c r="F188" s="18" t="n">
         <x:v>1400</x:v>
       </x:c>
-      <x:c r="G188" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H188" s="53" t="n">
+      <x:c r="G188" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H188" s="18" t="n">
         <x:v>1400</x:v>
       </x:c>
     </x:row>
-    <x:row r="189" spans="1:8">
-      <x:c r="B189" s="48" t="s">
+    <x:row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B189" s="13" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C189" s="51" t="s">
+      <x:c r="C189" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D189" s="51" t="s">
+      <x:c r="D189" s="16" t="s">
         <x:v>253</x:v>
       </x:c>
-      <x:c r="E189" s="52">
+      <x:c r="E189" s="17">
         <x:v>34688</x:v>
       </x:c>
-      <x:c r="F189" s="53" t="n">
+      <x:c r="F189" s="18" t="n">
         <x:v>304</x:v>
       </x:c>
-      <x:c r="G189" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H189" s="53" t="n">
+      <x:c r="G189" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H189" s="18" t="n">
         <x:v>304</x:v>
       </x:c>
     </x:row>
-    <x:row r="190" spans="1:8">
-      <x:c r="B190" s="48" t="s">
+    <x:row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B190" s="13" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C190" s="51" t="s">
+      <x:c r="C190" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D190" s="51" t="s">
+      <x:c r="D190" s="16" t="s">
         <x:v>254</x:v>
       </x:c>
-      <x:c r="E190" s="52">
+      <x:c r="E190" s="17">
         <x:v>34690</x:v>
       </x:c>
-      <x:c r="F190" s="53" t="n">
+      <x:c r="F190" s="18" t="n">
         <x:v>16939.5</x:v>
       </x:c>
-      <x:c r="G190" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H190" s="53" t="n">
+      <x:c r="G190" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H190" s="18" t="n">
         <x:v>16939.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="191" spans="1:8">
-      <x:c r="B191" s="48" t="s">
+    <x:row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B191" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C191" s="51" t="s">
+      <x:c r="C191" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D191" s="51" t="s">
+      <x:c r="D191" s="16" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="E191" s="52">
+      <x:c r="E191" s="17">
         <x:v>34691</x:v>
       </x:c>
-      <x:c r="F191" s="53" t="n">
+      <x:c r="F191" s="18" t="n">
         <x:v>11568</x:v>
       </x:c>
-      <x:c r="G191" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H191" s="53" t="n">
+      <x:c r="G191" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H191" s="18" t="n">
         <x:v>11568</x:v>
       </x:c>
     </x:row>
-    <x:row r="192" spans="1:8">
-      <x:c r="B192" s="48" t="s">
+    <x:row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B192" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C192" s="51" t="s">
+      <x:c r="C192" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D192" s="51" t="s">
+      <x:c r="D192" s="16" t="s">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="E192" s="52">
+      <x:c r="E192" s="17">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="F192" s="53" t="n">
+      <x:c r="F192" s="18" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="G192" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H192" s="53" t="n">
+      <x:c r="G192" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H192" s="18" t="n">
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
-    <x:row r="193" spans="1:8">
-      <x:c r="B193" s="48" t="s">
+    <x:row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B193" s="13" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C193" s="51" t="s">
+      <x:c r="C193" s="16" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D193" s="51" t="s">
+      <x:c r="D193" s="16" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="E193" s="52">
+      <x:c r="E193" s="17">
         <x:v>34698</x:v>
       </x:c>
-      <x:c r="F193" s="53" t="n">
+      <x:c r="F193" s="18" t="n">
         <x:v>7134</x:v>
       </x:c>
-      <x:c r="G193" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H193" s="53" t="n">
+      <x:c r="G193" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H193" s="18" t="n">
         <x:v>7134</x:v>
       </x:c>
     </x:row>
-    <x:row r="194" spans="1:8">
-      <x:c r="B194" s="48" t="s">
+    <x:row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B194" s="13" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="C194" s="51" t="s">
+      <x:c r="C194" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D194" s="51" t="s">
+      <x:c r="D194" s="16" t="s">
         <x:v>258</x:v>
       </x:c>
-      <x:c r="E194" s="52">
+      <x:c r="E194" s="17">
         <x:v>34700</x:v>
       </x:c>
-      <x:c r="F194" s="53" t="n">
+      <x:c r="F194" s="18" t="n">
         <x:v>7986.9</x:v>
       </x:c>
-      <x:c r="G194" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H194" s="53" t="n">
+      <x:c r="G194" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H194" s="18" t="n">
         <x:v>7986.9</x:v>
       </x:c>
     </x:row>
-    <x:row r="195" spans="1:8">
-      <x:c r="B195" s="48" t="s">
+    <x:row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B195" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C195" s="51" t="s">
+      <x:c r="C195" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D195" s="51" t="s">
+      <x:c r="D195" s="16" t="s">
         <x:v>259</x:v>
       </x:c>
-      <x:c r="E195" s="52">
+      <x:c r="E195" s="17">
         <x:v>34703</x:v>
       </x:c>
-      <x:c r="F195" s="53" t="n">
+      <x:c r="F195" s="18" t="n">
         <x:v>3304.85</x:v>
       </x:c>
-      <x:c r="G195" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H195" s="53" t="n">
+      <x:c r="G195" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H195" s="18" t="n">
         <x:v>3304.85</x:v>
       </x:c>
     </x:row>
-    <x:row r="196" spans="1:8">
-      <x:c r="B196" s="48" t="s">
+    <x:row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B196" s="13" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C196" s="51" t="s">
+      <x:c r="C196" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D196" s="51" t="s">
+      <x:c r="D196" s="16" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="E196" s="52">
+      <x:c r="E196" s="17">
         <x:v>34705</x:v>
       </x:c>
-      <x:c r="F196" s="53" t="n">
+      <x:c r="F196" s="18" t="n">
         <x:v>17917</x:v>
       </x:c>
-      <x:c r="G196" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H196" s="53" t="n">
+      <x:c r="G196" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H196" s="18" t="n">
         <x:v>17917</x:v>
       </x:c>
     </x:row>
-    <x:row r="197" spans="1:8">
-      <x:c r="B197" s="48" t="s">
+    <x:row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B197" s="13" t="s">
         <x:v>261</x:v>
       </x:c>
-      <x:c r="C197" s="51" t="s">
+      <x:c r="C197" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D197" s="51" t="s">
+      <x:c r="D197" s="16" t="s">
         <x:v>262</x:v>
       </x:c>
-      <x:c r="E197" s="52">
+      <x:c r="E197" s="17">
         <x:v>34707</x:v>
       </x:c>
-      <x:c r="F197" s="53" t="n">
+      <x:c r="F197" s="18" t="n">
         <x:v>7423.35</x:v>
       </x:c>
-      <x:c r="G197" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H197" s="53" t="n">
+      <x:c r="G197" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H197" s="18" t="n">
         <x:v>7423.35</x:v>
       </x:c>
     </x:row>
-    <x:row r="198" spans="1:8">
-      <x:c r="B198" s="48" t="s">
+    <x:row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B198" s="13" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C198" s="51" t="s">
+      <x:c r="C198" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D198" s="51" t="s">
+      <x:c r="D198" s="16" t="s">
         <x:v>263</x:v>
       </x:c>
-      <x:c r="E198" s="52">
+      <x:c r="E198" s="17">
         <x:v>34708</x:v>
       </x:c>
-      <x:c r="F198" s="53" t="n">
+      <x:c r="F198" s="18" t="n">
         <x:v>9897</x:v>
       </x:c>
-      <x:c r="G198" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H198" s="53" t="n">
+      <x:c r="G198" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H198" s="18" t="n">
         <x:v>9897</x:v>
       </x:c>
     </x:row>
-    <x:row r="199" spans="1:8">
-      <x:c r="B199" s="48" t="s">
+    <x:row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B199" s="13" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C199" s="51" t="s">
+      <x:c r="C199" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D199" s="51" t="s">
+      <x:c r="D199" s="16" t="s">
         <x:v>264</x:v>
       </x:c>
-      <x:c r="E199" s="52">
+      <x:c r="E199" s="17">
         <x:v>34709</x:v>
       </x:c>
-      <x:c r="F199" s="53" t="n">
+      <x:c r="F199" s="18" t="n">
         <x:v>52729.25</x:v>
       </x:c>
-      <x:c r="G199" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H199" s="53" t="n">
+      <x:c r="G199" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H199" s="18" t="n">
         <x:v>52729.25</x:v>
       </x:c>
     </x:row>
-    <x:row r="200" spans="1:8">
-      <x:c r="B200" s="48" t="s">
+    <x:row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B200" s="13" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="C200" s="51" t="s">
+      <x:c r="C200" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D200" s="51" t="s">
+      <x:c r="D200" s="16" t="s">
         <x:v>265</x:v>
       </x:c>
-      <x:c r="E200" s="52">
+      <x:c r="E200" s="17">
         <x:v>34715</x:v>
       </x:c>
-      <x:c r="F200" s="53" t="n">
+      <x:c r="F200" s="18" t="n">
         <x:v>24485</x:v>
       </x:c>
-      <x:c r="G200" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H200" s="53" t="n">
+      <x:c r="G200" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H200" s="18" t="n">
         <x:v>24485</x:v>
       </x:c>
     </x:row>
-    <x:row r="201" spans="1:8">
-      <x:c r="B201" s="48" t="s">
+    <x:row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B201" s="13" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C201" s="51" t="s">
+      <x:c r="C201" s="16" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D201" s="51" t="s">
+      <x:c r="D201" s="16" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="E201" s="52">
+      <x:c r="E201" s="17">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="F201" s="53" t="n">
+      <x:c r="F201" s="18" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="G201" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H201" s="53" t="n">
+      <x:c r="G201" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H201" s="18" t="n">
         <x:v>3065</x:v>
       </x:c>
     </x:row>
-    <x:row r="202" spans="1:8">
-      <x:c r="B202" s="48" t="s">
+    <x:row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B202" s="13" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C202" s="51" t="s">
+      <x:c r="C202" s="16" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D202" s="51" t="s">
+      <x:c r="D202" s="16" t="s">
         <x:v>267</x:v>
       </x:c>
-      <x:c r="E202" s="52">
+      <x:c r="E202" s="17">
         <x:v>34721</x:v>
       </x:c>
-      <x:c r="F202" s="53" t="n">
+      <x:c r="F202" s="18" t="n">
         <x:v>465</x:v>
       </x:c>
-      <x:c r="G202" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H202" s="53" t="n">
+      <x:c r="G202" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H202" s="18" t="n">
         <x:v>465</x:v>
       </x:c>
     </x:row>
-    <x:row r="203" spans="1:8">
-      <x:c r="B203" s="48" t="s">
+    <x:row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B203" s="13" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C203" s="51" t="s">
+      <x:c r="C203" s="16" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D203" s="51" t="s">
+      <x:c r="D203" s="16" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="E203" s="52">
+      <x:c r="E203" s="17">
         <x:v>34725</x:v>
       </x:c>
-      <x:c r="F203" s="53" t="n">
+      <x:c r="F203" s="18" t="n">
         <x:v>5037.1</x:v>
       </x:c>
-      <x:c r="G203" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H203" s="53" t="n">
+      <x:c r="G203" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H203" s="18" t="n">
         <x:v>5037.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="204" spans="1:8">
-      <x:c r="B204" s="48" t="s">
+    <x:row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B204" s="13" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C204" s="51" t="s">
+      <x:c r="C204" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D204" s="51" t="s">
+      <x:c r="D204" s="16" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="E204" s="52">
+      <x:c r="E204" s="17">
         <x:v>34731</x:v>
       </x:c>
-      <x:c r="F204" s="53" t="n">
+      <x:c r="F204" s="18" t="n">
         <x:v>7572</x:v>
       </x:c>
-      <x:c r="G204" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H204" s="53" t="n">
+      <x:c r="G204" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H204" s="18" t="n">
         <x:v>7572</x:v>
       </x:c>
     </x:row>
-    <x:row r="205" spans="1:8">
-      <x:c r="B205" s="48" t="s">
+    <x:row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B205" s="13" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C205" s="51" t="s">
+      <x:c r="C205" s="16" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D205" s="51" t="s">
+      <x:c r="D205" s="16" t="s">
         <x:v>270</x:v>
       </x:c>
-      <x:c r="E205" s="52">
+      <x:c r="E205" s="17">
         <x:v>34732</x:v>
       </x:c>
-      <x:c r="F205" s="53" t="n">
+      <x:c r="F205" s="18" t="n">
         <x:v>8939.6</x:v>
       </x:c>
-      <x:c r="G205" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H205" s="53" t="n">
+      <x:c r="G205" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H205" s="18" t="n">
         <x:v>8939.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="206" spans="1:8">
-      <x:c r="B206" s="48" t="s">
+    <x:row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B206" s="13" t="s">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="C206" s="51" t="s">
+      <x:c r="C206" s="16" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D206" s="51" t="s">
+      <x:c r="D206" s="16" t="s">
         <x:v>271</x:v>
       </x:c>
-      <x:c r="E206" s="52">
+      <x:c r="E206" s="17">
         <x:v>34735</x:v>
       </x:c>
-      <x:c r="F206" s="53" t="n">
+      <x:c r="F206" s="18" t="n">
         <x:v>13908</x:v>
       </x:c>
-      <x:c r="G206" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H206" s="53" t="n">
+      <x:c r="G206" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H206" s="18" t="n">
         <x:v>13908</x:v>
       </x:c>
     </x:row>
-    <x:row r="207" spans="1:8">
-      <x:c r="B207" s="48" t="s">
+    <x:row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <x:c r="B207" s="13" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C207" s="51" t="s">
+      <x:c r="C207" s="16" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D207" s="51" t="s">
+      <x:c r="D207" s="16" t="s">
         <x:v>272</x:v>
       </x:c>
-      <x:c r="E207" s="52" t="s"/>
-      <x:c r="F207" s="53" t="n">
+      <x:c r="E207" s="17" t="s"/>
+      <x:c r="F207" s="18" t="n">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G207" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H207" s="53" t="n">
+      <x:c r="G207" s="19" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H207" s="18" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -9024,24 +8870,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr codeName="Sheet1">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="B3:H9"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B6" sqref="B6 B6:B7"/>
-      <x:pivotSelection pane="bottomRight" showHeader="1" activeRow="4" activeCol="1" click="1" r:id="rId1">
-        <x:pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-          <x:references count="1">
-            <x:reference field="0" count="0"/>
-          </x:references>
-        </x:pivotArea>
-      </x:pivotSelection>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="B9" sqref="B9 B9:D9"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="11.25"/>
+  <x:sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <x:cols>
     <x:col min="1" max="1" width="4.332031" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="17.5" style="0" customWidth="1"/>
@@ -9051,13 +8890,13 @@
     <x:col min="6" max="6" width="13.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="3" spans="1:6"/>
-    <x:row r="4" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="5" spans="1:6" customFormat="1" ht="25.5" customHeight="1"/>
-    <x:row r="6" spans="1:6"/>
-    <x:row r="7" spans="1:6"/>
-    <x:row r="8" spans="1:6" customFormat="1" ht="12" customHeight="1"/>
-    <x:row r="9" spans="1:6" customFormat="1" ht="12.75" customHeight="1"/>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.2"/>
+    <x:row r="4" spans="1:6" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="5" spans="1:6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.2"/>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.2"/>
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.2"/>
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.2"/>
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -9069,17 +8908,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="B1:E9"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="B6" sqref="B6"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="C12" sqref="C12"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="11.25"/>
+  <x:sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="17.164062" style="0" customWidth="1"/>
@@ -9088,13 +8927,13 @@
     <x:col min="5" max="5" width="11" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5"/>
-    <x:row r="4" spans="1:5"/>
-    <x:row r="5" spans="1:5"/>
-    <x:row r="6" spans="1:5"/>
-    <x:row r="7" spans="1:5" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="8" spans="1:5"/>
-    <x:row r="9" spans="1:5"/>
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.2"/>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.2"/>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.2"/>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.2"/>
+    <x:row r="7" spans="1:5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.2"/>
+    <x:row r="9" spans="1:5" x14ac:dyDescent="0.2"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -4272,7 +4272,7 @@
     <x:col min="2" max="8" width="10.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:8" customFormat="1" ht="30.75" customHeight="1">
+    <x:row r="2" spans="1:8" ht="30.75" customHeight="1">
       <x:c r="B2" s="49" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -4295,7 +4295,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:8" customFormat="1" ht="20.1" customHeight="1">
+    <x:row r="3" spans="1:8" ht="20.1" customHeight="1">
       <x:c r="B3" s="48" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -9052,12 +9052,12 @@
   </x:cols>
   <x:sheetData>
     <x:row r="3" spans="1:6"/>
-    <x:row r="4" spans="1:6" customFormat="1" ht="11.25" customHeight="1"/>
-    <x:row r="5" spans="1:6" customFormat="1" ht="25.5" customHeight="1"/>
+    <x:row r="4" spans="1:6" ht="11.25" customHeight="1"/>
+    <x:row r="5" spans="1:6" ht="25.5" customHeight="1"/>
     <x:row r="6" spans="1:6"/>
     <x:row r="7" spans="1:6"/>
-    <x:row r="8" spans="1:6" customFormat="1" ht="12" customHeight="1"/>
-    <x:row r="9" spans="1:6" customFormat="1" ht="12.75" customHeight="1"/>
+    <x:row r="8" spans="1:6" ht="12" customHeight="1"/>
+    <x:row r="9" spans="1:6" ht="12.75" customHeight="1"/>
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -9092,7 +9092,7 @@
     <x:row r="4" spans="1:5"/>
     <x:row r="5" spans="1:5"/>
     <x:row r="6" spans="1:5"/>
-    <x:row r="7" spans="1:5" customFormat="1" ht="11.25" customHeight="1"/>
+    <x:row r="7" spans="1:5" ht="11.25" customHeight="1"/>
     <x:row r="8" spans="1:5"/>
     <x:row r="9" spans="1:5"/>
   </x:sheetData>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -1883,16 +1883,8 @@
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
+    <x:pivotField name="Ship date" compact="0" outline="0"/>
+    <x:pivotField name="Items total" dataField="1" compact="0" outline="0"/>
     <x:pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
       <x:items count="4">
         <x:item x="0"/>
@@ -1901,11 +1893,7 @@
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
+    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0"/>
   </x:pivotFields>
   <x:rowFields count="3">
     <x:field x="0"/>
@@ -3046,26 +3034,10 @@
         <x:item t="default"/>
       </x:items>
     </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Tax rate" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Amount paid" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
+    <x:pivotField name="Ship date" compact="0" outline="0"/>
+    <x:pivotField name="Items total" dataField="1" compact="0" outline="0"/>
+    <x:pivotField name="Tax rate" compact="0" outline="0"/>
+    <x:pivotField name="Amount paid" compact="0" outline="0"/>
   </x:pivotFields>
   <x:rowFields count="2">
     <x:field x="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -4114,7 +4114,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <x:cols>
-    <x:col min="1" max="1" width="5.164062" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="5.164063" style="0" customWidth="1"/>
     <x:col min="2" max="8" width="10.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -8884,7 +8884,7 @@
   <x:cols>
     <x:col min="1" max="1" width="4.332031" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="17.5" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.164062" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.164063" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.332031" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.5" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="13.832031" style="0" customWidth="1"/>
@@ -8921,7 +8921,7 @@
   <x:sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.164062" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.164063" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.5" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.5" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11" style="0" bestFit="1" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -4114,7 +4114,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <x:cols>
-    <x:col min="1" max="1" width="5.164063" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="5.164062" style="0" customWidth="1"/>
     <x:col min="2" max="8" width="10.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -8884,7 +8884,7 @@
   <x:cols>
     <x:col min="1" max="1" width="4.332031" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="17.5" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.164063" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.164062" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="15.332031" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.5" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="13.832031" style="0" customWidth="1"/>
@@ -8921,7 +8921,7 @@
   <x:sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.164063" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="17.164062" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.5" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.5" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11" style="0" bestFit="1" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -4308,13 +4308,13 @@
       <x:c r="E3" s="52">
         <x:v>32266</x:v>
       </x:c>
-      <x:c r="F3" s="53" t="n">
+      <x:c r="F3" s="53">
         <x:v>1250</x:v>
       </x:c>
-      <x:c r="G3" s="54" t="n">
+      <x:c r="G3" s="54">
         <x:v>4.5</x:v>
       </x:c>
-      <x:c r="H3" s="53" t="n">
+      <x:c r="H3" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4331,13 +4331,13 @@
       <x:c r="E4" s="52">
         <x:v>32251</x:v>
       </x:c>
-      <x:c r="F4" s="53" t="n">
+      <x:c r="F4" s="53">
         <x:v>7885</x:v>
       </x:c>
-      <x:c r="G4" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="53" t="n">
+      <x:c r="G4" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H4" s="53">
         <x:v>7885</x:v>
       </x:c>
     </x:row>
@@ -4354,13 +4354,13 @@
       <x:c r="E5" s="52">
         <x:v>32163</x:v>
       </x:c>
-      <x:c r="F5" s="53" t="n">
+      <x:c r="F5" s="53">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="G5" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H5" s="53" t="n">
+      <x:c r="G5" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H5" s="53">
         <x:v>4807</x:v>
       </x:c>
     </x:row>
@@ -4377,13 +4377,13 @@
       <x:c r="E6" s="52">
         <x:v>32454</x:v>
       </x:c>
-      <x:c r="F6" s="53" t="n">
+      <x:c r="F6" s="53">
         <x:v>31987</x:v>
       </x:c>
-      <x:c r="G6" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H6" s="53" t="n">
+      <x:c r="G6" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H6" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4400,13 +4400,13 @@
       <x:c r="E7" s="52">
         <x:v>32265</x:v>
       </x:c>
-      <x:c r="F7" s="53" t="n">
+      <x:c r="F7" s="53">
         <x:v>6500</x:v>
       </x:c>
-      <x:c r="G7" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H7" s="53" t="n">
+      <x:c r="G7" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H7" s="53">
         <x:v>6500</x:v>
       </x:c>
     </x:row>
@@ -4423,13 +4423,13 @@
       <x:c r="E8" s="52">
         <x:v>32267</x:v>
       </x:c>
-      <x:c r="F8" s="53" t="n">
+      <x:c r="F8" s="53">
         <x:v>1449.5</x:v>
       </x:c>
-      <x:c r="G8" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H8" s="53" t="n">
+      <x:c r="G8" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H8" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4446,13 +4446,13 @@
       <x:c r="E9" s="52">
         <x:v>32275</x:v>
       </x:c>
-      <x:c r="F9" s="53" t="n">
+      <x:c r="F9" s="53">
         <x:v>5587</x:v>
       </x:c>
-      <x:c r="G9" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H9" s="53" t="n">
+      <x:c r="G9" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H9" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4469,13 +4469,13 @@
       <x:c r="E10" s="52">
         <x:v>32275</x:v>
       </x:c>
-      <x:c r="F10" s="53" t="n">
+      <x:c r="F10" s="53">
         <x:v>4996</x:v>
       </x:c>
-      <x:c r="G10" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H10" s="53" t="n">
+      <x:c r="G10" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H10" s="53">
         <x:v>4996</x:v>
       </x:c>
     </x:row>
@@ -4492,13 +4492,13 @@
       <x:c r="E11" s="52">
         <x:v>32282</x:v>
       </x:c>
-      <x:c r="F11" s="53" t="n">
+      <x:c r="F11" s="53">
         <x:v>2679.85</x:v>
       </x:c>
-      <x:c r="G11" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H11" s="53" t="n">
+      <x:c r="G11" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H11" s="53">
         <x:v>2679.85</x:v>
       </x:c>
     </x:row>
@@ -4515,13 +4515,13 @@
       <x:c r="E12" s="52">
         <x:v>32283</x:v>
       </x:c>
-      <x:c r="F12" s="53" t="n">
+      <x:c r="F12" s="53">
         <x:v>5201</x:v>
       </x:c>
-      <x:c r="G12" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H12" s="53" t="n">
+      <x:c r="G12" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H12" s="53">
         <x:v>5201</x:v>
       </x:c>
     </x:row>
@@ -4538,13 +4538,13 @@
       <x:c r="E13" s="52">
         <x:v>32289</x:v>
       </x:c>
-      <x:c r="F13" s="53" t="n">
+      <x:c r="F13" s="53">
         <x:v>3115</x:v>
       </x:c>
-      <x:c r="G13" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H13" s="53" t="n">
+      <x:c r="G13" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="53">
         <x:v>3115</x:v>
       </x:c>
     </x:row>
@@ -4561,13 +4561,13 @@
       <x:c r="E14" s="52">
         <x:v>32289</x:v>
       </x:c>
-      <x:c r="F14" s="53" t="n">
+      <x:c r="F14" s="53">
         <x:v>134.85</x:v>
       </x:c>
-      <x:c r="G14" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H14" s="53" t="n">
+      <x:c r="G14" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="53">
         <x:v>134.85</x:v>
       </x:c>
     </x:row>
@@ -4584,13 +4584,13 @@
       <x:c r="E15" s="52">
         <x:v>32289</x:v>
       </x:c>
-      <x:c r="F15" s="53" t="n">
+      <x:c r="F15" s="53">
         <x:v>20321.75</x:v>
       </x:c>
-      <x:c r="G15" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="53" t="n">
+      <x:c r="G15" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="53">
         <x:v>20321.75</x:v>
       </x:c>
     </x:row>
@@ -4607,13 +4607,13 @@
       <x:c r="E16" s="52">
         <x:v>32297</x:v>
       </x:c>
-      <x:c r="F16" s="53" t="n">
+      <x:c r="F16" s="53">
         <x:v>2605</x:v>
       </x:c>
-      <x:c r="G16" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H16" s="53" t="n">
+      <x:c r="G16" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4630,13 +4630,13 @@
       <x:c r="E17" s="52">
         <x:v>32307</x:v>
       </x:c>
-      <x:c r="F17" s="53" t="n">
+      <x:c r="F17" s="53">
         <x:v>10195</x:v>
       </x:c>
-      <x:c r="G17" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H17" s="53" t="n">
+      <x:c r="G17" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H17" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4653,13 +4653,13 @@
       <x:c r="E18" s="52">
         <x:v>32313</x:v>
       </x:c>
-      <x:c r="F18" s="53" t="n">
+      <x:c r="F18" s="53">
         <x:v>5256</x:v>
       </x:c>
-      <x:c r="G18" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H18" s="53" t="n">
+      <x:c r="G18" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4676,13 +4676,13 @@
       <x:c r="E19" s="52">
         <x:v>32319</x:v>
       </x:c>
-      <x:c r="F19" s="53" t="n">
+      <x:c r="F19" s="53">
         <x:v>20602</x:v>
       </x:c>
-      <x:c r="G19" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H19" s="53" t="n">
+      <x:c r="G19" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -4699,13 +4699,13 @@
       <x:c r="E20" s="52">
         <x:v>32319</x:v>
       </x:c>
-      <x:c r="F20" s="53" t="n">
+      <x:c r="F20" s="53">
         <x:v>9955</x:v>
       </x:c>
-      <x:c r="G20" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H20" s="53" t="n">
+      <x:c r="G20" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H20" s="53">
         <x:v>9955</x:v>
       </x:c>
     </x:row>
@@ -4722,13 +4722,13 @@
       <x:c r="E21" s="52">
         <x:v>32319</x:v>
       </x:c>
-      <x:c r="F21" s="53" t="n">
+      <x:c r="F21" s="53">
         <x:v>3719</x:v>
       </x:c>
-      <x:c r="G21" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H21" s="53" t="n">
+      <x:c r="G21" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H21" s="53">
         <x:v>3719</x:v>
       </x:c>
     </x:row>
@@ -4745,13 +4745,13 @@
       <x:c r="E22" s="52">
         <x:v>32325</x:v>
       </x:c>
-      <x:c r="F22" s="53" t="n">
+      <x:c r="F22" s="53">
         <x:v>10064.65</x:v>
       </x:c>
-      <x:c r="G22" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H22" s="53" t="n">
+      <x:c r="G22" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H22" s="53">
         <x:v>10064.65</x:v>
       </x:c>
     </x:row>
@@ -4768,13 +4768,13 @@
       <x:c r="E23" s="52">
         <x:v>32326</x:v>
       </x:c>
-      <x:c r="F23" s="53" t="n">
+      <x:c r="F23" s="53">
         <x:v>4674</x:v>
       </x:c>
-      <x:c r="G23" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H23" s="53" t="n">
+      <x:c r="G23" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H23" s="53">
         <x:v>4674</x:v>
       </x:c>
     </x:row>
@@ -4791,13 +4791,13 @@
       <x:c r="E24" s="52">
         <x:v>32327</x:v>
       </x:c>
-      <x:c r="F24" s="53" t="n">
+      <x:c r="F24" s="53">
         <x:v>6897</x:v>
       </x:c>
-      <x:c r="G24" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H24" s="53" t="n">
+      <x:c r="G24" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="53">
         <x:v>6897</x:v>
       </x:c>
     </x:row>
@@ -4814,13 +4814,13 @@
       <x:c r="E25" s="52">
         <x:v>32328</x:v>
       </x:c>
-      <x:c r="F25" s="53" t="n">
+      <x:c r="F25" s="53">
         <x:v>930</x:v>
       </x:c>
-      <x:c r="G25" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H25" s="53" t="n">
+      <x:c r="G25" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="53">
         <x:v>930</x:v>
       </x:c>
     </x:row>
@@ -4837,13 +4837,13 @@
       <x:c r="E26" s="52">
         <x:v>32332</x:v>
       </x:c>
-      <x:c r="F26" s="53" t="n">
+      <x:c r="F26" s="53">
         <x:v>2920</x:v>
       </x:c>
-      <x:c r="G26" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H26" s="53" t="n">
+      <x:c r="G26" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H26" s="53">
         <x:v>2920</x:v>
       </x:c>
     </x:row>
@@ -4860,13 +4860,13 @@
       <x:c r="E27" s="52">
         <x:v>32332</x:v>
       </x:c>
-      <x:c r="F27" s="53" t="n">
+      <x:c r="F27" s="53">
         <x:v>25210</x:v>
       </x:c>
-      <x:c r="G27" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H27" s="53" t="n">
+      <x:c r="G27" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H27" s="53">
         <x:v>25210</x:v>
       </x:c>
     </x:row>
@@ -4883,13 +4883,13 @@
       <x:c r="E28" s="52">
         <x:v>32332</x:v>
       </x:c>
-      <x:c r="F28" s="53" t="n">
+      <x:c r="F28" s="53">
         <x:v>343.8</x:v>
       </x:c>
-      <x:c r="G28" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H28" s="53" t="n">
+      <x:c r="G28" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H28" s="53">
         <x:v>343.8</x:v>
       </x:c>
     </x:row>
@@ -4906,13 +4906,13 @@
       <x:c r="E29" s="52">
         <x:v>32343</x:v>
       </x:c>
-      <x:c r="F29" s="53" t="n">
+      <x:c r="F29" s="53">
         <x:v>20108</x:v>
       </x:c>
-      <x:c r="G29" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H29" s="53" t="n">
+      <x:c r="G29" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H29" s="53">
         <x:v>20108</x:v>
       </x:c>
     </x:row>
@@ -4929,13 +4929,13 @@
       <x:c r="E30" s="52">
         <x:v>32350</x:v>
       </x:c>
-      <x:c r="F30" s="53" t="n">
+      <x:c r="F30" s="53">
         <x:v>559.6</x:v>
       </x:c>
-      <x:c r="G30" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H30" s="53" t="n">
+      <x:c r="G30" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H30" s="53">
         <x:v>559.6</x:v>
       </x:c>
     </x:row>
@@ -4952,13 +4952,13 @@
       <x:c r="E31" s="52">
         <x:v>32356</x:v>
       </x:c>
-      <x:c r="F31" s="53" t="n">
+      <x:c r="F31" s="53">
         <x:v>12685</x:v>
       </x:c>
-      <x:c r="G31" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H31" s="53" t="n">
+      <x:c r="G31" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H31" s="53">
         <x:v>12685</x:v>
       </x:c>
     </x:row>
@@ -4975,13 +4975,13 @@
       <x:c r="E32" s="52">
         <x:v>32356</x:v>
       </x:c>
-      <x:c r="F32" s="53" t="n">
+      <x:c r="F32" s="53">
         <x:v>775</x:v>
       </x:c>
-      <x:c r="G32" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H32" s="53" t="n">
+      <x:c r="G32" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H32" s="53">
         <x:v>775</x:v>
       </x:c>
     </x:row>
@@ -4998,13 +4998,13 @@
       <x:c r="E33" s="52">
         <x:v>32357</x:v>
       </x:c>
-      <x:c r="F33" s="53" t="n">
+      <x:c r="F33" s="53">
         <x:v>1238</x:v>
       </x:c>
-      <x:c r="G33" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H33" s="53" t="n">
+      <x:c r="G33" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H33" s="53">
         <x:v>1238</x:v>
       </x:c>
     </x:row>
@@ -5021,13 +5021,13 @@
       <x:c r="E34" s="52">
         <x:v>32369</x:v>
       </x:c>
-      <x:c r="F34" s="53" t="n">
+      <x:c r="F34" s="53">
         <x:v>18532</x:v>
       </x:c>
-      <x:c r="G34" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H34" s="53" t="n">
+      <x:c r="G34" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H34" s="53">
         <x:v>18532</x:v>
       </x:c>
     </x:row>
@@ -5044,13 +5044,13 @@
       <x:c r="E35" s="52">
         <x:v>32372</x:v>
       </x:c>
-      <x:c r="F35" s="53" t="n">
+      <x:c r="F35" s="53">
         <x:v>560</x:v>
       </x:c>
-      <x:c r="G35" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H35" s="53" t="n">
+      <x:c r="G35" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H35" s="53">
         <x:v>560</x:v>
       </x:c>
     </x:row>
@@ -5067,13 +5067,13 @@
       <x:c r="E36" s="52">
         <x:v>32381</x:v>
       </x:c>
-      <x:c r="F36" s="53" t="n">
+      <x:c r="F36" s="53">
         <x:v>4110</x:v>
       </x:c>
-      <x:c r="G36" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H36" s="53" t="n">
+      <x:c r="G36" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="53">
         <x:v>4110</x:v>
       </x:c>
     </x:row>
@@ -5090,13 +5090,13 @@
       <x:c r="E37" s="52">
         <x:v>32382</x:v>
       </x:c>
-      <x:c r="F37" s="53" t="n">
+      <x:c r="F37" s="53">
         <x:v>3117</x:v>
       </x:c>
-      <x:c r="G37" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H37" s="53" t="n">
+      <x:c r="G37" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H37" s="53">
         <x:v>3117</x:v>
       </x:c>
     </x:row>
@@ -5113,13 +5113,13 @@
       <x:c r="E38" s="52">
         <x:v>32382</x:v>
       </x:c>
-      <x:c r="F38" s="53" t="n">
+      <x:c r="F38" s="53">
         <x:v>10152</x:v>
       </x:c>
-      <x:c r="G38" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H38" s="53" t="n">
+      <x:c r="G38" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H38" s="53">
         <x:v>10152</x:v>
       </x:c>
     </x:row>
@@ -5136,13 +5136,13 @@
       <x:c r="E39" s="52">
         <x:v>32387</x:v>
       </x:c>
-      <x:c r="F39" s="53" t="n">
+      <x:c r="F39" s="53">
         <x:v>536.8</x:v>
       </x:c>
-      <x:c r="G39" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H39" s="53" t="n">
+      <x:c r="G39" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H39" s="53">
         <x:v>536.8</x:v>
       </x:c>
     </x:row>
@@ -5159,13 +5159,13 @@
       <x:c r="E40" s="52">
         <x:v>32391</x:v>
       </x:c>
-      <x:c r="F40" s="53" t="n">
+      <x:c r="F40" s="53">
         <x:v>3632</x:v>
       </x:c>
-      <x:c r="G40" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H40" s="53" t="n">
+      <x:c r="G40" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H40" s="53">
         <x:v>3632</x:v>
       </x:c>
     </x:row>
@@ -5182,13 +5182,13 @@
       <x:c r="E41" s="52">
         <x:v>32403</x:v>
       </x:c>
-      <x:c r="F41" s="53" t="n">
+      <x:c r="F41" s="53">
         <x:v>7807</x:v>
       </x:c>
-      <x:c r="G41" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H41" s="53" t="n">
+      <x:c r="G41" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H41" s="53">
         <x:v>7807</x:v>
       </x:c>
     </x:row>
@@ -5205,13 +5205,13 @@
       <x:c r="E42" s="52">
         <x:v>32411</x:v>
       </x:c>
-      <x:c r="F42" s="53" t="n">
+      <x:c r="F42" s="53">
         <x:v>971.7</x:v>
       </x:c>
-      <x:c r="G42" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H42" s="53" t="n">
+      <x:c r="G42" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H42" s="53">
         <x:v>971.7</x:v>
       </x:c>
     </x:row>
@@ -5228,13 +5228,13 @@
       <x:c r="E43" s="52">
         <x:v>32417</x:v>
       </x:c>
-      <x:c r="F43" s="53" t="n">
+      <x:c r="F43" s="53">
         <x:v>12455</x:v>
       </x:c>
-      <x:c r="G43" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H43" s="53" t="n">
+      <x:c r="G43" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H43" s="53">
         <x:v>12455</x:v>
       </x:c>
     </x:row>
@@ -5251,13 +5251,13 @@
       <x:c r="E44" s="52">
         <x:v>32425</x:v>
       </x:c>
-      <x:c r="F44" s="53" t="n">
+      <x:c r="F44" s="53">
         <x:v>64050</x:v>
       </x:c>
-      <x:c r="G44" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H44" s="53" t="n">
+      <x:c r="G44" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H44" s="53">
         <x:v>64050</x:v>
       </x:c>
     </x:row>
@@ -5274,13 +5274,13 @@
       <x:c r="E45" s="52">
         <x:v>32433</x:v>
       </x:c>
-      <x:c r="F45" s="53" t="n">
+      <x:c r="F45" s="53">
         <x:v>787.8</x:v>
       </x:c>
-      <x:c r="G45" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H45" s="53" t="n">
+      <x:c r="G45" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H45" s="53">
         <x:v>787.8</x:v>
       </x:c>
     </x:row>
@@ -5297,13 +5297,13 @@
       <x:c r="E46" s="52">
         <x:v>32460</x:v>
       </x:c>
-      <x:c r="F46" s="53" t="n">
+      <x:c r="F46" s="53">
         <x:v>766.8</x:v>
       </x:c>
-      <x:c r="G46" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H46" s="53" t="n">
+      <x:c r="G46" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H46" s="53">
         <x:v>766.8</x:v>
       </x:c>
     </x:row>
@@ -5320,13 +5320,13 @@
       <x:c r="E47" s="52">
         <x:v>32475</x:v>
       </x:c>
-      <x:c r="F47" s="53" t="n">
+      <x:c r="F47" s="53">
         <x:v>15365</x:v>
       </x:c>
-      <x:c r="G47" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H47" s="53" t="n">
+      <x:c r="G47" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H47" s="53">
         <x:v>15365</x:v>
       </x:c>
     </x:row>
@@ -5343,13 +5343,13 @@
       <x:c r="E48" s="52">
         <x:v>32480</x:v>
       </x:c>
-      <x:c r="F48" s="53" t="n">
+      <x:c r="F48" s="53">
         <x:v>7346</x:v>
       </x:c>
-      <x:c r="G48" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H48" s="53" t="n">
+      <x:c r="G48" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H48" s="53">
         <x:v>7346</x:v>
       </x:c>
     </x:row>
@@ -5366,13 +5366,13 @@
       <x:c r="E49" s="52">
         <x:v>32491</x:v>
       </x:c>
-      <x:c r="F49" s="53" t="n">
+      <x:c r="F49" s="53">
         <x:v>1809.85</x:v>
       </x:c>
-      <x:c r="G49" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H49" s="53" t="n">
+      <x:c r="G49" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H49" s="53">
         <x:v>1809.85</x:v>
       </x:c>
     </x:row>
@@ -5389,13 +5389,13 @@
       <x:c r="E50" s="52">
         <x:v>32502</x:v>
       </x:c>
-      <x:c r="F50" s="53" t="n">
+      <x:c r="F50" s="53">
         <x:v>6287.85</x:v>
       </x:c>
-      <x:c r="G50" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H50" s="53" t="n">
+      <x:c r="G50" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H50" s="53">
         <x:v>6287.85</x:v>
       </x:c>
     </x:row>
@@ -5412,13 +5412,13 @@
       <x:c r="E51" s="52">
         <x:v>32513</x:v>
       </x:c>
-      <x:c r="F51" s="53" t="n">
+      <x:c r="F51" s="53">
         <x:v>325</x:v>
       </x:c>
-      <x:c r="G51" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H51" s="53" t="n">
+      <x:c r="G51" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H51" s="53">
         <x:v>325</x:v>
       </x:c>
     </x:row>
@@ -5435,13 +5435,13 @@
       <x:c r="E52" s="52">
         <x:v>32515</x:v>
       </x:c>
-      <x:c r="F52" s="53" t="n">
+      <x:c r="F52" s="53">
         <x:v>16788</x:v>
       </x:c>
-      <x:c r="G52" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H52" s="53" t="n">
+      <x:c r="G52" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H52" s="53">
         <x:v>16788</x:v>
       </x:c>
     </x:row>
@@ -5458,13 +5458,13 @@
       <x:c r="E53" s="52">
         <x:v>32524</x:v>
       </x:c>
-      <x:c r="F53" s="53" t="n">
+      <x:c r="F53" s="53">
         <x:v>24650</x:v>
       </x:c>
-      <x:c r="G53" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H53" s="53" t="n">
+      <x:c r="G53" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H53" s="53">
         <x:v>24650</x:v>
       </x:c>
     </x:row>
@@ -5481,13 +5481,13 @@
       <x:c r="E54" s="52">
         <x:v>32540</x:v>
       </x:c>
-      <x:c r="F54" s="53" t="n">
+      <x:c r="F54" s="53">
         <x:v>14188</x:v>
       </x:c>
-      <x:c r="G54" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H54" s="53" t="n">
+      <x:c r="G54" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H54" s="53">
         <x:v>14188</x:v>
       </x:c>
     </x:row>
@@ -5504,13 +5504,13 @@
       <x:c r="E55" s="52">
         <x:v>32544</x:v>
       </x:c>
-      <x:c r="F55" s="53" t="n">
+      <x:c r="F55" s="53">
         <x:v>23406</x:v>
       </x:c>
-      <x:c r="G55" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H55" s="53" t="n">
+      <x:c r="G55" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H55" s="53">
         <x:v>23406</x:v>
       </x:c>
     </x:row>
@@ -5527,13 +5527,13 @@
       <x:c r="E56" s="52">
         <x:v>32548</x:v>
       </x:c>
-      <x:c r="F56" s="53" t="n">
+      <x:c r="F56" s="53">
         <x:v>19293.7</x:v>
       </x:c>
-      <x:c r="G56" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H56" s="53" t="n">
+      <x:c r="G56" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H56" s="53">
         <x:v>19293.7</x:v>
       </x:c>
     </x:row>
@@ -5550,13 +5550,13 @@
       <x:c r="E57" s="52">
         <x:v>32558</x:v>
       </x:c>
-      <x:c r="F57" s="53" t="n">
+      <x:c r="F57" s="53">
         <x:v>1975</x:v>
       </x:c>
-      <x:c r="G57" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H57" s="53" t="n">
+      <x:c r="G57" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H57" s="53">
         <x:v>1975</x:v>
       </x:c>
     </x:row>
@@ -5573,13 +5573,13 @@
       <x:c r="E58" s="52">
         <x:v>32561</x:v>
       </x:c>
-      <x:c r="F58" s="53" t="n">
+      <x:c r="F58" s="53">
         <x:v>12736</x:v>
       </x:c>
-      <x:c r="G58" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H58" s="53" t="n">
+      <x:c r="G58" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H58" s="53">
         <x:v>12736</x:v>
       </x:c>
     </x:row>
@@ -5596,13 +5596,13 @@
       <x:c r="E59" s="52">
         <x:v>32564</x:v>
       </x:c>
-      <x:c r="F59" s="53" t="n">
+      <x:c r="F59" s="53">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="G59" s="54" t="n">
+      <x:c r="G59" s="54">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="H59" s="53" t="n">
+      <x:c r="H59" s="53">
         <x:v>2150</x:v>
       </x:c>
     </x:row>
@@ -5619,13 +5619,13 @@
       <x:c r="E60" s="52">
         <x:v>32568</x:v>
       </x:c>
-      <x:c r="F60" s="53" t="n">
+      <x:c r="F60" s="53">
         <x:v>15355</x:v>
       </x:c>
-      <x:c r="G60" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H60" s="53" t="n">
+      <x:c r="G60" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H60" s="53">
         <x:v>15355</x:v>
       </x:c>
     </x:row>
@@ -5642,13 +5642,13 @@
       <x:c r="E61" s="52">
         <x:v>32571</x:v>
       </x:c>
-      <x:c r="F61" s="53" t="n">
+      <x:c r="F61" s="53">
         <x:v>24277.3</x:v>
       </x:c>
-      <x:c r="G61" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H61" s="53" t="n">
+      <x:c r="G61" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H61" s="53">
         <x:v>24277.3</x:v>
       </x:c>
     </x:row>
@@ -5665,13 +5665,13 @@
       <x:c r="E62" s="52">
         <x:v>32576</x:v>
       </x:c>
-      <x:c r="F62" s="53" t="n">
+      <x:c r="F62" s="53">
         <x:v>18320</x:v>
       </x:c>
-      <x:c r="G62" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H62" s="53" t="n">
+      <x:c r="G62" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H62" s="53">
         <x:v>18320</x:v>
       </x:c>
     </x:row>
@@ -5688,13 +5688,13 @@
       <x:c r="E63" s="52">
         <x:v>32581</x:v>
       </x:c>
-      <x:c r="F63" s="53" t="n">
+      <x:c r="F63" s="53">
         <x:v>61869.3</x:v>
       </x:c>
-      <x:c r="G63" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H63" s="53" t="n">
+      <x:c r="G63" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H63" s="53">
         <x:v>61869.3</x:v>
       </x:c>
     </x:row>
@@ -5711,13 +5711,13 @@
       <x:c r="E64" s="52">
         <x:v>32592</x:v>
       </x:c>
-      <x:c r="F64" s="53" t="n">
+      <x:c r="F64" s="53">
         <x:v>395</x:v>
       </x:c>
-      <x:c r="G64" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H64" s="53" t="n">
+      <x:c r="G64" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H64" s="53">
         <x:v>395</x:v>
       </x:c>
     </x:row>
@@ -5734,13 +5734,13 @@
       <x:c r="E65" s="52">
         <x:v>32593</x:v>
       </x:c>
-      <x:c r="F65" s="53" t="n">
+      <x:c r="F65" s="53">
         <x:v>17814</x:v>
       </x:c>
-      <x:c r="G65" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H65" s="53" t="n">
+      <x:c r="G65" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H65" s="53">
         <x:v>17814</x:v>
       </x:c>
     </x:row>
@@ -5757,13 +5757,13 @@
       <x:c r="E66" s="52">
         <x:v>32594</x:v>
       </x:c>
-      <x:c r="F66" s="53" t="n">
+      <x:c r="F66" s="53">
         <x:v>19812</x:v>
       </x:c>
-      <x:c r="G66" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H66" s="53" t="n">
+      <x:c r="G66" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H66" s="53">
         <x:v>19812</x:v>
       </x:c>
     </x:row>
@@ -5780,13 +5780,13 @@
       <x:c r="E67" s="52">
         <x:v>32600</x:v>
       </x:c>
-      <x:c r="F67" s="53" t="n">
+      <x:c r="F67" s="53">
         <x:v>4495</x:v>
       </x:c>
-      <x:c r="G67" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H67" s="53" t="n">
+      <x:c r="G67" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H67" s="53">
         <x:v>4495</x:v>
       </x:c>
     </x:row>
@@ -5803,13 +5803,13 @@
       <x:c r="E68" s="52">
         <x:v>32602</x:v>
       </x:c>
-      <x:c r="F68" s="53" t="n">
+      <x:c r="F68" s="53">
         <x:v>31847</x:v>
       </x:c>
-      <x:c r="G68" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H68" s="53" t="n">
+      <x:c r="G68" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H68" s="53">
         <x:v>31847</x:v>
       </x:c>
     </x:row>
@@ -5826,13 +5826,13 @@
       <x:c r="E69" s="52">
         <x:v>32604</x:v>
       </x:c>
-      <x:c r="F69" s="53" t="n">
+      <x:c r="F69" s="53">
         <x:v>33829.45</x:v>
       </x:c>
-      <x:c r="G69" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H69" s="53" t="n">
+      <x:c r="G69" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H69" s="53">
         <x:v>33829.45</x:v>
       </x:c>
     </x:row>
@@ -5849,13 +5849,13 @@
       <x:c r="E70" s="52">
         <x:v>32606</x:v>
       </x:c>
-      <x:c r="F70" s="53" t="n">
+      <x:c r="F70" s="53">
         <x:v>22354</x:v>
       </x:c>
-      <x:c r="G70" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H70" s="53" t="n">
+      <x:c r="G70" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H70" s="53">
         <x:v>22354</x:v>
       </x:c>
     </x:row>
@@ -5872,13 +5872,13 @@
       <x:c r="E71" s="52">
         <x:v>32608</x:v>
       </x:c>
-      <x:c r="F71" s="53" t="n">
+      <x:c r="F71" s="53">
         <x:v>103041</x:v>
       </x:c>
-      <x:c r="G71" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H71" s="53" t="n">
+      <x:c r="G71" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H71" s="53">
         <x:v>103041</x:v>
       </x:c>
     </x:row>
@@ -5895,13 +5895,13 @@
       <x:c r="E72" s="52">
         <x:v>32610</x:v>
       </x:c>
-      <x:c r="F72" s="53" t="n">
+      <x:c r="F72" s="53">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="G72" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H72" s="53" t="n">
+      <x:c r="G72" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H72" s="53">
         <x:v>3596</x:v>
       </x:c>
     </x:row>
@@ -5918,13 +5918,13 @@
       <x:c r="E73" s="52">
         <x:v>32614</x:v>
       </x:c>
-      <x:c r="F73" s="53" t="n">
+      <x:c r="F73" s="53">
         <x:v>19414</x:v>
       </x:c>
-      <x:c r="G73" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H73" s="53" t="n">
+      <x:c r="G73" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H73" s="53">
         <x:v>19414</x:v>
       </x:c>
     </x:row>
@@ -5941,13 +5941,13 @@
       <x:c r="E74" s="52">
         <x:v>32618</x:v>
       </x:c>
-      <x:c r="F74" s="53" t="n">
+      <x:c r="F74" s="53">
         <x:v>2195</x:v>
       </x:c>
-      <x:c r="G74" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H74" s="53" t="n">
+      <x:c r="G74" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H74" s="53">
         <x:v>2195</x:v>
       </x:c>
     </x:row>
@@ -5964,13 +5964,13 @@
       <x:c r="E75" s="52">
         <x:v>32620</x:v>
       </x:c>
-      <x:c r="F75" s="53" t="n">
+      <x:c r="F75" s="53">
         <x:v>8560</x:v>
       </x:c>
-      <x:c r="G75" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H75" s="53" t="n">
+      <x:c r="G75" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H75" s="53">
         <x:v>8560</x:v>
       </x:c>
     </x:row>
@@ -5987,13 +5987,13 @@
       <x:c r="E76" s="52">
         <x:v>32624</x:v>
       </x:c>
-      <x:c r="F76" s="53" t="n">
+      <x:c r="F76" s="53">
         <x:v>17781</x:v>
       </x:c>
-      <x:c r="G76" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H76" s="53" t="n">
+      <x:c r="G76" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H76" s="53">
         <x:v>17781</x:v>
       </x:c>
     </x:row>
@@ -6010,13 +6010,13 @@
       <x:c r="E77" s="52">
         <x:v>32629</x:v>
       </x:c>
-      <x:c r="F77" s="53" t="n">
+      <x:c r="F77" s="53">
         <x:v>156</x:v>
       </x:c>
-      <x:c r="G77" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H77" s="53" t="n">
+      <x:c r="G77" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H77" s="53">
         <x:v>156</x:v>
       </x:c>
     </x:row>
@@ -6033,13 +6033,13 @@
       <x:c r="E78" s="52">
         <x:v>32630</x:v>
       </x:c>
-      <x:c r="F78" s="53" t="n">
+      <x:c r="F78" s="53">
         <x:v>79116</x:v>
       </x:c>
-      <x:c r="G78" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H78" s="53" t="n">
+      <x:c r="G78" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H78" s="53">
         <x:v>79116</x:v>
       </x:c>
     </x:row>
@@ -6056,13 +6056,13 @@
       <x:c r="E79" s="52">
         <x:v>32632</x:v>
       </x:c>
-      <x:c r="F79" s="53" t="n">
+      <x:c r="F79" s="53">
         <x:v>4445</x:v>
       </x:c>
-      <x:c r="G79" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H79" s="53" t="n">
+      <x:c r="G79" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H79" s="53">
         <x:v>4445</x:v>
       </x:c>
     </x:row>
@@ -6079,13 +6079,13 @@
       <x:c r="E80" s="52">
         <x:v>32634</x:v>
       </x:c>
-      <x:c r="F80" s="53" t="n">
+      <x:c r="F80" s="53">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="G80" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H80" s="53" t="n">
+      <x:c r="G80" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H80" s="53">
         <x:v>9634</x:v>
       </x:c>
     </x:row>
@@ -6102,13 +6102,13 @@
       <x:c r="E81" s="52">
         <x:v>32636</x:v>
       </x:c>
-      <x:c r="F81" s="53" t="n">
+      <x:c r="F81" s="53">
         <x:v>30566</x:v>
       </x:c>
-      <x:c r="G81" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H81" s="53" t="n">
+      <x:c r="G81" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H81" s="53">
         <x:v>30566</x:v>
       </x:c>
     </x:row>
@@ -6125,13 +6125,13 @@
       <x:c r="E82" s="52">
         <x:v>32638</x:v>
       </x:c>
-      <x:c r="F82" s="53" t="n">
+      <x:c r="F82" s="53">
         <x:v>1416.45</x:v>
       </x:c>
-      <x:c r="G82" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H82" s="53" t="n">
+      <x:c r="G82" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H82" s="53">
         <x:v>1416.45</x:v>
       </x:c>
     </x:row>
@@ -6148,13 +6148,13 @@
       <x:c r="E83" s="52">
         <x:v>32638</x:v>
       </x:c>
-      <x:c r="F83" s="53" t="n">
+      <x:c r="F83" s="53">
         <x:v>11164.8</x:v>
       </x:c>
-      <x:c r="G83" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H83" s="53" t="n">
+      <x:c r="G83" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H83" s="53">
         <x:v>11164.8</x:v>
       </x:c>
     </x:row>
@@ -6171,13 +6171,13 @@
       <x:c r="E84" s="52">
         <x:v>32640</x:v>
       </x:c>
-      <x:c r="F84" s="53" t="n">
+      <x:c r="F84" s="53">
         <x:v>1185</x:v>
       </x:c>
-      <x:c r="G84" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H84" s="53" t="n">
+      <x:c r="G84" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H84" s="53">
         <x:v>1185</x:v>
       </x:c>
     </x:row>
@@ -6194,13 +6194,13 @@
       <x:c r="E85" s="52">
         <x:v>32647</x:v>
       </x:c>
-      <x:c r="F85" s="53" t="n">
+      <x:c r="F85" s="53">
         <x:v>14049.95</x:v>
       </x:c>
-      <x:c r="G85" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H85" s="53" t="n">
+      <x:c r="G85" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H85" s="53">
         <x:v>14049.95</x:v>
       </x:c>
     </x:row>
@@ -6217,13 +6217,13 @@
       <x:c r="E86" s="52">
         <x:v>32649</x:v>
       </x:c>
-      <x:c r="F86" s="53" t="n">
+      <x:c r="F86" s="53">
         <x:v>14045</x:v>
       </x:c>
-      <x:c r="G86" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H86" s="53" t="n">
+      <x:c r="G86" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H86" s="53">
         <x:v>14045</x:v>
       </x:c>
     </x:row>
@@ -6240,13 +6240,13 @@
       <x:c r="E87" s="52">
         <x:v>32651</x:v>
       </x:c>
-      <x:c r="F87" s="53" t="n">
+      <x:c r="F87" s="53">
         <x:v>2706</x:v>
       </x:c>
-      <x:c r="G87" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H87" s="53" t="n">
+      <x:c r="G87" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H87" s="53">
         <x:v>2706</x:v>
       </x:c>
     </x:row>
@@ -6263,13 +6263,13 @@
       <x:c r="E88" s="52">
         <x:v>32654</x:v>
       </x:c>
-      <x:c r="F88" s="53" t="n">
+      <x:c r="F88" s="53">
         <x:v>8507</x:v>
       </x:c>
-      <x:c r="G88" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H88" s="53" t="n">
+      <x:c r="G88" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H88" s="53">
         <x:v>8507</x:v>
       </x:c>
     </x:row>
@@ -6286,13 +6286,13 @@
       <x:c r="E89" s="52">
         <x:v>32660</x:v>
       </x:c>
-      <x:c r="F89" s="53" t="n">
+      <x:c r="F89" s="53">
         <x:v>1950</x:v>
       </x:c>
-      <x:c r="G89" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H89" s="53" t="n">
+      <x:c r="G89" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H89" s="53">
         <x:v>1950</x:v>
       </x:c>
     </x:row>
@@ -6309,13 +6309,13 @@
       <x:c r="E90" s="52">
         <x:v>32660</x:v>
       </x:c>
-      <x:c r="F90" s="53" t="n">
+      <x:c r="F90" s="53">
         <x:v>76698.75</x:v>
       </x:c>
-      <x:c r="G90" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H90" s="53" t="n">
+      <x:c r="G90" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H90" s="53">
         <x:v>76698.75</x:v>
       </x:c>
     </x:row>
@@ -6332,13 +6332,13 @@
       <x:c r="E91" s="52">
         <x:v>32661</x:v>
       </x:c>
-      <x:c r="F91" s="53" t="n">
+      <x:c r="F91" s="53">
         <x:v>479.8</x:v>
       </x:c>
-      <x:c r="G91" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H91" s="53" t="n">
+      <x:c r="G91" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H91" s="53">
         <x:v>479.8</x:v>
       </x:c>
     </x:row>
@@ -6355,13 +6355,13 @@
       <x:c r="E92" s="52">
         <x:v>32663</x:v>
       </x:c>
-      <x:c r="F92" s="53" t="n">
+      <x:c r="F92" s="53">
         <x:v>4113.75</x:v>
       </x:c>
-      <x:c r="G92" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H92" s="53" t="n">
+      <x:c r="G92" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H92" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6378,13 +6378,13 @@
       <x:c r="E93" s="52">
         <x:v>32665</x:v>
       </x:c>
-      <x:c r="F93" s="53" t="n">
+      <x:c r="F93" s="53">
         <x:v>7531.75</x:v>
       </x:c>
-      <x:c r="G93" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H93" s="53" t="n">
+      <x:c r="G93" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H93" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6401,13 +6401,13 @@
       <x:c r="E94" s="52">
         <x:v>32668</x:v>
       </x:c>
-      <x:c r="F94" s="53" t="n">
+      <x:c r="F94" s="53">
         <x:v>123740</x:v>
       </x:c>
-      <x:c r="G94" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H94" s="53" t="n">
+      <x:c r="G94" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H94" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6424,13 +6424,13 @@
       <x:c r="E95" s="52">
         <x:v>32671</x:v>
       </x:c>
-      <x:c r="F95" s="53" t="n">
+      <x:c r="F95" s="53">
         <x:v>12953.6</x:v>
       </x:c>
-      <x:c r="G95" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H95" s="53" t="n">
+      <x:c r="G95" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H95" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6447,13 +6447,13 @@
       <x:c r="E96" s="52">
         <x:v>32673</x:v>
       </x:c>
-      <x:c r="F96" s="53" t="n">
+      <x:c r="F96" s="53">
         <x:v>472.9</x:v>
       </x:c>
-      <x:c r="G96" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H96" s="53" t="n">
+      <x:c r="G96" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H96" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6470,13 +6470,13 @@
       <x:c r="E97" s="52">
         <x:v>32675</x:v>
       </x:c>
-      <x:c r="F97" s="53" t="n">
+      <x:c r="F97" s="53">
         <x:v>859.95</x:v>
       </x:c>
-      <x:c r="G97" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H97" s="53" t="n">
+      <x:c r="G97" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H97" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6493,13 +6493,13 @@
       <x:c r="E98" s="52">
         <x:v>32679</x:v>
       </x:c>
-      <x:c r="F98" s="53" t="n">
+      <x:c r="F98" s="53">
         <x:v>6094.8</x:v>
       </x:c>
-      <x:c r="G98" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H98" s="53" t="n">
+      <x:c r="G98" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H98" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6516,13 +6516,13 @@
       <x:c r="E99" s="52">
         <x:v>32693</x:v>
       </x:c>
-      <x:c r="F99" s="53" t="n">
+      <x:c r="F99" s="53">
         <x:v>11629.85</x:v>
       </x:c>
-      <x:c r="G99" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H99" s="53" t="n">
+      <x:c r="G99" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H99" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6539,13 +6539,13 @@
       <x:c r="E100" s="52">
         <x:v>33761</x:v>
       </x:c>
-      <x:c r="F100" s="53" t="n">
+      <x:c r="F100" s="53">
         <x:v>2844</x:v>
       </x:c>
-      <x:c r="G100" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H100" s="53" t="n">
+      <x:c r="G100" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H100" s="53">
         <x:v>2844</x:v>
       </x:c>
     </x:row>
@@ -6562,13 +6562,13 @@
       <x:c r="E101" s="52">
         <x:v>33798</x:v>
       </x:c>
-      <x:c r="F101" s="53" t="n">
+      <x:c r="F101" s="53">
         <x:v>39797.7</x:v>
       </x:c>
-      <x:c r="G101" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H101" s="53" t="n">
+      <x:c r="G101" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H101" s="53">
         <x:v>39797.7</x:v>
       </x:c>
     </x:row>
@@ -6585,13 +6585,13 @@
       <x:c r="E102" s="52">
         <x:v>33803</x:v>
       </x:c>
-      <x:c r="F102" s="53" t="n">
+      <x:c r="F102" s="53">
         <x:v>51673.15</x:v>
       </x:c>
-      <x:c r="G102" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H102" s="53" t="n">
+      <x:c r="G102" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H102" s="53">
         <x:v>51673.15</x:v>
       </x:c>
     </x:row>
@@ -6608,13 +6608,13 @@
       <x:c r="E103" s="52">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="F103" s="53" t="n">
+      <x:c r="F103" s="53">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="G103" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H103" s="53" t="n">
+      <x:c r="G103" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H103" s="53">
         <x:v>31219.95</x:v>
       </x:c>
     </x:row>
@@ -6631,13 +6631,13 @@
       <x:c r="E104" s="52">
         <x:v>33870</x:v>
       </x:c>
-      <x:c r="F104" s="53" t="n">
+      <x:c r="F104" s="53">
         <x:v>3531.8</x:v>
       </x:c>
-      <x:c r="G104" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H104" s="53" t="n">
+      <x:c r="G104" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H104" s="53">
         <x:v>3531.8</x:v>
       </x:c>
     </x:row>
@@ -6654,13 +6654,13 @@
       <x:c r="E105" s="52">
         <x:v>33901</x:v>
       </x:c>
-      <x:c r="F105" s="53" t="n">
+      <x:c r="F105" s="53">
         <x:v>28389</x:v>
       </x:c>
-      <x:c r="G105" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H105" s="53" t="n">
+      <x:c r="G105" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H105" s="53">
         <x:v>28389</x:v>
       </x:c>
     </x:row>
@@ -6677,13 +6677,13 @@
       <x:c r="E106" s="52">
         <x:v>33921</x:v>
       </x:c>
-      <x:c r="F106" s="53" t="n">
+      <x:c r="F106" s="53">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="G106" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H106" s="53" t="n">
+      <x:c r="G106" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H106" s="53">
         <x:v>203</x:v>
       </x:c>
     </x:row>
@@ -6700,13 +6700,13 @@
       <x:c r="E107" s="52">
         <x:v>33952</x:v>
       </x:c>
-      <x:c r="F107" s="53" t="n">
+      <x:c r="F107" s="53">
         <x:v>4720.8</x:v>
       </x:c>
-      <x:c r="G107" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H107" s="53" t="n">
+      <x:c r="G107" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H107" s="53">
         <x:v>4720.8</x:v>
       </x:c>
     </x:row>
@@ -6723,13 +6723,13 @@
       <x:c r="E108" s="52">
         <x:v>33971</x:v>
       </x:c>
-      <x:c r="F108" s="53" t="n">
+      <x:c r="F108" s="53">
         <x:v>5565</x:v>
       </x:c>
-      <x:c r="G108" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H108" s="53" t="n">
+      <x:c r="G108" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H108" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6746,13 +6746,13 @@
       <x:c r="E109" s="52">
         <x:v>34012</x:v>
       </x:c>
-      <x:c r="F109" s="53" t="n">
+      <x:c r="F109" s="53">
         <x:v>2514.65</x:v>
       </x:c>
-      <x:c r="G109" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H109" s="53" t="n">
+      <x:c r="G109" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H109" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6769,13 +6769,13 @@
       <x:c r="E110" s="52">
         <x:v>34041</x:v>
       </x:c>
-      <x:c r="F110" s="53" t="n">
+      <x:c r="F110" s="53">
         <x:v>4894.95</x:v>
       </x:c>
-      <x:c r="G110" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H110" s="53" t="n">
+      <x:c r="G110" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H110" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6792,13 +6792,13 @@
       <x:c r="E111" s="52">
         <x:v>34049</x:v>
       </x:c>
-      <x:c r="F111" s="53" t="n">
+      <x:c r="F111" s="53">
         <x:v>23104</x:v>
       </x:c>
-      <x:c r="G111" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H111" s="53" t="n">
+      <x:c r="G111" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H111" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6815,13 +6815,13 @@
       <x:c r="E112" s="52">
         <x:v>34072</x:v>
       </x:c>
-      <x:c r="F112" s="53" t="n">
+      <x:c r="F112" s="53">
         <x:v>6734.85</x:v>
       </x:c>
-      <x:c r="G112" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H112" s="53" t="n">
+      <x:c r="G112" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H112" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>
@@ -6838,13 +6838,13 @@
       <x:c r="E113" s="52">
         <x:v>34082</x:v>
       </x:c>
-      <x:c r="F113" s="53" t="n">
+      <x:c r="F113" s="53">
         <x:v>21614</x:v>
       </x:c>
-      <x:c r="G113" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H113" s="53" t="n">
+      <x:c r="G113" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H113" s="53">
         <x:v>21614</x:v>
       </x:c>
     </x:row>
@@ -6861,13 +6861,13 @@
       <x:c r="E114" s="52">
         <x:v>34104</x:v>
       </x:c>
-      <x:c r="F114" s="53" t="n">
+      <x:c r="F114" s="53">
         <x:v>14557.95</x:v>
       </x:c>
-      <x:c r="G114" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H114" s="53" t="n">
+      <x:c r="G114" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H114" s="53">
         <x:v>14557.95</x:v>
       </x:c>
     </x:row>
@@ -6884,13 +6884,13 @@
       <x:c r="E115" s="52">
         <x:v>34114</x:v>
       </x:c>
-      <x:c r="F115" s="53" t="n">
+      <x:c r="F115" s="53">
         <x:v>784.9</x:v>
       </x:c>
-      <x:c r="G115" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H115" s="53" t="n">
+      <x:c r="G115" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H115" s="53">
         <x:v>784.9</x:v>
       </x:c>
     </x:row>
@@ -6907,13 +6907,13 @@
       <x:c r="E116" s="52">
         <x:v>34122</x:v>
       </x:c>
-      <x:c r="F116" s="53" t="n">
+      <x:c r="F116" s="53">
         <x:v>820</x:v>
       </x:c>
-      <x:c r="G116" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H116" s="53" t="n">
+      <x:c r="G116" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H116" s="53">
         <x:v>820</x:v>
       </x:c>
     </x:row>
@@ -6930,13 +6930,13 @@
       <x:c r="E117" s="52">
         <x:v>34173</x:v>
       </x:c>
-      <x:c r="F117" s="53" t="n">
+      <x:c r="F117" s="53">
         <x:v>44854</x:v>
       </x:c>
-      <x:c r="G117" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H117" s="53" t="n">
+      <x:c r="G117" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H117" s="53">
         <x:v>44854</x:v>
       </x:c>
     </x:row>
@@ -6953,13 +6953,13 @@
       <x:c r="E118" s="52">
         <x:v>34205</x:v>
       </x:c>
-      <x:c r="F118" s="53" t="n">
+      <x:c r="F118" s="53">
         <x:v>13945</x:v>
       </x:c>
-      <x:c r="G118" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H118" s="53" t="n">
+      <x:c r="G118" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H118" s="53">
         <x:v>13945</x:v>
       </x:c>
     </x:row>
@@ -6976,13 +6976,13 @@
       <x:c r="E119" s="52">
         <x:v>34213</x:v>
       </x:c>
-      <x:c r="F119" s="53" t="n">
+      <x:c r="F119" s="53">
         <x:v>33071</x:v>
       </x:c>
-      <x:c r="G119" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H119" s="53" t="n">
+      <x:c r="G119" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H119" s="53">
         <x:v>33071</x:v>
       </x:c>
     </x:row>
@@ -6999,13 +6999,13 @@
       <x:c r="E120" s="52">
         <x:v>34216</x:v>
       </x:c>
-      <x:c r="F120" s="53" t="n">
+      <x:c r="F120" s="53">
         <x:v>6583.8</x:v>
       </x:c>
-      <x:c r="G120" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H120" s="53" t="n">
+      <x:c r="G120" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H120" s="53">
         <x:v>6583.8</x:v>
       </x:c>
     </x:row>
@@ -7022,13 +7022,13 @@
       <x:c r="E121" s="52">
         <x:v>34243</x:v>
       </x:c>
-      <x:c r="F121" s="53" t="n">
+      <x:c r="F121" s="53">
         <x:v>10107</x:v>
       </x:c>
-      <x:c r="G121" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H121" s="53" t="n">
+      <x:c r="G121" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H121" s="53">
         <x:v>10107</x:v>
       </x:c>
     </x:row>
@@ -7045,13 +7045,13 @@
       <x:c r="E122" s="52">
         <x:v>34244</x:v>
       </x:c>
-      <x:c r="F122" s="53" t="n">
+      <x:c r="F122" s="53">
         <x:v>25071</x:v>
       </x:c>
-      <x:c r="G122" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H122" s="53" t="n">
+      <x:c r="G122" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H122" s="53">
         <x:v>25071</x:v>
       </x:c>
     </x:row>
@@ -7068,13 +7068,13 @@
       <x:c r="E123" s="52">
         <x:v>34250</x:v>
       </x:c>
-      <x:c r="F123" s="53" t="n">
+      <x:c r="F123" s="53">
         <x:v>8294</x:v>
       </x:c>
-      <x:c r="G123" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H123" s="53" t="n">
+      <x:c r="G123" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H123" s="53">
         <x:v>8294</x:v>
       </x:c>
     </x:row>
@@ -7091,13 +7091,13 @@
       <x:c r="E124" s="52">
         <x:v>34261</x:v>
       </x:c>
-      <x:c r="F124" s="53" t="n">
+      <x:c r="F124" s="53">
         <x:v>1004.8</x:v>
       </x:c>
-      <x:c r="G124" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H124" s="53" t="n">
+      <x:c r="G124" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H124" s="53">
         <x:v>1004.8</x:v>
       </x:c>
     </x:row>
@@ -7114,13 +7114,13 @@
       <x:c r="E125" s="52">
         <x:v>34268</x:v>
       </x:c>
-      <x:c r="F125" s="53" t="n">
+      <x:c r="F125" s="53">
         <x:v>6300</x:v>
       </x:c>
-      <x:c r="G125" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H125" s="53" t="n">
+      <x:c r="G125" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H125" s="53">
         <x:v>6300</x:v>
       </x:c>
     </x:row>
@@ -7137,13 +7137,13 @@
       <x:c r="E126" s="52">
         <x:v>34274</x:v>
       </x:c>
-      <x:c r="F126" s="53" t="n">
+      <x:c r="F126" s="53">
         <x:v>11989.2</x:v>
       </x:c>
-      <x:c r="G126" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H126" s="53" t="n">
+      <x:c r="G126" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H126" s="53">
         <x:v>11989.2</x:v>
       </x:c>
     </x:row>
@@ -7160,13 +7160,13 @@
       <x:c r="E127" s="52">
         <x:v>34274</x:v>
       </x:c>
-      <x:c r="F127" s="53" t="n">
+      <x:c r="F127" s="53">
         <x:v>906</x:v>
       </x:c>
-      <x:c r="G127" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H127" s="53" t="n">
+      <x:c r="G127" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H127" s="53">
         <x:v>906</x:v>
       </x:c>
     </x:row>
@@ -7183,13 +7183,13 @@
       <x:c r="E128" s="52">
         <x:v>34275</x:v>
       </x:c>
-      <x:c r="F128" s="53" t="n">
+      <x:c r="F128" s="53">
         <x:v>2419</x:v>
       </x:c>
-      <x:c r="G128" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H128" s="53" t="n">
+      <x:c r="G128" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H128" s="53">
         <x:v>2419</x:v>
       </x:c>
     </x:row>
@@ -7206,13 +7206,13 @@
       <x:c r="E129" s="52">
         <x:v>34287</x:v>
       </x:c>
-      <x:c r="F129" s="53" t="n">
+      <x:c r="F129" s="53">
         <x:v>6675.95</x:v>
       </x:c>
-      <x:c r="G129" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H129" s="53" t="n">
+      <x:c r="G129" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H129" s="53">
         <x:v>6675.95</x:v>
       </x:c>
     </x:row>
@@ -7229,13 +7229,13 @@
       <x:c r="E130" s="52">
         <x:v>34300</x:v>
       </x:c>
-      <x:c r="F130" s="53" t="n">
+      <x:c r="F130" s="53">
         <x:v>2971</x:v>
       </x:c>
-      <x:c r="G130" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H130" s="53" t="n">
+      <x:c r="G130" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H130" s="53">
         <x:v>2971</x:v>
       </x:c>
     </x:row>
@@ -7252,13 +7252,13 @@
       <x:c r="E131" s="52">
         <x:v>34300</x:v>
       </x:c>
-      <x:c r="F131" s="53" t="n">
+      <x:c r="F131" s="53">
         <x:v>6785.4</x:v>
       </x:c>
-      <x:c r="G131" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H131" s="53" t="n">
+      <x:c r="G131" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H131" s="53">
         <x:v>6785.4</x:v>
       </x:c>
     </x:row>
@@ -7275,13 +7275,13 @@
       <x:c r="E132" s="52">
         <x:v>34304</x:v>
       </x:c>
-      <x:c r="F132" s="53" t="n">
+      <x:c r="F132" s="53">
         <x:v>47710.75</x:v>
       </x:c>
-      <x:c r="G132" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H132" s="53" t="n">
+      <x:c r="G132" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H132" s="53">
         <x:v>47710.75</x:v>
       </x:c>
     </x:row>
@@ -7298,13 +7298,13 @@
       <x:c r="E133" s="52">
         <x:v>34315</x:v>
       </x:c>
-      <x:c r="F133" s="53" t="n">
+      <x:c r="F133" s="53">
         <x:v>1240</x:v>
       </x:c>
-      <x:c r="G133" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H133" s="53" t="n">
+      <x:c r="G133" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H133" s="53">
         <x:v>1240</x:v>
       </x:c>
     </x:row>
@@ -7321,13 +7321,13 @@
       <x:c r="E134" s="52">
         <x:v>34320</x:v>
       </x:c>
-      <x:c r="F134" s="53" t="n">
+      <x:c r="F134" s="53">
         <x:v>1846</x:v>
       </x:c>
-      <x:c r="G134" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H134" s="53" t="n">
+      <x:c r="G134" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H134" s="53">
         <x:v>1846</x:v>
       </x:c>
     </x:row>
@@ -7344,13 +7344,13 @@
       <x:c r="E135" s="52">
         <x:v>34328</x:v>
       </x:c>
-      <x:c r="F135" s="53" t="n">
+      <x:c r="F135" s="53">
         <x:v>3546</x:v>
       </x:c>
-      <x:c r="G135" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H135" s="53" t="n">
+      <x:c r="G135" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H135" s="53">
         <x:v>3546</x:v>
       </x:c>
     </x:row>
@@ -7367,13 +7367,13 @@
       <x:c r="E136" s="52">
         <x:v>34335</x:v>
       </x:c>
-      <x:c r="F136" s="53" t="n">
+      <x:c r="F136" s="53">
         <x:v>3087</x:v>
       </x:c>
-      <x:c r="G136" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H136" s="53" t="n">
+      <x:c r="G136" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H136" s="53">
         <x:v>3087</x:v>
       </x:c>
     </x:row>
@@ -7390,13 +7390,13 @@
       <x:c r="E137" s="52">
         <x:v>34343</x:v>
       </x:c>
-      <x:c r="F137" s="53" t="n">
+      <x:c r="F137" s="53">
         <x:v>10054</x:v>
       </x:c>
-      <x:c r="G137" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H137" s="53" t="n">
+      <x:c r="G137" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H137" s="53">
         <x:v>10054</x:v>
       </x:c>
     </x:row>
@@ -7413,13 +7413,13 @@
       <x:c r="E138" s="52">
         <x:v>34351</x:v>
       </x:c>
-      <x:c r="F138" s="53" t="n">
+      <x:c r="F138" s="53">
         <x:v>4229.8</x:v>
       </x:c>
-      <x:c r="G138" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H138" s="53" t="n">
+      <x:c r="G138" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H138" s="53">
         <x:v>4229.8</x:v>
       </x:c>
     </x:row>
@@ -7436,13 +7436,13 @@
       <x:c r="E139" s="52">
         <x:v>34378</x:v>
       </x:c>
-      <x:c r="F139" s="53" t="n">
+      <x:c r="F139" s="53">
         <x:v>15052</x:v>
       </x:c>
-      <x:c r="G139" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H139" s="53" t="n">
+      <x:c r="G139" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H139" s="53">
         <x:v>15052</x:v>
       </x:c>
     </x:row>
@@ -7459,13 +7459,13 @@
       <x:c r="E140" s="52">
         <x:v>34396</x:v>
       </x:c>
-      <x:c r="F140" s="53" t="n">
+      <x:c r="F140" s="53">
         <x:v>5011</x:v>
       </x:c>
-      <x:c r="G140" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H140" s="53" t="n">
+      <x:c r="G140" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H140" s="53">
         <x:v>5011</x:v>
       </x:c>
     </x:row>
@@ -7482,13 +7482,13 @@
       <x:c r="E141" s="52">
         <x:v>34407</x:v>
       </x:c>
-      <x:c r="F141" s="53" t="n">
+      <x:c r="F141" s="53">
         <x:v>12900.75</x:v>
       </x:c>
-      <x:c r="G141" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H141" s="53" t="n">
+      <x:c r="G141" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H141" s="53">
         <x:v>12900.75</x:v>
       </x:c>
     </x:row>
@@ -7505,13 +7505,13 @@
       <x:c r="E142" s="52">
         <x:v>34418</x:v>
       </x:c>
-      <x:c r="F142" s="53" t="n">
+      <x:c r="F142" s="53">
         <x:v>7671.9</x:v>
       </x:c>
-      <x:c r="G142" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H142" s="53" t="n">
+      <x:c r="G142" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H142" s="53">
         <x:v>7671.9</x:v>
       </x:c>
     </x:row>
@@ -7528,13 +7528,13 @@
       <x:c r="E143" s="52">
         <x:v>34431</x:v>
       </x:c>
-      <x:c r="F143" s="53" t="n">
+      <x:c r="F143" s="53">
         <x:v>97698.6</x:v>
       </x:c>
-      <x:c r="G143" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H143" s="53" t="n">
+      <x:c r="G143" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H143" s="53">
         <x:v>97698.6</x:v>
       </x:c>
     </x:row>
@@ -7551,13 +7551,13 @@
       <x:c r="E144" s="52">
         <x:v>34440</x:v>
       </x:c>
-      <x:c r="F144" s="53" t="n">
+      <x:c r="F144" s="53">
         <x:v>3860.85</x:v>
       </x:c>
-      <x:c r="G144" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H144" s="53" t="n">
+      <x:c r="G144" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H144" s="53">
         <x:v>3860.85</x:v>
       </x:c>
     </x:row>
@@ -7574,13 +7574,13 @@
       <x:c r="E145" s="52">
         <x:v>34455</x:v>
       </x:c>
-      <x:c r="F145" s="53" t="n">
+      <x:c r="F145" s="53">
         <x:v>13226.8</x:v>
       </x:c>
-      <x:c r="G145" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H145" s="53" t="n">
+      <x:c r="G145" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H145" s="53">
         <x:v>13226.8</x:v>
       </x:c>
     </x:row>
@@ -7597,13 +7597,13 @@
       <x:c r="E146" s="52">
         <x:v>34459</x:v>
       </x:c>
-      <x:c r="F146" s="53" t="n">
+      <x:c r="F146" s="53">
         <x:v>13935.95</x:v>
       </x:c>
-      <x:c r="G146" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H146" s="53" t="n">
+      <x:c r="G146" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H146" s="53">
         <x:v>13935.95</x:v>
       </x:c>
     </x:row>
@@ -7620,13 +7620,13 @@
       <x:c r="E147" s="52">
         <x:v>34463</x:v>
       </x:c>
-      <x:c r="F147" s="53" t="n">
+      <x:c r="F147" s="53">
         <x:v>12367</x:v>
       </x:c>
-      <x:c r="G147" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H147" s="53" t="n">
+      <x:c r="G147" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H147" s="53">
         <x:v>12367</x:v>
       </x:c>
     </x:row>
@@ -7643,13 +7643,13 @@
       <x:c r="E148" s="52">
         <x:v>34476</x:v>
       </x:c>
-      <x:c r="F148" s="53" t="n">
+      <x:c r="F148" s="53">
         <x:v>9793.55</x:v>
       </x:c>
-      <x:c r="G148" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H148" s="53" t="n">
+      <x:c r="G148" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H148" s="53">
         <x:v>9793.55</x:v>
       </x:c>
     </x:row>
@@ -7666,13 +7666,13 @@
       <x:c r="E149" s="52">
         <x:v>34486</x:v>
       </x:c>
-      <x:c r="F149" s="53" t="n">
+      <x:c r="F149" s="53">
         <x:v>2206.85</x:v>
       </x:c>
-      <x:c r="G149" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H149" s="53" t="n">
+      <x:c r="G149" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H149" s="53">
         <x:v>2206.85</x:v>
       </x:c>
     </x:row>
@@ -7689,13 +7689,13 @@
       <x:c r="E150" s="52">
         <x:v>34489</x:v>
       </x:c>
-      <x:c r="F150" s="53" t="n">
+      <x:c r="F150" s="53">
         <x:v>102453.6</x:v>
       </x:c>
-      <x:c r="G150" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H150" s="53" t="n">
+      <x:c r="G150" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H150" s="53">
         <x:v>102453.6</x:v>
       </x:c>
     </x:row>
@@ -7712,13 +7712,13 @@
       <x:c r="E151" s="52">
         <x:v>34494</x:v>
       </x:c>
-      <x:c r="F151" s="53" t="n">
+      <x:c r="F151" s="53">
         <x:v>3153</x:v>
       </x:c>
-      <x:c r="G151" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H151" s="53" t="n">
+      <x:c r="G151" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H151" s="53">
         <x:v>3153</x:v>
       </x:c>
     </x:row>
@@ -7735,13 +7735,13 @@
       <x:c r="E152" s="52">
         <x:v>34499</x:v>
       </x:c>
-      <x:c r="F152" s="53" t="n">
+      <x:c r="F152" s="53">
         <x:v>342</x:v>
       </x:c>
-      <x:c r="G152" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H152" s="53" t="n">
+      <x:c r="G152" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H152" s="53">
         <x:v>342</x:v>
       </x:c>
     </x:row>
@@ -7758,13 +7758,13 @@
       <x:c r="E153" s="52">
         <x:v>34511</x:v>
       </x:c>
-      <x:c r="F153" s="53" t="n">
+      <x:c r="F153" s="53">
         <x:v>2692.85</x:v>
       </x:c>
-      <x:c r="G153" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H153" s="53" t="n">
+      <x:c r="G153" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H153" s="53">
         <x:v>2692.85</x:v>
       </x:c>
     </x:row>
@@ -7781,13 +7781,13 @@
       <x:c r="E154" s="52">
         <x:v>34516</x:v>
       </x:c>
-      <x:c r="F154" s="53" t="n">
+      <x:c r="F154" s="53">
         <x:v>28862</x:v>
       </x:c>
-      <x:c r="G154" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H154" s="53" t="n">
+      <x:c r="G154" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H154" s="53">
         <x:v>28862</x:v>
       </x:c>
     </x:row>
@@ -7804,13 +7804,13 @@
       <x:c r="E155" s="52">
         <x:v>34519</x:v>
       </x:c>
-      <x:c r="F155" s="53" t="n">
+      <x:c r="F155" s="53">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="G155" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H155" s="53" t="n">
+      <x:c r="G155" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H155" s="53">
         <x:v>104</x:v>
       </x:c>
     </x:row>
@@ -7827,13 +7827,13 @@
       <x:c r="E156" s="52">
         <x:v>34521</x:v>
       </x:c>
-      <x:c r="F156" s="53" t="n">
+      <x:c r="F156" s="53">
         <x:v>9471.95</x:v>
       </x:c>
-      <x:c r="G156" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H156" s="53" t="n">
+      <x:c r="G156" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H156" s="53">
         <x:v>9471.95</x:v>
       </x:c>
     </x:row>
@@ -7850,13 +7850,13 @@
       <x:c r="E157" s="52">
         <x:v>34523</x:v>
       </x:c>
-      <x:c r="F157" s="53" t="n">
+      <x:c r="F157" s="53">
         <x:v>5654.8</x:v>
       </x:c>
-      <x:c r="G157" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H157" s="53" t="n">
+      <x:c r="G157" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H157" s="53">
         <x:v>5654.8</x:v>
       </x:c>
     </x:row>
@@ -7873,13 +7873,13 @@
       <x:c r="E158" s="52">
         <x:v>34525</x:v>
       </x:c>
-      <x:c r="F158" s="53" t="n">
+      <x:c r="F158" s="53">
         <x:v>2356.9</x:v>
       </x:c>
-      <x:c r="G158" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H158" s="53" t="n">
+      <x:c r="G158" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H158" s="53">
         <x:v>2356.9</x:v>
       </x:c>
     </x:row>
@@ -7896,13 +7896,13 @@
       <x:c r="E159" s="52">
         <x:v>34531</x:v>
       </x:c>
-      <x:c r="F159" s="53" t="n">
+      <x:c r="F159" s="53">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G159" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H159" s="53" t="n">
+      <x:c r="G159" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H159" s="53">
         <x:v>54</x:v>
       </x:c>
     </x:row>
@@ -7919,13 +7919,13 @@
       <x:c r="E160" s="52">
         <x:v>34537</x:v>
       </x:c>
-      <x:c r="F160" s="53" t="n">
+      <x:c r="F160" s="53">
         <x:v>13814.05</x:v>
       </x:c>
-      <x:c r="G160" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H160" s="53" t="n">
+      <x:c r="G160" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H160" s="53">
         <x:v>13814.05</x:v>
       </x:c>
     </x:row>
@@ -7942,13 +7942,13 @@
       <x:c r="E161" s="52">
         <x:v>34541</x:v>
       </x:c>
-      <x:c r="F161" s="53" t="n">
+      <x:c r="F161" s="53">
         <x:v>4178.85</x:v>
       </x:c>
-      <x:c r="G161" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H161" s="53" t="n">
+      <x:c r="G161" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H161" s="53">
         <x:v>4178.85</x:v>
       </x:c>
     </x:row>
@@ -7965,13 +7965,13 @@
       <x:c r="E162" s="52">
         <x:v>34548</x:v>
       </x:c>
-      <x:c r="F162" s="53" t="n">
+      <x:c r="F162" s="53">
         <x:v>5511.75</x:v>
       </x:c>
-      <x:c r="G162" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H162" s="53" t="n">
+      <x:c r="G162" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H162" s="53">
         <x:v>5511.75</x:v>
       </x:c>
     </x:row>
@@ -7988,13 +7988,13 @@
       <x:c r="E163" s="52">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="F163" s="53" t="n">
+      <x:c r="F163" s="53">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="G163" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H163" s="53" t="n">
+      <x:c r="G163" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H163" s="53">
         <x:v>3640</x:v>
       </x:c>
     </x:row>
@@ -8011,13 +8011,13 @@
       <x:c r="E164" s="52">
         <x:v>34556</x:v>
       </x:c>
-      <x:c r="F164" s="53" t="n">
+      <x:c r="F164" s="53">
         <x:v>3650</x:v>
       </x:c>
-      <x:c r="G164" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H164" s="53" t="n">
+      <x:c r="G164" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H164" s="53">
         <x:v>3650</x:v>
       </x:c>
     </x:row>
@@ -8034,13 +8034,13 @@
       <x:c r="E165" s="52">
         <x:v>34583</x:v>
       </x:c>
-      <x:c r="F165" s="53" t="n">
+      <x:c r="F165" s="53">
         <x:v>7868</x:v>
       </x:c>
-      <x:c r="G165" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H165" s="53" t="n">
+      <x:c r="G165" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H165" s="53">
         <x:v>7868</x:v>
       </x:c>
     </x:row>
@@ -8057,13 +8057,13 @@
       <x:c r="E166" s="52">
         <x:v>34585</x:v>
       </x:c>
-      <x:c r="F166" s="53" t="n">
+      <x:c r="F166" s="53">
         <x:v>5983</x:v>
       </x:c>
-      <x:c r="G166" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H166" s="53" t="n">
+      <x:c r="G166" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H166" s="53">
         <x:v>5983</x:v>
       </x:c>
     </x:row>
@@ -8080,13 +8080,13 @@
       <x:c r="E167" s="52">
         <x:v>34589</x:v>
       </x:c>
-      <x:c r="F167" s="53" t="n">
+      <x:c r="F167" s="53">
         <x:v>6731</x:v>
       </x:c>
-      <x:c r="G167" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H167" s="53" t="n">
+      <x:c r="G167" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H167" s="53">
         <x:v>6731</x:v>
       </x:c>
     </x:row>
@@ -8103,13 +8103,13 @@
       <x:c r="E168" s="52">
         <x:v>34591</x:v>
       </x:c>
-      <x:c r="F168" s="53" t="n">
+      <x:c r="F168" s="53">
         <x:v>72089.9</x:v>
       </x:c>
-      <x:c r="G168" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H168" s="53" t="n">
+      <x:c r="G168" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H168" s="53">
         <x:v>72089.9</x:v>
       </x:c>
     </x:row>
@@ -8126,13 +8126,13 @@
       <x:c r="E169" s="52">
         <x:v>34593</x:v>
       </x:c>
-      <x:c r="F169" s="53" t="n">
+      <x:c r="F169" s="53">
         <x:v>716</x:v>
       </x:c>
-      <x:c r="G169" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H169" s="53" t="n">
+      <x:c r="G169" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H169" s="53">
         <x:v>716</x:v>
       </x:c>
     </x:row>
@@ -8149,13 +8149,13 @@
       <x:c r="E170" s="52">
         <x:v>34597</x:v>
       </x:c>
-      <x:c r="F170" s="53" t="n">
+      <x:c r="F170" s="53">
         <x:v>1827</x:v>
       </x:c>
-      <x:c r="G170" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H170" s="53" t="n">
+      <x:c r="G170" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H170" s="53">
         <x:v>1827</x:v>
       </x:c>
     </x:row>
@@ -8172,13 +8172,13 @@
       <x:c r="E171" s="52">
         <x:v>34611</x:v>
       </x:c>
-      <x:c r="F171" s="53" t="n">
+      <x:c r="F171" s="53">
         <x:v>7990</x:v>
       </x:c>
-      <x:c r="G171" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H171" s="53" t="n">
+      <x:c r="G171" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H171" s="53">
         <x:v>7990</x:v>
       </x:c>
     </x:row>
@@ -8195,13 +8195,13 @@
       <x:c r="E172" s="52">
         <x:v>34613</x:v>
       </x:c>
-      <x:c r="F172" s="53" t="n">
+      <x:c r="F172" s="53">
         <x:v>4205</x:v>
       </x:c>
-      <x:c r="G172" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H172" s="53" t="n">
+      <x:c r="G172" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H172" s="53">
         <x:v>4205</x:v>
       </x:c>
     </x:row>
@@ -8218,13 +8218,13 @@
       <x:c r="E173" s="52">
         <x:v>34625</x:v>
       </x:c>
-      <x:c r="F173" s="53" t="n">
+      <x:c r="F173" s="53">
         <x:v>10263.75</x:v>
       </x:c>
-      <x:c r="G173" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H173" s="53" t="n">
+      <x:c r="G173" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H173" s="53">
         <x:v>10263.75</x:v>
       </x:c>
     </x:row>
@@ -8241,13 +8241,13 @@
       <x:c r="E174" s="52">
         <x:v>34628</x:v>
       </x:c>
-      <x:c r="F174" s="53" t="n">
+      <x:c r="F174" s="53">
         <x:v>4029.55</x:v>
       </x:c>
-      <x:c r="G174" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H174" s="53" t="n">
+      <x:c r="G174" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H174" s="53">
         <x:v>4029.55</x:v>
       </x:c>
     </x:row>
@@ -8264,13 +8264,13 @@
       <x:c r="E175" s="52">
         <x:v>34649</x:v>
       </x:c>
-      <x:c r="F175" s="53" t="n">
+      <x:c r="F175" s="53">
         <x:v>12949.7</x:v>
       </x:c>
-      <x:c r="G175" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H175" s="53" t="n">
+      <x:c r="G175" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H175" s="53">
         <x:v>12949.7</x:v>
       </x:c>
     </x:row>
@@ -8287,13 +8287,13 @@
       <x:c r="E176" s="52">
         <x:v>34650</x:v>
       </x:c>
-      <x:c r="F176" s="53" t="n">
+      <x:c r="F176" s="53">
         <x:v>20711.9</x:v>
       </x:c>
-      <x:c r="G176" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H176" s="53" t="n">
+      <x:c r="G176" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H176" s="53">
         <x:v>20711.9</x:v>
       </x:c>
     </x:row>
@@ -8310,13 +8310,13 @@
       <x:c r="E177" s="52">
         <x:v>34652</x:v>
       </x:c>
-      <x:c r="F177" s="53" t="n">
+      <x:c r="F177" s="53">
         <x:v>3975.75</x:v>
       </x:c>
-      <x:c r="G177" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H177" s="53" t="n">
+      <x:c r="G177" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H177" s="53">
         <x:v>3975.75</x:v>
       </x:c>
     </x:row>
@@ -8333,13 +8333,13 @@
       <x:c r="E178" s="52">
         <x:v>34654</x:v>
       </x:c>
-      <x:c r="F178" s="53" t="n">
+      <x:c r="F178" s="53">
         <x:v>8305.95</x:v>
       </x:c>
-      <x:c r="G178" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H178" s="53" t="n">
+      <x:c r="G178" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H178" s="53">
         <x:v>8305.95</x:v>
       </x:c>
     </x:row>
@@ -8356,13 +8356,13 @@
       <x:c r="E179" s="52">
         <x:v>34660</x:v>
       </x:c>
-      <x:c r="F179" s="53" t="n">
+      <x:c r="F179" s="53">
         <x:v>51730.8</x:v>
       </x:c>
-      <x:c r="G179" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H179" s="53" t="n">
+      <x:c r="G179" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H179" s="53">
         <x:v>51730.8</x:v>
       </x:c>
     </x:row>
@@ -8379,13 +8379,13 @@
       <x:c r="E180" s="52">
         <x:v>34661</x:v>
       </x:c>
-      <x:c r="F180" s="53" t="n">
+      <x:c r="F180" s="53">
         <x:v>2099</x:v>
       </x:c>
-      <x:c r="G180" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H180" s="53" t="n">
+      <x:c r="G180" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H180" s="53">
         <x:v>2099</x:v>
       </x:c>
     </x:row>
@@ -8402,13 +8402,13 @@
       <x:c r="E181" s="52">
         <x:v>34662</x:v>
       </x:c>
-      <x:c r="F181" s="53" t="n">
+      <x:c r="F181" s="53">
         <x:v>45160.1</x:v>
       </x:c>
-      <x:c r="G181" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H181" s="53" t="n">
+      <x:c r="G181" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H181" s="53">
         <x:v>45160.1</x:v>
       </x:c>
     </x:row>
@@ -8425,13 +8425,13 @@
       <x:c r="E182" s="52">
         <x:v>34664</x:v>
       </x:c>
-      <x:c r="F182" s="53" t="n">
+      <x:c r="F182" s="53">
         <x:v>4774.85</x:v>
       </x:c>
-      <x:c r="G182" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H182" s="53" t="n">
+      <x:c r="G182" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H182" s="53">
         <x:v>4774.85</x:v>
       </x:c>
     </x:row>
@@ -8448,13 +8448,13 @@
       <x:c r="E183" s="52">
         <x:v>34677</x:v>
       </x:c>
-      <x:c r="F183" s="53" t="n">
+      <x:c r="F183" s="53">
         <x:v>64115.75</x:v>
       </x:c>
-      <x:c r="G183" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H183" s="53" t="n">
+      <x:c r="G183" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H183" s="53">
         <x:v>64115.75</x:v>
       </x:c>
     </x:row>
@@ -8471,13 +8471,13 @@
       <x:c r="E184" s="52">
         <x:v>34678</x:v>
       </x:c>
-      <x:c r="F184" s="53" t="n">
+      <x:c r="F184" s="53">
         <x:v>2577.85</x:v>
       </x:c>
-      <x:c r="G184" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H184" s="53" t="n">
+      <x:c r="G184" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H184" s="53">
         <x:v>2577.85</x:v>
       </x:c>
     </x:row>
@@ -8494,13 +8494,13 @@
       <x:c r="E185" s="52">
         <x:v>34679</x:v>
       </x:c>
-      <x:c r="F185" s="53" t="n">
+      <x:c r="F185" s="53">
         <x:v>1999</x:v>
       </x:c>
-      <x:c r="G185" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H185" s="53" t="n">
+      <x:c r="G185" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H185" s="53">
         <x:v>1999</x:v>
       </x:c>
     </x:row>
@@ -8517,13 +8517,13 @@
       <x:c r="E186" s="52">
         <x:v>34682</x:v>
       </x:c>
-      <x:c r="F186" s="53" t="n">
+      <x:c r="F186" s="53">
         <x:v>158922.65</x:v>
       </x:c>
-      <x:c r="G186" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H186" s="53" t="n">
+      <x:c r="G186" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H186" s="53">
         <x:v>158922.65</x:v>
       </x:c>
     </x:row>
@@ -8540,13 +8540,13 @@
       <x:c r="E187" s="52">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="F187" s="53" t="n">
+      <x:c r="F187" s="53">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="G187" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H187" s="53" t="n">
+      <x:c r="G187" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H187" s="53">
         <x:v>6935</x:v>
       </x:c>
     </x:row>
@@ -8563,13 +8563,13 @@
       <x:c r="E188" s="52">
         <x:v>34684</x:v>
       </x:c>
-      <x:c r="F188" s="53" t="n">
+      <x:c r="F188" s="53">
         <x:v>1400</x:v>
       </x:c>
-      <x:c r="G188" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H188" s="53" t="n">
+      <x:c r="G188" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H188" s="53">
         <x:v>1400</x:v>
       </x:c>
     </x:row>
@@ -8586,13 +8586,13 @@
       <x:c r="E189" s="52">
         <x:v>34688</x:v>
       </x:c>
-      <x:c r="F189" s="53" t="n">
+      <x:c r="F189" s="53">
         <x:v>304</x:v>
       </x:c>
-      <x:c r="G189" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H189" s="53" t="n">
+      <x:c r="G189" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H189" s="53">
         <x:v>304</x:v>
       </x:c>
     </x:row>
@@ -8609,13 +8609,13 @@
       <x:c r="E190" s="52">
         <x:v>34690</x:v>
       </x:c>
-      <x:c r="F190" s="53" t="n">
+      <x:c r="F190" s="53">
         <x:v>16939.5</x:v>
       </x:c>
-      <x:c r="G190" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H190" s="53" t="n">
+      <x:c r="G190" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H190" s="53">
         <x:v>16939.5</x:v>
       </x:c>
     </x:row>
@@ -8632,13 +8632,13 @@
       <x:c r="E191" s="52">
         <x:v>34691</x:v>
       </x:c>
-      <x:c r="F191" s="53" t="n">
+      <x:c r="F191" s="53">
         <x:v>11568</x:v>
       </x:c>
-      <x:c r="G191" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H191" s="53" t="n">
+      <x:c r="G191" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H191" s="53">
         <x:v>11568</x:v>
       </x:c>
     </x:row>
@@ -8655,13 +8655,13 @@
       <x:c r="E192" s="52">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="F192" s="53" t="n">
+      <x:c r="F192" s="53">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="G192" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H192" s="53" t="n">
+      <x:c r="G192" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H192" s="53">
         <x:v>4317.75</x:v>
       </x:c>
     </x:row>
@@ -8678,13 +8678,13 @@
       <x:c r="E193" s="52">
         <x:v>34698</x:v>
       </x:c>
-      <x:c r="F193" s="53" t="n">
+      <x:c r="F193" s="53">
         <x:v>7134</x:v>
       </x:c>
-      <x:c r="G193" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H193" s="53" t="n">
+      <x:c r="G193" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H193" s="53">
         <x:v>7134</x:v>
       </x:c>
     </x:row>
@@ -8701,13 +8701,13 @@
       <x:c r="E194" s="52">
         <x:v>34700</x:v>
       </x:c>
-      <x:c r="F194" s="53" t="n">
+      <x:c r="F194" s="53">
         <x:v>7986.9</x:v>
       </x:c>
-      <x:c r="G194" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H194" s="53" t="n">
+      <x:c r="G194" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H194" s="53">
         <x:v>7986.9</x:v>
       </x:c>
     </x:row>
@@ -8724,13 +8724,13 @@
       <x:c r="E195" s="52">
         <x:v>34703</x:v>
       </x:c>
-      <x:c r="F195" s="53" t="n">
+      <x:c r="F195" s="53">
         <x:v>3304.85</x:v>
       </x:c>
-      <x:c r="G195" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H195" s="53" t="n">
+      <x:c r="G195" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H195" s="53">
         <x:v>3304.85</x:v>
       </x:c>
     </x:row>
@@ -8747,13 +8747,13 @@
       <x:c r="E196" s="52">
         <x:v>34705</x:v>
       </x:c>
-      <x:c r="F196" s="53" t="n">
+      <x:c r="F196" s="53">
         <x:v>17917</x:v>
       </x:c>
-      <x:c r="G196" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H196" s="53" t="n">
+      <x:c r="G196" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H196" s="53">
         <x:v>17917</x:v>
       </x:c>
     </x:row>
@@ -8770,13 +8770,13 @@
       <x:c r="E197" s="52">
         <x:v>34707</x:v>
       </x:c>
-      <x:c r="F197" s="53" t="n">
+      <x:c r="F197" s="53">
         <x:v>7423.35</x:v>
       </x:c>
-      <x:c r="G197" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H197" s="53" t="n">
+      <x:c r="G197" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H197" s="53">
         <x:v>7423.35</x:v>
       </x:c>
     </x:row>
@@ -8793,13 +8793,13 @@
       <x:c r="E198" s="52">
         <x:v>34708</x:v>
       </x:c>
-      <x:c r="F198" s="53" t="n">
+      <x:c r="F198" s="53">
         <x:v>9897</x:v>
       </x:c>
-      <x:c r="G198" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H198" s="53" t="n">
+      <x:c r="G198" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H198" s="53">
         <x:v>9897</x:v>
       </x:c>
     </x:row>
@@ -8816,13 +8816,13 @@
       <x:c r="E199" s="52">
         <x:v>34709</x:v>
       </x:c>
-      <x:c r="F199" s="53" t="n">
+      <x:c r="F199" s="53">
         <x:v>52729.25</x:v>
       </x:c>
-      <x:c r="G199" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H199" s="53" t="n">
+      <x:c r="G199" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H199" s="53">
         <x:v>52729.25</x:v>
       </x:c>
     </x:row>
@@ -8839,13 +8839,13 @@
       <x:c r="E200" s="52">
         <x:v>34715</x:v>
       </x:c>
-      <x:c r="F200" s="53" t="n">
+      <x:c r="F200" s="53">
         <x:v>24485</x:v>
       </x:c>
-      <x:c r="G200" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H200" s="53" t="n">
+      <x:c r="G200" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H200" s="53">
         <x:v>24485</x:v>
       </x:c>
     </x:row>
@@ -8862,13 +8862,13 @@
       <x:c r="E201" s="52">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="F201" s="53" t="n">
+      <x:c r="F201" s="53">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="G201" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H201" s="53" t="n">
+      <x:c r="G201" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H201" s="53">
         <x:v>3065</x:v>
       </x:c>
     </x:row>
@@ -8885,13 +8885,13 @@
       <x:c r="E202" s="52">
         <x:v>34721</x:v>
       </x:c>
-      <x:c r="F202" s="53" t="n">
+      <x:c r="F202" s="53">
         <x:v>465</x:v>
       </x:c>
-      <x:c r="G202" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H202" s="53" t="n">
+      <x:c r="G202" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H202" s="53">
         <x:v>465</x:v>
       </x:c>
     </x:row>
@@ -8908,13 +8908,13 @@
       <x:c r="E203" s="52">
         <x:v>34725</x:v>
       </x:c>
-      <x:c r="F203" s="53" t="n">
+      <x:c r="F203" s="53">
         <x:v>5037.1</x:v>
       </x:c>
-      <x:c r="G203" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H203" s="53" t="n">
+      <x:c r="G203" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H203" s="53">
         <x:v>5037.1</x:v>
       </x:c>
     </x:row>
@@ -8931,13 +8931,13 @@
       <x:c r="E204" s="52">
         <x:v>34731</x:v>
       </x:c>
-      <x:c r="F204" s="53" t="n">
+      <x:c r="F204" s="53">
         <x:v>7572</x:v>
       </x:c>
-      <x:c r="G204" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H204" s="53" t="n">
+      <x:c r="G204" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H204" s="53">
         <x:v>7572</x:v>
       </x:c>
     </x:row>
@@ -8954,13 +8954,13 @@
       <x:c r="E205" s="52">
         <x:v>34732</x:v>
       </x:c>
-      <x:c r="F205" s="53" t="n">
+      <x:c r="F205" s="53">
         <x:v>8939.6</x:v>
       </x:c>
-      <x:c r="G205" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H205" s="53" t="n">
+      <x:c r="G205" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H205" s="53">
         <x:v>8939.6</x:v>
       </x:c>
     </x:row>
@@ -8977,13 +8977,13 @@
       <x:c r="E206" s="52">
         <x:v>34735</x:v>
       </x:c>
-      <x:c r="F206" s="53" t="n">
+      <x:c r="F206" s="53">
         <x:v>13908</x:v>
       </x:c>
-      <x:c r="G206" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H206" s="53" t="n">
+      <x:c r="G206" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H206" s="53">
         <x:v>13908</x:v>
       </x:c>
     </x:row>
@@ -8997,14 +8997,14 @@
       <x:c r="D207" s="51" t="s">
         <x:v>272</x:v>
       </x:c>
-      <x:c r="E207" s="52" t="s"/>
-      <x:c r="F207" s="53" t="n">
+      <x:c r="E207" s="52"/>
+      <x:c r="F207" s="53">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="G207" s="54" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H207" s="53" t="n">
+      <x:c r="G207" s="54">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H207" s="53">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -9051,11 +9051,8 @@
     <x:col min="6" max="6" width="13.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="3" spans="1:6"/>
     <x:row r="4" spans="1:6" ht="11.25" customHeight="1"/>
     <x:row r="5" spans="1:6" ht="25.5" customHeight="1"/>
-    <x:row r="6" spans="1:6"/>
-    <x:row r="7" spans="1:6"/>
     <x:row r="8" spans="1:6" ht="12" customHeight="1"/>
     <x:row r="9" spans="1:6" ht="12.75" customHeight="1"/>
   </x:sheetData>
@@ -9088,13 +9085,7 @@
     <x:col min="5" max="5" width="11" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5"/>
-    <x:row r="4" spans="1:5"/>
-    <x:row r="5" spans="1:5"/>
-    <x:row r="6" spans="1:5"/>
     <x:row r="7" spans="1:5" ht="11.25" customHeight="1"/>
-    <x:row r="8" spans="1:5"/>
-    <x:row r="9" spans="1:5"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -9078,7 +9078,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.210625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="17.164062" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="14.5" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.5" style="0" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -16,13 +16,13 @@
   </x:definedNames>
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId4"/>
+    <x:pivotCache cacheId="0" r:id="rId8"/>
   </x:pivotCaches>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Company</x:t>
   </x:si>
@@ -1290,314 +1290,6 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" refreshedBy=" " refreshedDate="43579.724609375" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource ref="B2:H207" sheet="Sheet1"/>
-  </x:cacheSource>
-  <x:cacheFields count="7">
-    <x:cacheField name="Company">
-      <x:sharedItems count="54">
-        <x:s v="Sight Diver"/>
-        <x:s v="Davy Jones' Locker"/>
-        <x:s v="Tom Sawyer Diving Centre"/>
-        <x:s v="Blue Jack Aqua Center"/>
-        <x:s v="VIP Divers Club"/>
-        <x:s v="Ocean Paradise"/>
-        <x:s v="Fantastique Aquatica"/>
-        <x:s v="Marmot Divers Club"/>
-        <x:s v="The Depth Charge"/>
-        <x:s v="Blue Sports"/>
-        <x:s v="Makai SCUBA Club"/>
-        <x:s v="Action Club"/>
-        <x:s v="Jamaica SCUBA Centre"/>
-        <x:s v="Island Finders"/>
-        <x:s v="Adventure Undersea"/>
-        <x:s v="Blue Sports Club"/>
-        <x:s v="Frank's Divers Supply"/>
-        <x:s v="SCUBA Heaven"/>
-        <x:s v="Kauai Dive Shoppe"/>
-        <x:s v="Fisherman's Eye"/>
-        <x:s v="Marina SCUBA Center"/>
-        <x:s v="Tora Tora Tora"/>
-        <x:s v="Action Diver Supply"/>
-        <x:s v="Waterspout SCUBA Center"/>
-        <x:s v="Jamaica Sun, Inc."/>
-        <x:s v="Blue Glass Happiness"/>
-        <x:s v="Princess Island SCUBA"/>
-        <x:s v="Ocean Adventures"/>
-        <x:s v="Neptune's Trident Supply"/>
-        <x:s v="Divers of Corfu, Inc."/>
-        <x:s v="Divers-for-Hire"/>
-        <x:s v="Underwater Sports Co."/>
-        <x:s v="Shangri-La Sports Center"/>
-        <x:s v="The Diving Company"/>
-        <x:s v="Unisco"/>
-        <x:s v="Gold Coast Supply"/>
-        <x:s v="Aquatic Drama"/>
-        <x:s v="Catamaran Dive Club"/>
-        <x:s v="On-Target SCUBA"/>
-        <x:s v="George Bean &amp; Co."/>
-        <x:s v="Underwater SCUBA Company"/>
-        <x:s v="Divers of Blue-green"/>
-        <x:s v="Norwest'er SCUBA Limited"/>
-        <x:s v="Safari Under the Sea"/>
-        <x:s v="Kirk Enterprises"/>
-        <x:s v="Cayman Divers World Unlimited"/>
-        <x:s v="Underwater Fantasy"/>
-        <x:s v="Divers of Venice"/>
-        <x:s v="Central Underwater Supplies"/>
-        <x:s v="Larry's Diving School"/>
-        <x:s v="San Pablo Dive Center"/>
-        <x:s v="Professional Divers, Ltd."/>
-        <x:s v="American SCUBA Supply"/>
-        <x:s v="Vashon Ventures"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Payment method">
-      <x:sharedItems count="7">
-        <x:s v="Credit"/>
-        <x:s v="Check"/>
-        <x:s v="Visa"/>
-        <x:s v="COD"/>
-        <x:s v="MC"/>
-        <x:s v="AmEx"/>
-        <x:s v="Cash"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="OrderNo">
-      <x:sharedItems count="205">
-        <x:s v="1003"/>
-        <x:s v="1004"/>
-        <x:s v="1005"/>
-        <x:s v="1006"/>
-        <x:s v="1007"/>
-        <x:s v="1008"/>
-        <x:s v="1009"/>
-        <x:s v="1010"/>
-        <x:s v="1011"/>
-        <x:s v="1012"/>
-        <x:s v="1013"/>
-        <x:s v="1014"/>
-        <x:s v="1015"/>
-        <x:s v="1016"/>
-        <x:s v="1017"/>
-        <x:s v="1018"/>
-        <x:s v="1019"/>
-        <x:s v="1020"/>
-        <x:s v="1021"/>
-        <x:s v="1022"/>
-        <x:s v="1023"/>
-        <x:s v="1024"/>
-        <x:s v="1025"/>
-        <x:s v="1026"/>
-        <x:s v="1027"/>
-        <x:s v="1028"/>
-        <x:s v="1029"/>
-        <x:s v="1030"/>
-        <x:s v="1031"/>
-        <x:s v="1032"/>
-        <x:s v="1033"/>
-        <x:s v="1034"/>
-        <x:s v="1035"/>
-        <x:s v="1036"/>
-        <x:s v="1037"/>
-        <x:s v="1038"/>
-        <x:s v="1039"/>
-        <x:s v="1040"/>
-        <x:s v="1041"/>
-        <x:s v="1042"/>
-        <x:s v="1043"/>
-        <x:s v="1044"/>
-        <x:s v="1045"/>
-        <x:s v="1046"/>
-        <x:s v="1047"/>
-        <x:s v="1048"/>
-        <x:s v="1049"/>
-        <x:s v="1050"/>
-        <x:s v="1051"/>
-        <x:s v="1052"/>
-        <x:s v="1053"/>
-        <x:s v="1054"/>
-        <x:s v="1055"/>
-        <x:s v="1056"/>
-        <x:s v="1057"/>
-        <x:s v="1058"/>
-        <x:s v="1059"/>
-        <x:s v="1060"/>
-        <x:s v="1061"/>
-        <x:s v="1062"/>
-        <x:s v="1063"/>
-        <x:s v="1064"/>
-        <x:s v="1065"/>
-        <x:s v="1066"/>
-        <x:s v="1067"/>
-        <x:s v="1068"/>
-        <x:s v="1069"/>
-        <x:s v="1070"/>
-        <x:s v="1071"/>
-        <x:s v="1072"/>
-        <x:s v="1073"/>
-        <x:s v="1074"/>
-        <x:s v="1075"/>
-        <x:s v="1076"/>
-        <x:s v="1077"/>
-        <x:s v="1078"/>
-        <x:s v="1079"/>
-        <x:s v="1080"/>
-        <x:s v="1081"/>
-        <x:s v="1082"/>
-        <x:s v="1083"/>
-        <x:s v="1084"/>
-        <x:s v="1086"/>
-        <x:s v="1087"/>
-        <x:s v="1089"/>
-        <x:s v="1090"/>
-        <x:s v="1091"/>
-        <x:s v="1092"/>
-        <x:s v="1093"/>
-        <x:s v="1094"/>
-        <x:s v="1095"/>
-        <x:s v="1096"/>
-        <x:s v="1097"/>
-        <x:s v="1098"/>
-        <x:s v="1099"/>
-        <x:s v="1100"/>
-        <x:s v="1101"/>
-        <x:s v="1102"/>
-        <x:s v="1103"/>
-        <x:s v="1104"/>
-        <x:s v="1105"/>
-        <x:s v="1106"/>
-        <x:s v="1107"/>
-        <x:s v="1109"/>
-        <x:s v="1111"/>
-        <x:s v="1112"/>
-        <x:s v="1113"/>
-        <x:s v="1115"/>
-        <x:s v="1116"/>
-        <x:s v="1117"/>
-        <x:s v="1118"/>
-        <x:s v="1119"/>
-        <x:s v="1120"/>
-        <x:s v="1121"/>
-        <x:s v="1122"/>
-        <x:s v="1123"/>
-        <x:s v="1124"/>
-        <x:s v="1125"/>
-        <x:s v="1126"/>
-        <x:s v="1127"/>
-        <x:s v="1128"/>
-        <x:s v="1129"/>
-        <x:s v="1130"/>
-        <x:s v="1131"/>
-        <x:s v="1132"/>
-        <x:s v="1133"/>
-        <x:s v="1134"/>
-        <x:s v="1136"/>
-        <x:s v="1137"/>
-        <x:s v="1139"/>
-        <x:s v="1140"/>
-        <x:s v="1141"/>
-        <x:s v="1142"/>
-        <x:s v="1143"/>
-        <x:s v="1144"/>
-        <x:s v="1145"/>
-        <x:s v="1146"/>
-        <x:s v="1148"/>
-        <x:s v="1149"/>
-        <x:s v="1150"/>
-        <x:s v="1152"/>
-        <x:s v="1153"/>
-        <x:s v="1154"/>
-        <x:s v="1155"/>
-        <x:s v="1156"/>
-        <x:s v="1158"/>
-        <x:s v="1160"/>
-        <x:s v="1161"/>
-        <x:s v="1162"/>
-        <x:s v="1163"/>
-        <x:s v="1165"/>
-        <x:s v="1166"/>
-        <x:s v="1168"/>
-        <x:s v="1169"/>
-        <x:s v="1170"/>
-        <x:s v="1171"/>
-        <x:s v="1173"/>
-        <x:s v="1175"/>
-        <x:s v="1176"/>
-        <x:s v="1178"/>
-        <x:s v="1180"/>
-        <x:s v="1183"/>
-        <x:s v="1195"/>
-        <x:s v="1196"/>
-        <x:s v="1197"/>
-        <x:s v="1198"/>
-        <x:s v="1199"/>
-        <x:s v="1200"/>
-        <x:s v="1201"/>
-        <x:s v="1202"/>
-        <x:s v="1204"/>
-        <x:s v="1205"/>
-        <x:s v="1207"/>
-        <x:s v="1209"/>
-        <x:s v="1212"/>
-        <x:s v="1215"/>
-        <x:s v="1217"/>
-        <x:s v="1221"/>
-        <x:s v="1250"/>
-        <x:s v="1253"/>
-        <x:s v="1255"/>
-        <x:s v="1260"/>
-        <x:s v="1261"/>
-        <x:s v="1263"/>
-        <x:s v="1266"/>
-        <x:s v="1269"/>
-        <x:s v="1271"/>
-        <x:s v="1275"/>
-        <x:s v="1278"/>
-        <x:s v="1280"/>
-        <x:s v="1283"/>
-        <x:s v="1292"/>
-        <x:s v="1294"/>
-        <x:s v="1295"/>
-        <x:s v="1296"/>
-        <x:s v="1298"/>
-        <x:s v="1300"/>
-        <x:s v="1302"/>
-        <x:s v="1305"/>
-        <x:s v="1309"/>
-        <x:s v="1315"/>
-        <x:s v="1317"/>
-        <x:s v="1350"/>
-        <x:s v="1355"/>
-        <x:s v="1860"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Ship date">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1988-01-21T00:00:00" maxDate="1995-02-05T00:00:00" count="191"/>
-    </x:cacheField>
-    <x:cacheField name="Items total">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="54" maxValue="158922.65" count="205"/>
-    </x:cacheField>
-    <x:cacheField name="Tax rate">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="8.5" count="3">
-        <x:n v="4.5"/>
-        <x:n v="0"/>
-        <x:n v="8.5"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Amount paid">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="158922.65" count="184"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -9093,4 +8785,896 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3">
+  <x:cacheSource type="worksheet">
+    <x:worksheetSource ref="B2:H207" sheet="Sheet1"/>
+  </x:cacheSource>
+  <x:cacheFields>
+    <x:cacheField name="Company">
+      <x:sharedItems count="54">
+        <x:s v="Sight Diver"/>
+        <x:s v="Davy Jones' Locker"/>
+        <x:s v="Tom Sawyer Diving Centre"/>
+        <x:s v="Blue Jack Aqua Center"/>
+        <x:s v="VIP Divers Club"/>
+        <x:s v="Ocean Paradise"/>
+        <x:s v="Fantastique Aquatica"/>
+        <x:s v="Marmot Divers Club"/>
+        <x:s v="The Depth Charge"/>
+        <x:s v="Blue Sports"/>
+        <x:s v="Makai SCUBA Club"/>
+        <x:s v="Action Club"/>
+        <x:s v="Jamaica SCUBA Centre"/>
+        <x:s v="Island Finders"/>
+        <x:s v="Adventure Undersea"/>
+        <x:s v="Blue Sports Club"/>
+        <x:s v="Frank's Divers Supply"/>
+        <x:s v="SCUBA Heaven"/>
+        <x:s v="Kauai Dive Shoppe"/>
+        <x:s v="Fisherman's Eye"/>
+        <x:s v="Marina SCUBA Center"/>
+        <x:s v="Tora Tora Tora"/>
+        <x:s v="Action Diver Supply"/>
+        <x:s v="Waterspout SCUBA Center"/>
+        <x:s v="Jamaica Sun, Inc."/>
+        <x:s v="Blue Glass Happiness"/>
+        <x:s v="Princess Island SCUBA"/>
+        <x:s v="Ocean Adventures"/>
+        <x:s v="Neptune's Trident Supply"/>
+        <x:s v="Divers of Corfu, Inc."/>
+        <x:s v="Divers-for-Hire"/>
+        <x:s v="Underwater Sports Co."/>
+        <x:s v="Shangri-La Sports Center"/>
+        <x:s v="The Diving Company"/>
+        <x:s v="Unisco"/>
+        <x:s v="Gold Coast Supply"/>
+        <x:s v="Aquatic Drama"/>
+        <x:s v="Catamaran Dive Club"/>
+        <x:s v="On-Target SCUBA"/>
+        <x:s v="George Bean &amp; Co."/>
+        <x:s v="Underwater SCUBA Company"/>
+        <x:s v="Divers of Blue-green"/>
+        <x:s v="Norwest'er SCUBA Limited"/>
+        <x:s v="Safari Under the Sea"/>
+        <x:s v="Kirk Enterprises"/>
+        <x:s v="Cayman Divers World Unlimited"/>
+        <x:s v="Underwater Fantasy"/>
+        <x:s v="Divers of Venice"/>
+        <x:s v="Central Underwater Supplies"/>
+        <x:s v="Larry's Diving School"/>
+        <x:s v="San Pablo Dive Center"/>
+        <x:s v="Professional Divers, Ltd."/>
+        <x:s v="American SCUBA Supply"/>
+        <x:s v="Vashon Ventures"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Payment method">
+      <x:sharedItems count="7">
+        <x:s v="Credit"/>
+        <x:s v="Check"/>
+        <x:s v="Visa"/>
+        <x:s v="COD"/>
+        <x:s v="MC"/>
+        <x:s v="AmEx"/>
+        <x:s v="Cash"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="OrderNo">
+      <x:sharedItems count="205">
+        <x:s v="1003"/>
+        <x:s v="1004"/>
+        <x:s v="1005"/>
+        <x:s v="1006"/>
+        <x:s v="1007"/>
+        <x:s v="1008"/>
+        <x:s v="1009"/>
+        <x:s v="1010"/>
+        <x:s v="1011"/>
+        <x:s v="1012"/>
+        <x:s v="1013"/>
+        <x:s v="1014"/>
+        <x:s v="1015"/>
+        <x:s v="1016"/>
+        <x:s v="1017"/>
+        <x:s v="1018"/>
+        <x:s v="1019"/>
+        <x:s v="1020"/>
+        <x:s v="1021"/>
+        <x:s v="1022"/>
+        <x:s v="1023"/>
+        <x:s v="1024"/>
+        <x:s v="1025"/>
+        <x:s v="1026"/>
+        <x:s v="1027"/>
+        <x:s v="1028"/>
+        <x:s v="1029"/>
+        <x:s v="1030"/>
+        <x:s v="1031"/>
+        <x:s v="1032"/>
+        <x:s v="1033"/>
+        <x:s v="1034"/>
+        <x:s v="1035"/>
+        <x:s v="1036"/>
+        <x:s v="1037"/>
+        <x:s v="1038"/>
+        <x:s v="1039"/>
+        <x:s v="1040"/>
+        <x:s v="1041"/>
+        <x:s v="1042"/>
+        <x:s v="1043"/>
+        <x:s v="1044"/>
+        <x:s v="1045"/>
+        <x:s v="1046"/>
+        <x:s v="1047"/>
+        <x:s v="1048"/>
+        <x:s v="1049"/>
+        <x:s v="1050"/>
+        <x:s v="1051"/>
+        <x:s v="1052"/>
+        <x:s v="1053"/>
+        <x:s v="1054"/>
+        <x:s v="1055"/>
+        <x:s v="1056"/>
+        <x:s v="1057"/>
+        <x:s v="1058"/>
+        <x:s v="1059"/>
+        <x:s v="1060"/>
+        <x:s v="1061"/>
+        <x:s v="1062"/>
+        <x:s v="1063"/>
+        <x:s v="1064"/>
+        <x:s v="1065"/>
+        <x:s v="1066"/>
+        <x:s v="1067"/>
+        <x:s v="1068"/>
+        <x:s v="1069"/>
+        <x:s v="1070"/>
+        <x:s v="1071"/>
+        <x:s v="1072"/>
+        <x:s v="1073"/>
+        <x:s v="1074"/>
+        <x:s v="1075"/>
+        <x:s v="1076"/>
+        <x:s v="1077"/>
+        <x:s v="1078"/>
+        <x:s v="1079"/>
+        <x:s v="1080"/>
+        <x:s v="1081"/>
+        <x:s v="1082"/>
+        <x:s v="1083"/>
+        <x:s v="1084"/>
+        <x:s v="1086"/>
+        <x:s v="1087"/>
+        <x:s v="1089"/>
+        <x:s v="1090"/>
+        <x:s v="1091"/>
+        <x:s v="1092"/>
+        <x:s v="1093"/>
+        <x:s v="1094"/>
+        <x:s v="1095"/>
+        <x:s v="1096"/>
+        <x:s v="1097"/>
+        <x:s v="1098"/>
+        <x:s v="1099"/>
+        <x:s v="1100"/>
+        <x:s v="1101"/>
+        <x:s v="1102"/>
+        <x:s v="1103"/>
+        <x:s v="1104"/>
+        <x:s v="1105"/>
+        <x:s v="1106"/>
+        <x:s v="1107"/>
+        <x:s v="1109"/>
+        <x:s v="1111"/>
+        <x:s v="1112"/>
+        <x:s v="1113"/>
+        <x:s v="1115"/>
+        <x:s v="1116"/>
+        <x:s v="1117"/>
+        <x:s v="1118"/>
+        <x:s v="1119"/>
+        <x:s v="1120"/>
+        <x:s v="1121"/>
+        <x:s v="1122"/>
+        <x:s v="1123"/>
+        <x:s v="1124"/>
+        <x:s v="1125"/>
+        <x:s v="1126"/>
+        <x:s v="1127"/>
+        <x:s v="1128"/>
+        <x:s v="1129"/>
+        <x:s v="1130"/>
+        <x:s v="1131"/>
+        <x:s v="1132"/>
+        <x:s v="1133"/>
+        <x:s v="1134"/>
+        <x:s v="1136"/>
+        <x:s v="1137"/>
+        <x:s v="1139"/>
+        <x:s v="1140"/>
+        <x:s v="1141"/>
+        <x:s v="1142"/>
+        <x:s v="1143"/>
+        <x:s v="1144"/>
+        <x:s v="1145"/>
+        <x:s v="1146"/>
+        <x:s v="1148"/>
+        <x:s v="1149"/>
+        <x:s v="1150"/>
+        <x:s v="1152"/>
+        <x:s v="1153"/>
+        <x:s v="1154"/>
+        <x:s v="1155"/>
+        <x:s v="1156"/>
+        <x:s v="1158"/>
+        <x:s v="1160"/>
+        <x:s v="1161"/>
+        <x:s v="1162"/>
+        <x:s v="1163"/>
+        <x:s v="1165"/>
+        <x:s v="1166"/>
+        <x:s v="1168"/>
+        <x:s v="1169"/>
+        <x:s v="1170"/>
+        <x:s v="1171"/>
+        <x:s v="1173"/>
+        <x:s v="1175"/>
+        <x:s v="1176"/>
+        <x:s v="1178"/>
+        <x:s v="1180"/>
+        <x:s v="1183"/>
+        <x:s v="1195"/>
+        <x:s v="1196"/>
+        <x:s v="1197"/>
+        <x:s v="1198"/>
+        <x:s v="1199"/>
+        <x:s v="1200"/>
+        <x:s v="1201"/>
+        <x:s v="1202"/>
+        <x:s v="1204"/>
+        <x:s v="1205"/>
+        <x:s v="1207"/>
+        <x:s v="1209"/>
+        <x:s v="1212"/>
+        <x:s v="1215"/>
+        <x:s v="1217"/>
+        <x:s v="1221"/>
+        <x:s v="1250"/>
+        <x:s v="1253"/>
+        <x:s v="1255"/>
+        <x:s v="1260"/>
+        <x:s v="1261"/>
+        <x:s v="1263"/>
+        <x:s v="1266"/>
+        <x:s v="1269"/>
+        <x:s v="1271"/>
+        <x:s v="1275"/>
+        <x:s v="1278"/>
+        <x:s v="1280"/>
+        <x:s v="1283"/>
+        <x:s v="1292"/>
+        <x:s v="1294"/>
+        <x:s v="1295"/>
+        <x:s v="1296"/>
+        <x:s v="1298"/>
+        <x:s v="1300"/>
+        <x:s v="1302"/>
+        <x:s v="1305"/>
+        <x:s v="1309"/>
+        <x:s v="1315"/>
+        <x:s v="1317"/>
+        <x:s v="1350"/>
+        <x:s v="1355"/>
+        <x:s v="1860"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Ship date">
+      <x:sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1988-01-21T00:00:00" maxDate="1995-02-05T00:00:00" count="192">
+        <x:d v="1988-05-03T00:00:00"/>
+        <x:d v="1988-04-18T00:00:00"/>
+        <x:d v="1988-01-21T00:00:00"/>
+        <x:d v="1988-11-07T00:00:00"/>
+        <x:d v="1988-05-02T00:00:00"/>
+        <x:d v="1988-05-04T00:00:00"/>
+        <x:d v="1988-05-12T00:00:00"/>
+        <x:d v="1988-05-19T00:00:00"/>
+        <x:d v="1988-05-20T00:00:00"/>
+        <x:d v="1988-05-26T00:00:00"/>
+        <x:d v="1988-06-03T00:00:00"/>
+        <x:d v="1988-06-13T00:00:00"/>
+        <x:d v="1988-06-19T00:00:00"/>
+        <x:d v="1988-06-25T00:00:00"/>
+        <x:d v="1988-07-01T00:00:00"/>
+        <x:d v="1988-07-02T00:00:00"/>
+        <x:d v="1988-07-03T00:00:00"/>
+        <x:d v="1988-07-04T00:00:00"/>
+        <x:d v="1988-07-08T00:00:00"/>
+        <x:d v="1988-07-19T00:00:00"/>
+        <x:d v="1988-07-26T00:00:00"/>
+        <x:d v="1988-08-01T00:00:00"/>
+        <x:d v="1988-08-02T00:00:00"/>
+        <x:d v="1988-08-14T00:00:00"/>
+        <x:d v="1988-08-17T00:00:00"/>
+        <x:d v="1988-08-26T00:00:00"/>
+        <x:d v="1988-08-27T00:00:00"/>
+        <x:d v="1988-09-01T00:00:00"/>
+        <x:d v="1988-09-05T00:00:00"/>
+        <x:d v="1988-09-17T00:00:00"/>
+        <x:d v="1988-09-25T00:00:00"/>
+        <x:d v="1988-10-01T00:00:00"/>
+        <x:d v="1988-10-09T00:00:00"/>
+        <x:d v="1988-10-17T00:00:00"/>
+        <x:d v="1988-11-13T00:00:00"/>
+        <x:d v="1988-11-28T00:00:00"/>
+        <x:d v="1988-12-03T00:00:00"/>
+        <x:d v="1988-12-14T00:00:00"/>
+        <x:d v="1988-12-25T00:00:00"/>
+        <x:d v="1989-01-05T00:00:00"/>
+        <x:d v="1989-01-07T00:00:00"/>
+        <x:d v="1989-01-16T00:00:00"/>
+        <x:d v="1989-02-01T00:00:00"/>
+        <x:d v="1989-02-05T00:00:00"/>
+        <x:d v="1989-02-09T00:00:00"/>
+        <x:d v="1989-02-19T00:00:00"/>
+        <x:d v="1989-02-22T00:00:00"/>
+        <x:d v="1989-02-25T00:00:00"/>
+        <x:d v="1989-03-01T00:00:00"/>
+        <x:d v="1989-03-04T00:00:00"/>
+        <x:d v="1989-03-09T00:00:00"/>
+        <x:d v="1989-03-14T00:00:00"/>
+        <x:d v="1989-03-25T00:00:00"/>
+        <x:d v="1989-03-26T00:00:00"/>
+        <x:d v="1989-03-27T00:00:00"/>
+        <x:d v="1989-04-02T00:00:00"/>
+        <x:d v="1989-04-04T00:00:00"/>
+        <x:d v="1989-04-06T00:00:00"/>
+        <x:d v="1989-04-08T00:00:00"/>
+        <x:d v="1989-04-10T00:00:00"/>
+        <x:d v="1989-04-12T00:00:00"/>
+        <x:d v="1989-04-16T00:00:00"/>
+        <x:d v="1989-04-20T00:00:00"/>
+        <x:d v="1989-04-22T00:00:00"/>
+        <x:d v="1989-04-26T00:00:00"/>
+        <x:d v="1989-05-01T00:00:00"/>
+        <x:d v="1989-05-02T00:00:00"/>
+        <x:d v="1989-05-04T00:00:00"/>
+        <x:d v="1989-05-06T00:00:00"/>
+        <x:d v="1989-05-08T00:00:00"/>
+        <x:d v="1989-05-10T00:00:00"/>
+        <x:d v="1989-05-12T00:00:00"/>
+        <x:d v="1989-05-19T00:00:00"/>
+        <x:d v="1989-05-21T00:00:00"/>
+        <x:d v="1989-05-23T00:00:00"/>
+        <x:d v="1989-05-26T00:00:00"/>
+        <x:d v="1989-06-01T00:00:00"/>
+        <x:d v="1989-06-02T00:00:00"/>
+        <x:d v="1989-06-04T00:00:00"/>
+        <x:d v="1989-06-06T00:00:00"/>
+        <x:d v="1989-06-09T00:00:00"/>
+        <x:d v="1989-06-12T00:00:00"/>
+        <x:d v="1989-06-14T00:00:00"/>
+        <x:d v="1989-06-16T00:00:00"/>
+        <x:d v="1989-06-20T00:00:00"/>
+        <x:d v="1989-07-04T00:00:00"/>
+        <x:d v="1992-06-06T00:00:00"/>
+        <x:d v="1992-07-13T00:00:00"/>
+        <x:d v="1992-07-18T00:00:00"/>
+        <x:d v="1992-07-21T00:00:00"/>
+        <x:d v="1992-09-23T00:00:00"/>
+        <x:d v="1992-10-24T00:00:00"/>
+        <x:d v="1992-11-13T00:00:00"/>
+        <x:d v="1992-12-14T00:00:00"/>
+        <x:d v="1993-01-02T00:00:00"/>
+        <x:d v="1993-02-12T00:00:00"/>
+        <x:d v="1993-03-13T00:00:00"/>
+        <x:d v="1993-03-21T00:00:00"/>
+        <x:d v="1993-04-13T00:00:00"/>
+        <x:d v="1993-04-23T00:00:00"/>
+        <x:d v="1993-05-15T00:00:00"/>
+        <x:d v="1993-05-25T00:00:00"/>
+        <x:d v="1993-06-02T00:00:00"/>
+        <x:d v="1993-07-23T00:00:00"/>
+        <x:d v="1993-08-24T00:00:00"/>
+        <x:d v="1993-09-01T00:00:00"/>
+        <x:d v="1993-09-04T00:00:00"/>
+        <x:d v="1993-10-01T00:00:00"/>
+        <x:d v="1993-10-02T00:00:00"/>
+        <x:d v="1993-10-08T00:00:00"/>
+        <x:d v="1993-10-19T00:00:00"/>
+        <x:d v="1993-10-26T00:00:00"/>
+        <x:d v="1993-11-01T00:00:00"/>
+        <x:d v="1993-11-02T00:00:00"/>
+        <x:d v="1993-11-14T00:00:00"/>
+        <x:d v="1993-11-27T00:00:00"/>
+        <x:d v="1993-12-01T00:00:00"/>
+        <x:d v="1993-12-12T00:00:00"/>
+        <x:d v="1993-12-17T00:00:00"/>
+        <x:d v="1993-12-25T00:00:00"/>
+        <x:d v="1994-01-01T00:00:00"/>
+        <x:d v="1994-01-09T00:00:00"/>
+        <x:d v="1994-01-17T00:00:00"/>
+        <x:d v="1994-02-13T00:00:00"/>
+        <x:d v="1994-03-03T00:00:00"/>
+        <x:d v="1994-03-14T00:00:00"/>
+        <x:d v="1994-03-25T00:00:00"/>
+        <x:d v="1994-04-07T00:00:00"/>
+        <x:d v="1994-04-16T00:00:00"/>
+        <x:d v="1994-05-01T00:00:00"/>
+        <x:d v="1994-05-05T00:00:00"/>
+        <x:d v="1994-05-09T00:00:00"/>
+        <x:d v="1994-05-22T00:00:00"/>
+        <x:d v="1994-06-01T00:00:00"/>
+        <x:d v="1994-06-04T00:00:00"/>
+        <x:d v="1994-06-09T00:00:00"/>
+        <x:d v="1994-06-14T00:00:00"/>
+        <x:d v="1994-06-26T00:00:00"/>
+        <x:d v="1994-07-01T00:00:00"/>
+        <x:d v="1994-07-04T00:00:00"/>
+        <x:d v="1994-07-06T00:00:00"/>
+        <x:d v="1994-07-08T00:00:00"/>
+        <x:d v="1994-07-10T00:00:00"/>
+        <x:d v="1994-07-16T00:00:00"/>
+        <x:d v="1994-07-22T00:00:00"/>
+        <x:d v="1994-07-26T00:00:00"/>
+        <x:d v="1994-08-02T00:00:00"/>
+        <x:d v="1994-08-06T00:00:00"/>
+        <x:d v="1994-08-10T00:00:00"/>
+        <x:d v="1994-09-06T00:00:00"/>
+        <x:d v="1994-09-08T00:00:00"/>
+        <x:d v="1994-09-12T00:00:00"/>
+        <x:d v="1994-09-14T00:00:00"/>
+        <x:d v="1994-09-16T00:00:00"/>
+        <x:d v="1994-09-20T00:00:00"/>
+        <x:d v="1994-10-04T00:00:00"/>
+        <x:d v="1994-10-06T00:00:00"/>
+        <x:d v="1994-10-18T00:00:00"/>
+        <x:d v="1994-10-21T00:00:00"/>
+        <x:d v="1994-11-11T00:00:00"/>
+        <x:d v="1994-11-12T00:00:00"/>
+        <x:d v="1994-11-14T00:00:00"/>
+        <x:d v="1994-11-16T00:00:00"/>
+        <x:d v="1994-11-22T00:00:00"/>
+        <x:d v="1994-11-23T00:00:00"/>
+        <x:d v="1994-11-24T00:00:00"/>
+        <x:d v="1994-11-26T00:00:00"/>
+        <x:d v="1994-12-09T00:00:00"/>
+        <x:d v="1994-12-10T00:00:00"/>
+        <x:d v="1994-12-11T00:00:00"/>
+        <x:d v="1994-12-14T00:00:00"/>
+        <x:d v="1994-12-15T00:00:00"/>
+        <x:d v="1994-12-16T00:00:00"/>
+        <x:d v="1994-12-20T00:00:00"/>
+        <x:d v="1994-12-22T00:00:00"/>
+        <x:d v="1994-12-23T00:00:00"/>
+        <x:d v="1994-12-26T00:00:00"/>
+        <x:d v="1994-12-30T00:00:00"/>
+        <x:d v="1995-01-01T00:00:00"/>
+        <x:d v="1995-01-04T00:00:00"/>
+        <x:d v="1995-01-06T00:00:00"/>
+        <x:d v="1995-01-08T00:00:00"/>
+        <x:d v="1995-01-09T00:00:00"/>
+        <x:d v="1995-01-10T00:00:00"/>
+        <x:d v="1995-01-16T00:00:00"/>
+        <x:d v="1995-01-20T00:00:00"/>
+        <x:d v="1995-01-22T00:00:00"/>
+        <x:d v="1995-01-26T00:00:00"/>
+        <x:d v="1995-02-01T00:00:00"/>
+        <x:d v="1995-02-02T00:00:00"/>
+        <x:d v="1995-02-05T00:00:00"/>
+        <x:m/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Items total">
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="54" maxValue="158922.65" count="205">
+        <x:n v="1250"/>
+        <x:n v="7885"/>
+        <x:n v="4807"/>
+        <x:n v="31987"/>
+        <x:n v="6500"/>
+        <x:n v="1449.5"/>
+        <x:n v="5587"/>
+        <x:n v="4996"/>
+        <x:n v="2679.85"/>
+        <x:n v="5201"/>
+        <x:n v="3115"/>
+        <x:n v="134.85"/>
+        <x:n v="20321.75"/>
+        <x:n v="2605"/>
+        <x:n v="10195"/>
+        <x:n v="5256"/>
+        <x:n v="20602"/>
+        <x:n v="9955"/>
+        <x:n v="3719"/>
+        <x:n v="10064.65"/>
+        <x:n v="4674"/>
+        <x:n v="6897"/>
+        <x:n v="930"/>
+        <x:n v="2920"/>
+        <x:n v="25210"/>
+        <x:n v="343.8"/>
+        <x:n v="20108"/>
+        <x:n v="559.6"/>
+        <x:n v="12685"/>
+        <x:n v="775"/>
+        <x:n v="1238"/>
+        <x:n v="18532"/>
+        <x:n v="560"/>
+        <x:n v="4110"/>
+        <x:n v="3117"/>
+        <x:n v="10152"/>
+        <x:n v="536.8"/>
+        <x:n v="3632"/>
+        <x:n v="7807"/>
+        <x:n v="971.7"/>
+        <x:n v="12455"/>
+        <x:n v="64050"/>
+        <x:n v="787.8"/>
+        <x:n v="766.8"/>
+        <x:n v="15365"/>
+        <x:n v="7346"/>
+        <x:n v="1809.85"/>
+        <x:n v="6287.85"/>
+        <x:n v="325"/>
+        <x:n v="16788"/>
+        <x:n v="24650"/>
+        <x:n v="14188"/>
+        <x:n v="23406"/>
+        <x:n v="19293.7"/>
+        <x:n v="1975"/>
+        <x:n v="12736"/>
+        <x:n v="2150"/>
+        <x:n v="15355"/>
+        <x:n v="24277.3"/>
+        <x:n v="18320"/>
+        <x:n v="61869.3"/>
+        <x:n v="395"/>
+        <x:n v="17814"/>
+        <x:n v="19812"/>
+        <x:n v="4495"/>
+        <x:n v="31847"/>
+        <x:n v="33829.45"/>
+        <x:n v="22354"/>
+        <x:n v="103041"/>
+        <x:n v="3596"/>
+        <x:n v="19414"/>
+        <x:n v="2195"/>
+        <x:n v="8560"/>
+        <x:n v="17781"/>
+        <x:n v="156"/>
+        <x:n v="79116"/>
+        <x:n v="4445"/>
+        <x:n v="9634"/>
+        <x:n v="30566"/>
+        <x:n v="1416.45"/>
+        <x:n v="11164.8"/>
+        <x:n v="1185"/>
+        <x:n v="14049.95"/>
+        <x:n v="14045"/>
+        <x:n v="2706"/>
+        <x:n v="8507"/>
+        <x:n v="1950"/>
+        <x:n v="76698.75"/>
+        <x:n v="479.8"/>
+        <x:n v="4113.75"/>
+        <x:n v="7531.75"/>
+        <x:n v="123740"/>
+        <x:n v="12953.6"/>
+        <x:n v="472.9"/>
+        <x:n v="859.95"/>
+        <x:n v="6094.8"/>
+        <x:n v="11629.85"/>
+        <x:n v="2844"/>
+        <x:n v="39797.7"/>
+        <x:n v="51673.15"/>
+        <x:n v="31219.95"/>
+        <x:n v="3531.8"/>
+        <x:n v="28389"/>
+        <x:n v="203"/>
+        <x:n v="4720.8"/>
+        <x:n v="5565"/>
+        <x:n v="2514.65"/>
+        <x:n v="4894.95"/>
+        <x:n v="23104"/>
+        <x:n v="6734.85"/>
+        <x:n v="21614"/>
+        <x:n v="14557.95"/>
+        <x:n v="784.9"/>
+        <x:n v="820"/>
+        <x:n v="44854"/>
+        <x:n v="13945"/>
+        <x:n v="33071"/>
+        <x:n v="6583.8"/>
+        <x:n v="10107"/>
+        <x:n v="25071"/>
+        <x:n v="8294"/>
+        <x:n v="1004.8"/>
+        <x:n v="6300"/>
+        <x:n v="11989.2"/>
+        <x:n v="906"/>
+        <x:n v="2419"/>
+        <x:n v="6675.95"/>
+        <x:n v="2971"/>
+        <x:n v="6785.4"/>
+        <x:n v="47710.75"/>
+        <x:n v="1240"/>
+        <x:n v="1846"/>
+        <x:n v="3546"/>
+        <x:n v="3087"/>
+        <x:n v="10054"/>
+        <x:n v="4229.8"/>
+        <x:n v="15052"/>
+        <x:n v="5011"/>
+        <x:n v="12900.75"/>
+        <x:n v="7671.9"/>
+        <x:n v="97698.6"/>
+        <x:n v="3860.85"/>
+        <x:n v="13226.8"/>
+        <x:n v="13935.95"/>
+        <x:n v="12367"/>
+        <x:n v="9793.55"/>
+        <x:n v="2206.85"/>
+        <x:n v="102453.6"/>
+        <x:n v="3153"/>
+        <x:n v="342"/>
+        <x:n v="2692.85"/>
+        <x:n v="28862"/>
+        <x:n v="104"/>
+        <x:n v="9471.95"/>
+        <x:n v="5654.8"/>
+        <x:n v="2356.9"/>
+        <x:n v="54"/>
+        <x:n v="13814.05"/>
+        <x:n v="4178.85"/>
+        <x:n v="5511.75"/>
+        <x:n v="3640"/>
+        <x:n v="3650"/>
+        <x:n v="7868"/>
+        <x:n v="5983"/>
+        <x:n v="6731"/>
+        <x:n v="72089.9"/>
+        <x:n v="716"/>
+        <x:n v="1827"/>
+        <x:n v="7990"/>
+        <x:n v="4205"/>
+        <x:n v="10263.75"/>
+        <x:n v="4029.55"/>
+        <x:n v="12949.7"/>
+        <x:n v="20711.9"/>
+        <x:n v="3975.75"/>
+        <x:n v="8305.95"/>
+        <x:n v="51730.8"/>
+        <x:n v="2099"/>
+        <x:n v="45160.1"/>
+        <x:n v="4774.85"/>
+        <x:n v="64115.75"/>
+        <x:n v="2577.85"/>
+        <x:n v="1999"/>
+        <x:n v="158922.65"/>
+        <x:n v="6935"/>
+        <x:n v="1400"/>
+        <x:n v="304"/>
+        <x:n v="16939.5"/>
+        <x:n v="11568"/>
+        <x:n v="4317.75"/>
+        <x:n v="7134"/>
+        <x:n v="7986.9"/>
+        <x:n v="3304.85"/>
+        <x:n v="17917"/>
+        <x:n v="7423.35"/>
+        <x:n v="9897"/>
+        <x:n v="52729.25"/>
+        <x:n v="24485"/>
+        <x:n v="3065"/>
+        <x:n v="465"/>
+        <x:n v="5037.1"/>
+        <x:n v="7572"/>
+        <x:n v="8939.6"/>
+        <x:n v="13908"/>
+        <x:n v="65"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Tax rate">
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="8.5" count="3">
+        <x:n v="4.5"/>
+        <x:n v="0"/>
+        <x:n v="8.5"/>
+      </x:sharedItems>
+    </x:cacheField>
+    <x:cacheField name="Amount paid">
+      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="158922.65" count="184">
+        <x:n v="0"/>
+        <x:n v="7885"/>
+        <x:n v="4807"/>
+        <x:n v="6500"/>
+        <x:n v="4996"/>
+        <x:n v="2679.85"/>
+        <x:n v="5201"/>
+        <x:n v="3115"/>
+        <x:n v="134.85"/>
+        <x:n v="20321.75"/>
+        <x:n v="9955"/>
+        <x:n v="3719"/>
+        <x:n v="10064.65"/>
+        <x:n v="4674"/>
+        <x:n v="6897"/>
+        <x:n v="930"/>
+        <x:n v="2920"/>
+        <x:n v="25210"/>
+        <x:n v="343.8"/>
+        <x:n v="20108"/>
+        <x:n v="559.6"/>
+        <x:n v="12685"/>
+        <x:n v="775"/>
+        <x:n v="1238"/>
+        <x:n v="18532"/>
+        <x:n v="560"/>
+        <x:n v="4110"/>
+        <x:n v="3117"/>
+        <x:n v="10152"/>
+        <x:n v="536.8"/>
+        <x:n v="3632"/>
+        <x:n v="7807"/>
+        <x:n v="971.7"/>
+        <x:n v="12455"/>
+        <x:n v="64050"/>
+        <x:n v="787.8"/>
+        <x:n v="766.8"/>
+        <x:n v="15365"/>
+        <x:n v="7346"/>
+        <x:n v="1809.85"/>
+        <x:n v="6287.85"/>
+        <x:n v="325"/>
+        <x:n v="16788"/>
+        <x:n v="24650"/>
+        <x:n v="14188"/>
+        <x:n v="23406"/>
+        <x:n v="19293.7"/>
+        <x:n v="1975"/>
+        <x:n v="12736"/>
+        <x:n v="2150"/>
+        <x:n v="15355"/>
+        <x:n v="24277.3"/>
+        <x:n v="18320"/>
+        <x:n v="61869.3"/>
+        <x:n v="395"/>
+        <x:n v="17814"/>
+        <x:n v="19812"/>
+        <x:n v="4495"/>
+        <x:n v="31847"/>
+        <x:n v="33829.45"/>
+        <x:n v="22354"/>
+        <x:n v="103041"/>
+        <x:n v="3596"/>
+        <x:n v="19414"/>
+        <x:n v="2195"/>
+        <x:n v="8560"/>
+        <x:n v="17781"/>
+        <x:n v="156"/>
+        <x:n v="79116"/>
+        <x:n v="4445"/>
+        <x:n v="9634"/>
+        <x:n v="30566"/>
+        <x:n v="1416.45"/>
+        <x:n v="11164.8"/>
+        <x:n v="1185"/>
+        <x:n v="14049.95"/>
+        <x:n v="14045"/>
+        <x:n v="2706"/>
+        <x:n v="8507"/>
+        <x:n v="1950"/>
+        <x:n v="76698.75"/>
+        <x:n v="479.8"/>
+        <x:n v="2844"/>
+        <x:n v="39797.7"/>
+        <x:n v="51673.15"/>
+        <x:n v="31219.95"/>
+        <x:n v="3531.8"/>
+        <x:n v="28389"/>
+        <x:n v="203"/>
+        <x:n v="4720.8"/>
+        <x:n v="21614"/>
+        <x:n v="14557.95"/>
+        <x:n v="784.9"/>
+        <x:n v="820"/>
+        <x:n v="44854"/>
+        <x:n v="13945"/>
+        <x:n v="33071"/>
+        <x:n v="6583.8"/>
+        <x:n v="10107"/>
+        <x:n v="25071"/>
+        <x:n v="8294"/>
+        <x:n v="1004.8"/>
+        <x:n v="6300"/>
+        <x:n v="11989.2"/>
+        <x:n v="906"/>
+        <x:n v="2419"/>
+        <x:n v="6675.95"/>
+        <x:n v="2971"/>
+        <x:n v="6785.4"/>
+        <x:n v="47710.75"/>
+        <x:n v="1240"/>
+        <x:n v="1846"/>
+        <x:n v="3546"/>
+        <x:n v="3087"/>
+        <x:n v="10054"/>
+        <x:n v="4229.8"/>
+        <x:n v="15052"/>
+        <x:n v="5011"/>
+        <x:n v="12900.75"/>
+        <x:n v="7671.9"/>
+        <x:n v="97698.6"/>
+        <x:n v="3860.85"/>
+        <x:n v="13226.8"/>
+        <x:n v="13935.95"/>
+        <x:n v="12367"/>
+        <x:n v="9793.55"/>
+        <x:n v="2206.85"/>
+        <x:n v="102453.6"/>
+        <x:n v="3153"/>
+        <x:n v="342"/>
+        <x:n v="2692.85"/>
+        <x:n v="28862"/>
+        <x:n v="104"/>
+        <x:n v="9471.95"/>
+        <x:n v="5654.8"/>
+        <x:n v="2356.9"/>
+        <x:n v="54"/>
+        <x:n v="13814.05"/>
+        <x:n v="4178.85"/>
+        <x:n v="5511.75"/>
+        <x:n v="3640"/>
+        <x:n v="3650"/>
+        <x:n v="7868"/>
+        <x:n v="5983"/>
+        <x:n v="6731"/>
+        <x:n v="72089.9"/>
+        <x:n v="716"/>
+        <x:n v="1827"/>
+        <x:n v="7990"/>
+        <x:n v="4205"/>
+        <x:n v="10263.75"/>
+        <x:n v="4029.55"/>
+        <x:n v="12949.7"/>
+        <x:n v="20711.9"/>
+        <x:n v="3975.75"/>
+        <x:n v="8305.95"/>
+        <x:n v="51730.8"/>
+        <x:n v="2099"/>
+        <x:n v="45160.1"/>
+        <x:n v="4774.85"/>
+        <x:n v="64115.75"/>
+        <x:n v="2577.85"/>
+        <x:n v="1999"/>
+        <x:n v="158922.65"/>
+        <x:n v="6935"/>
+        <x:n v="1400"/>
+        <x:n v="304"/>
+        <x:n v="16939.5"/>
+        <x:n v="11568"/>
+        <x:n v="4317.75"/>
+        <x:n v="7134"/>
+        <x:n v="7986.9"/>
+        <x:n v="3304.85"/>
+        <x:n v="17917"/>
+        <x:n v="7423.35"/>
+        <x:n v="9897"/>
+        <x:n v="52729.25"/>
+        <x:n v="24485"/>
+        <x:n v="3065"/>
+        <x:n v="465"/>
+        <x:n v="5037.1"/>
+        <x:n v="7572"/>
+        <x:n v="8939.6"/>
+        <x:n v="13908"/>
+      </x:sharedItems>
+    </x:cacheField>
+  </x:cacheFields>
+</x:pivotCacheDefinition>
+</file>
+
+<file path=pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -8743,10 +8743,10 @@
     <x:col min="6" max="6" width="13.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="4" spans="1:6" ht="11.25" customHeight="1"/>
-    <x:row r="5" spans="1:6" ht="25.5" customHeight="1"/>
-    <x:row r="8" spans="1:6" ht="12" customHeight="1"/>
-    <x:row r="9" spans="1:6" ht="12.75" customHeight="1"/>
+    <x:row r="4" ht="11.25" customHeight="1"/>
+    <x:row r="5" ht="25.5" customHeight="1"/>
+    <x:row r="8" ht="12" customHeight="1"/>
+    <x:row r="9" ht="12.75" customHeight="1"/>
   </x:sheetData>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -3945,7 +3945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr codeName="Лист3">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
@@ -8716,7 +8716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr codeName="Sheet1">
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -8758,7 +8758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -9676,5 +9676,1851 @@
 </file>
 
 <file path=pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="xr">
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Credit"/>
+    <s v="1003"/>
+    <d v="1988-05-03T00:00:00"/>
+    <n v="1250"/>
+    <n v="4.5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Davy Jones' Locker"/>
+    <s v="Check"/>
+    <s v="1004"/>
+    <d v="1988-04-18T00:00:00"/>
+    <n v="7885"/>
+    <n v="0"/>
+    <n v="7885"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Visa"/>
+    <s v="1005"/>
+    <d v="1988-01-21T00:00:00"/>
+    <n v="4807"/>
+    <n v="0"/>
+    <n v="4807"/>
+  </r>
+  <r>
+    <s v="Blue Jack Aqua Center"/>
+    <s v="Visa"/>
+    <s v="1006"/>
+    <d v="1988-11-07T00:00:00"/>
+    <n v="31987"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Visa"/>
+    <s v="1007"/>
+    <d v="1988-05-02T00:00:00"/>
+    <n v="6500"/>
+    <n v="0"/>
+    <n v="6500"/>
+  </r>
+  <r>
+    <s v="Ocean Paradise"/>
+    <s v="Visa"/>
+    <s v="1008"/>
+    <d v="1988-05-04T00:00:00"/>
+    <n v="1449.5"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="COD"/>
+    <s v="1009"/>
+    <d v="1988-05-12T00:00:00"/>
+    <n v="5587"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Marmot Divers Club"/>
+    <s v="COD"/>
+    <s v="1010"/>
+    <d v="1988-05-12T00:00:00"/>
+    <n v="4996"/>
+    <n v="0"/>
+    <n v="4996"/>
+  </r>
+  <r>
+    <s v="The Depth Charge"/>
+    <s v="COD"/>
+    <s v="1011"/>
+    <d v="1988-05-19T00:00:00"/>
+    <n v="2679.85"/>
+    <n v="0"/>
+    <n v="2679.85"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Credit"/>
+    <s v="1012"/>
+    <d v="1988-05-20T00:00:00"/>
+    <n v="5201"/>
+    <n v="0"/>
+    <n v="5201"/>
+  </r>
+  <r>
+    <s v="Makai SCUBA Club"/>
+    <s v="Credit"/>
+    <s v="1013"/>
+    <d v="1988-05-26T00:00:00"/>
+    <n v="3115"/>
+    <n v="0"/>
+    <n v="3115"/>
+  </r>
+  <r>
+    <s v="Action Club"/>
+    <s v="Credit"/>
+    <s v="1014"/>
+    <d v="1988-05-26T00:00:00"/>
+    <n v="134.85"/>
+    <n v="0"/>
+    <n v="134.85"/>
+  </r>
+  <r>
+    <s v="Jamaica SCUBA Centre"/>
+    <s v="MC"/>
+    <s v="1015"/>
+    <d v="1988-05-26T00:00:00"/>
+    <n v="20321.75"/>
+    <n v="0"/>
+    <n v="20321.75"/>
+  </r>
+  <r>
+    <s v="Island Finders"/>
+    <s v="AmEx"/>
+    <s v="1016"/>
+    <d v="1988-06-03T00:00:00"/>
+    <n v="2605"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="Check"/>
+    <s v="1017"/>
+    <d v="1988-06-13T00:00:00"/>
+    <n v="10195"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Blue Sports Club"/>
+    <s v="Check"/>
+    <s v="1018"/>
+    <d v="1988-06-19T00:00:00"/>
+    <n v="5256"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Frank's Divers Supply"/>
+    <s v="Credit"/>
+    <s v="1019"/>
+    <d v="1988-06-25T00:00:00"/>
+    <n v="20602"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Davy Jones' Locker"/>
+    <s v="Credit"/>
+    <s v="1020"/>
+    <d v="1988-06-25T00:00:00"/>
+    <n v="9955"/>
+    <n v="0"/>
+    <n v="9955"/>
+  </r>
+  <r>
+    <s v="SCUBA Heaven"/>
+    <s v="Credit"/>
+    <s v="1021"/>
+    <d v="1988-06-25T00:00:00"/>
+    <n v="3719"/>
+    <n v="0"/>
+    <n v="3719"/>
+  </r>
+  <r>
+    <s v="SCUBA Heaven"/>
+    <s v="Credit"/>
+    <s v="1022"/>
+    <d v="1988-07-01T00:00:00"/>
+    <n v="10064.65"/>
+    <n v="0"/>
+    <n v="10064.65"/>
+  </r>
+  <r>
+    <s v="Kauai Dive Shoppe"/>
+    <s v="Check"/>
+    <s v="1023"/>
+    <d v="1988-07-02T00:00:00"/>
+    <n v="4674"/>
+    <n v="0"/>
+    <n v="4674"/>
+  </r>
+  <r>
+    <s v="Fisherman's Eye"/>
+    <s v="Check"/>
+    <s v="1024"/>
+    <d v="1988-07-03T00:00:00"/>
+    <n v="6897"/>
+    <n v="0"/>
+    <n v="6897"/>
+  </r>
+  <r>
+    <s v="Ocean Paradise"/>
+    <s v="AmEx"/>
+    <s v="1025"/>
+    <d v="1988-07-04T00:00:00"/>
+    <n v="930"/>
+    <n v="0"/>
+    <n v="930"/>
+  </r>
+  <r>
+    <s v="Makai SCUBA Club"/>
+    <s v="AmEx"/>
+    <s v="1026"/>
+    <d v="1988-07-08T00:00:00"/>
+    <n v="2920"/>
+    <n v="0"/>
+    <n v="2920"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Visa"/>
+    <s v="1027"/>
+    <d v="1988-07-08T00:00:00"/>
+    <n v="25210"/>
+    <n v="0"/>
+    <n v="25210"/>
+  </r>
+  <r>
+    <s v="Jamaica SCUBA Centre"/>
+    <s v="Visa"/>
+    <s v="1028"/>
+    <d v="1988-07-08T00:00:00"/>
+    <n v="343.8"/>
+    <n v="0"/>
+    <n v="343.8"/>
+  </r>
+  <r>
+    <s v="Action Club"/>
+    <s v="MC"/>
+    <s v="1029"/>
+    <d v="1988-07-19T00:00:00"/>
+    <n v="20108"/>
+    <n v="0"/>
+    <n v="20108"/>
+  </r>
+  <r>
+    <s v="Marina SCUBA Center"/>
+    <s v="MC"/>
+    <s v="1030"/>
+    <d v="1988-07-26T00:00:00"/>
+    <n v="559.6"/>
+    <n v="0"/>
+    <n v="559.6"/>
+  </r>
+  <r>
+    <s v="Blue Sports Club"/>
+    <s v="Credit"/>
+    <s v="1031"/>
+    <d v="1988-08-01T00:00:00"/>
+    <n v="12685"/>
+    <n v="0"/>
+    <n v="12685"/>
+  </r>
+  <r>
+    <s v="SCUBA Heaven"/>
+    <s v="Credit"/>
+    <s v="1032"/>
+    <d v="1988-08-01T00:00:00"/>
+    <n v="775"/>
+    <n v="0"/>
+    <n v="775"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Cash"/>
+    <s v="1033"/>
+    <d v="1988-08-02T00:00:00"/>
+    <n v="1238"/>
+    <n v="0"/>
+    <n v="1238"/>
+  </r>
+  <r>
+    <s v="Island Finders"/>
+    <s v="Check"/>
+    <s v="1034"/>
+    <d v="1988-08-14T00:00:00"/>
+    <n v="18532"/>
+    <n v="0"/>
+    <n v="18532"/>
+  </r>
+  <r>
+    <s v="The Depth Charge"/>
+    <s v="Credit"/>
+    <s v="1035"/>
+    <d v="1988-08-17T00:00:00"/>
+    <n v="560"/>
+    <n v="0"/>
+    <n v="560"/>
+  </r>
+  <r>
+    <s v="Tora Tora Tora"/>
+    <s v="Credit"/>
+    <s v="1036"/>
+    <d v="1988-08-26T00:00:00"/>
+    <n v="4110"/>
+    <n v="0"/>
+    <n v="4110"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="Credit"/>
+    <s v="1037"/>
+    <d v="1988-08-27T00:00:00"/>
+    <n v="3117"/>
+    <n v="0"/>
+    <n v="3117"/>
+  </r>
+  <r>
+    <s v="Action Club"/>
+    <s v="Visa"/>
+    <s v="1038"/>
+    <d v="1988-08-27T00:00:00"/>
+    <n v="10152"/>
+    <n v="0"/>
+    <n v="10152"/>
+  </r>
+  <r>
+    <s v="Action Diver Supply"/>
+    <s v="Visa"/>
+    <s v="1039"/>
+    <d v="1988-09-01T00:00:00"/>
+    <n v="536.8"/>
+    <n v="0"/>
+    <n v="536.8"/>
+  </r>
+  <r>
+    <s v="Waterspout SCUBA Center"/>
+    <s v="Visa"/>
+    <s v="1040"/>
+    <d v="1988-09-05T00:00:00"/>
+    <n v="3632"/>
+    <n v="0"/>
+    <n v="3632"/>
+  </r>
+  <r>
+    <s v="Jamaica Sun, Inc."/>
+    <s v="AmEx"/>
+    <s v="1041"/>
+    <d v="1988-09-17T00:00:00"/>
+    <n v="7807"/>
+    <n v="0"/>
+    <n v="7807"/>
+  </r>
+  <r>
+    <s v="Blue Glass Happiness"/>
+    <s v="AmEx"/>
+    <s v="1042"/>
+    <d v="1988-09-25T00:00:00"/>
+    <n v="971.7"/>
+    <n v="0"/>
+    <n v="971.7"/>
+  </r>
+  <r>
+    <s v="Princess Island SCUBA"/>
+    <s v="Credit"/>
+    <s v="1043"/>
+    <d v="1988-10-01T00:00:00"/>
+    <n v="12455"/>
+    <n v="0"/>
+    <n v="12455"/>
+  </r>
+  <r>
+    <s v="Ocean Adventures"/>
+    <s v="Credit"/>
+    <s v="1044"/>
+    <d v="1988-10-09T00:00:00"/>
+    <n v="64050"/>
+    <n v="0"/>
+    <n v="64050"/>
+  </r>
+  <r>
+    <s v="Neptune's Trident Supply"/>
+    <s v="Credit"/>
+    <s v="1045"/>
+    <d v="1988-10-17T00:00:00"/>
+    <n v="787.8"/>
+    <n v="0"/>
+    <n v="787.8"/>
+  </r>
+  <r>
+    <s v="Divers of Corfu, Inc."/>
+    <s v="Check"/>
+    <s v="1046"/>
+    <d v="1988-11-13T00:00:00"/>
+    <n v="766.8"/>
+    <n v="0"/>
+    <n v="766.8"/>
+  </r>
+  <r>
+    <s v="Ocean Adventures"/>
+    <s v="Cash"/>
+    <s v="1047"/>
+    <d v="1988-11-28T00:00:00"/>
+    <n v="15365"/>
+    <n v="0"/>
+    <n v="15365"/>
+  </r>
+  <r>
+    <s v="Divers-for-Hire"/>
+    <s v="Visa"/>
+    <s v="1048"/>
+    <d v="1988-12-03T00:00:00"/>
+    <n v="7346"/>
+    <n v="0"/>
+    <n v="7346"/>
+  </r>
+  <r>
+    <s v="Neptune's Trident Supply"/>
+    <s v="MC"/>
+    <s v="1049"/>
+    <d v="1988-12-14T00:00:00"/>
+    <n v="1809.85"/>
+    <n v="0"/>
+    <n v="1809.85"/>
+  </r>
+  <r>
+    <s v="Underwater Sports Co."/>
+    <s v="AmEx"/>
+    <s v="1050"/>
+    <d v="1988-12-25T00:00:00"/>
+    <n v="6287.85"/>
+    <n v="0"/>
+    <n v="6287.85"/>
+  </r>
+  <r>
+    <s v="Shangri-La Sports Center"/>
+    <s v="Credit"/>
+    <s v="1051"/>
+    <d v="1989-01-05T00:00:00"/>
+    <n v="325"/>
+    <n v="0"/>
+    <n v="325"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Credit"/>
+    <s v="1052"/>
+    <d v="1989-01-07T00:00:00"/>
+    <n v="16788"/>
+    <n v="0"/>
+    <n v="16788"/>
+  </r>
+  <r>
+    <s v="The Diving Company"/>
+    <s v="Credit"/>
+    <s v="1053"/>
+    <d v="1989-01-16T00:00:00"/>
+    <n v="24650"/>
+    <n v="0"/>
+    <n v="24650"/>
+  </r>
+  <r>
+    <s v="Divers-for-Hire"/>
+    <s v="Visa"/>
+    <s v="1054"/>
+    <d v="1989-02-01T00:00:00"/>
+    <n v="14188"/>
+    <n v="0"/>
+    <n v="14188"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Credit"/>
+    <s v="1055"/>
+    <d v="1989-02-05T00:00:00"/>
+    <n v="23406"/>
+    <n v="0"/>
+    <n v="23406"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="MC"/>
+    <s v="1056"/>
+    <d v="1989-02-09T00:00:00"/>
+    <n v="19293.7"/>
+    <n v="0"/>
+    <n v="19293.7"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Credit"/>
+    <s v="1057"/>
+    <d v="1989-02-19T00:00:00"/>
+    <n v="1975"/>
+    <n v="0"/>
+    <n v="1975"/>
+  </r>
+  <r>
+    <s v="Blue Sports Club"/>
+    <s v="Credit"/>
+    <s v="1058"/>
+    <d v="1989-02-22T00:00:00"/>
+    <n v="12736"/>
+    <n v="0"/>
+    <n v="12736"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Cash"/>
+    <s v="1059"/>
+    <d v="1989-02-25T00:00:00"/>
+    <n v="2150"/>
+    <n v="8.5"/>
+    <n v="2150"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="Check"/>
+    <s v="1060"/>
+    <d v="1989-03-01T00:00:00"/>
+    <n v="15355"/>
+    <n v="0"/>
+    <n v="15355"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Credit"/>
+    <s v="1061"/>
+    <d v="1989-03-04T00:00:00"/>
+    <n v="24277.3"/>
+    <n v="0"/>
+    <n v="24277.3"/>
+  </r>
+  <r>
+    <s v="Blue Sports Club"/>
+    <s v="Credit"/>
+    <s v="1062"/>
+    <d v="1989-03-09T00:00:00"/>
+    <n v="18320"/>
+    <n v="0"/>
+    <n v="18320"/>
+  </r>
+  <r>
+    <s v="Gold Coast Supply"/>
+    <s v="Credit"/>
+    <s v="1063"/>
+    <d v="1989-03-14T00:00:00"/>
+    <n v="61869.3"/>
+    <n v="0"/>
+    <n v="61869.3"/>
+  </r>
+  <r>
+    <s v="Blue Sports Club"/>
+    <s v="Credit"/>
+    <s v="1064"/>
+    <d v="1989-03-25T00:00:00"/>
+    <n v="395"/>
+    <n v="0"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <s v="Aquatic Drama"/>
+    <s v="Visa"/>
+    <s v="1065"/>
+    <d v="1989-03-26T00:00:00"/>
+    <n v="17814"/>
+    <n v="0"/>
+    <n v="17814"/>
+  </r>
+  <r>
+    <s v="Catamaran Dive Club"/>
+    <s v="Visa"/>
+    <s v="1066"/>
+    <d v="1989-03-27T00:00:00"/>
+    <n v="19812"/>
+    <n v="0"/>
+    <n v="19812"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Visa"/>
+    <s v="1067"/>
+    <d v="1989-04-02T00:00:00"/>
+    <n v="4495"/>
+    <n v="0"/>
+    <n v="4495"/>
+  </r>
+  <r>
+    <s v="On-Target SCUBA"/>
+    <s v="MC"/>
+    <s v="1068"/>
+    <d v="1989-04-04T00:00:00"/>
+    <n v="31847"/>
+    <n v="0"/>
+    <n v="31847"/>
+  </r>
+  <r>
+    <s v="George Bean &amp; Co."/>
+    <s v="Credit"/>
+    <s v="1069"/>
+    <d v="1989-04-06T00:00:00"/>
+    <n v="33829.45"/>
+    <n v="0"/>
+    <n v="33829.45"/>
+  </r>
+  <r>
+    <s v="Underwater SCUBA Company"/>
+    <s v="Credit"/>
+    <s v="1070"/>
+    <d v="1989-04-08T00:00:00"/>
+    <n v="22354"/>
+    <n v="0"/>
+    <n v="22354"/>
+  </r>
+  <r>
+    <s v="The Depth Charge"/>
+    <s v="Cash"/>
+    <s v="1071"/>
+    <d v="1989-04-10T00:00:00"/>
+    <n v="103041"/>
+    <n v="0"/>
+    <n v="103041"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Cash"/>
+    <s v="1072"/>
+    <d v="1989-04-12T00:00:00"/>
+    <n v="3596"/>
+    <n v="0"/>
+    <n v="3596"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="MC"/>
+    <s v="1073"/>
+    <d v="1989-04-16T00:00:00"/>
+    <n v="19414"/>
+    <n v="0"/>
+    <n v="19414"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="MC"/>
+    <s v="1074"/>
+    <d v="1989-04-20T00:00:00"/>
+    <n v="2195"/>
+    <n v="0"/>
+    <n v="2195"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="MC"/>
+    <s v="1075"/>
+    <d v="1989-04-22T00:00:00"/>
+    <n v="8560"/>
+    <n v="0"/>
+    <n v="8560"/>
+  </r>
+  <r>
+    <s v="Kauai Dive Shoppe"/>
+    <s v="Visa"/>
+    <s v="1076"/>
+    <d v="1989-04-26T00:00:00"/>
+    <n v="17781"/>
+    <n v="0"/>
+    <n v="17781"/>
+  </r>
+  <r>
+    <s v="Marmot Divers Club"/>
+    <s v="Credit"/>
+    <s v="1077"/>
+    <d v="1989-05-01T00:00:00"/>
+    <n v="156"/>
+    <n v="0"/>
+    <n v="156"/>
+  </r>
+  <r>
+    <s v="Divers of Blue-green"/>
+    <s v="Credit"/>
+    <s v="1078"/>
+    <d v="1989-05-02T00:00:00"/>
+    <n v="79116"/>
+    <n v="0"/>
+    <n v="79116"/>
+  </r>
+  <r>
+    <s v="Blue Jack Aqua Center"/>
+    <s v="Credit"/>
+    <s v="1079"/>
+    <d v="1989-05-04T00:00:00"/>
+    <n v="4445"/>
+    <n v="0"/>
+    <n v="4445"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Credit"/>
+    <s v="1080"/>
+    <d v="1989-05-06T00:00:00"/>
+    <n v="9634"/>
+    <n v="0"/>
+    <n v="9634"/>
+  </r>
+  <r>
+    <s v="Gold Coast Supply"/>
+    <s v="AmEx"/>
+    <s v="1081"/>
+    <d v="1989-05-08T00:00:00"/>
+    <n v="30566"/>
+    <n v="0"/>
+    <n v="30566"/>
+  </r>
+  <r>
+    <s v="Marmot Divers Club"/>
+    <s v="AmEx"/>
+    <s v="1082"/>
+    <d v="1989-05-10T00:00:00"/>
+    <n v="1416.45"/>
+    <n v="0"/>
+    <n v="1416.45"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Cash"/>
+    <s v="1083"/>
+    <d v="1989-05-10T00:00:00"/>
+    <n v="11164.8"/>
+    <n v="0"/>
+    <n v="11164.8"/>
+  </r>
+  <r>
+    <s v="Island Finders"/>
+    <s v="Cash"/>
+    <s v="1084"/>
+    <d v="1989-05-12T00:00:00"/>
+    <n v="1185"/>
+    <n v="0"/>
+    <n v="1185"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="Cash"/>
+    <s v="1086"/>
+    <d v="1989-05-19T00:00:00"/>
+    <n v="14049.95"/>
+    <n v="0"/>
+    <n v="14049.95"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Credit"/>
+    <s v="1087"/>
+    <d v="1989-05-21T00:00:00"/>
+    <n v="14045"/>
+    <n v="0"/>
+    <n v="14045"/>
+  </r>
+  <r>
+    <s v="Fisherman's Eye"/>
+    <s v="Credit"/>
+    <s v="1089"/>
+    <d v="1989-05-23T00:00:00"/>
+    <n v="2706"/>
+    <n v="0"/>
+    <n v="2706"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="Credit"/>
+    <s v="1090"/>
+    <d v="1989-05-26T00:00:00"/>
+    <n v="8507"/>
+    <n v="0"/>
+    <n v="8507"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Credit"/>
+    <s v="1091"/>
+    <d v="1989-06-01T00:00:00"/>
+    <n v="1950"/>
+    <n v="0"/>
+    <n v="1950"/>
+  </r>
+  <r>
+    <s v="Norwest'er SCUBA Limited"/>
+    <s v="Visa"/>
+    <s v="1092"/>
+    <d v="1989-06-01T00:00:00"/>
+    <n v="76698.75"/>
+    <n v="0"/>
+    <n v="76698.75"/>
+  </r>
+  <r>
+    <s v="Island Finders"/>
+    <s v="Visa"/>
+    <s v="1093"/>
+    <d v="1989-06-02T00:00:00"/>
+    <n v="479.8"/>
+    <n v="0"/>
+    <n v="479.8"/>
+  </r>
+  <r>
+    <s v="Safari Under the Sea"/>
+    <s v="MC"/>
+    <s v="1094"/>
+    <d v="1989-06-04T00:00:00"/>
+    <n v="4113.75"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Davy Jones' Locker"/>
+    <s v="MC"/>
+    <s v="1095"/>
+    <d v="1989-06-06T00:00:00"/>
+    <n v="7531.75"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Kirk Enterprises"/>
+    <s v="MC"/>
+    <s v="1096"/>
+    <d v="1989-06-09T00:00:00"/>
+    <n v="123740"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Marina SCUBA Center"/>
+    <s v="MC"/>
+    <s v="1097"/>
+    <d v="1989-06-12T00:00:00"/>
+    <n v="12953.6"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Divers of Corfu, Inc."/>
+    <s v="Credit"/>
+    <s v="1098"/>
+    <d v="1989-06-14T00:00:00"/>
+    <n v="472.9"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="Credit"/>
+    <s v="1099"/>
+    <d v="1989-06-16T00:00:00"/>
+    <n v="859.95"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Credit"/>
+    <s v="1100"/>
+    <d v="1989-06-20T00:00:00"/>
+    <n v="6094.8"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Shangri-La Sports Center"/>
+    <s v="Credit"/>
+    <s v="1101"/>
+    <d v="1989-07-04T00:00:00"/>
+    <n v="11629.85"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="Credit"/>
+    <s v="1102"/>
+    <d v="1992-06-06T00:00:00"/>
+    <n v="2844"/>
+    <n v="0"/>
+    <n v="2844"/>
+  </r>
+  <r>
+    <s v="Gold Coast Supply"/>
+    <s v="Credit"/>
+    <s v="1103"/>
+    <d v="1992-07-13T00:00:00"/>
+    <n v="39797.7"/>
+    <n v="0"/>
+    <n v="39797.7"/>
+  </r>
+  <r>
+    <s v="Cayman Divers World Unlimited"/>
+    <s v="Check"/>
+    <s v="1104"/>
+    <d v="1992-07-18T00:00:00"/>
+    <n v="51673.15"/>
+    <n v="0"/>
+    <n v="51673.15"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Visa"/>
+    <s v="1105"/>
+    <d v="1992-07-21T00:00:00"/>
+    <n v="31219.95"/>
+    <n v="0"/>
+    <n v="31219.95"/>
+  </r>
+  <r>
+    <s v="Blue Jack Aqua Center"/>
+    <s v="Visa"/>
+    <s v="1106"/>
+    <d v="1992-09-23T00:00:00"/>
+    <n v="3531.8"/>
+    <n v="0"/>
+    <n v="3531.8"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Visa"/>
+    <s v="1107"/>
+    <d v="1992-10-24T00:00:00"/>
+    <n v="28389"/>
+    <n v="0"/>
+    <n v="28389"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="COD"/>
+    <s v="1109"/>
+    <d v="1992-11-13T00:00:00"/>
+    <n v="203"/>
+    <n v="0"/>
+    <n v="203"/>
+  </r>
+  <r>
+    <s v="The Depth Charge"/>
+    <s v="COD"/>
+    <s v="1111"/>
+    <d v="1992-12-14T00:00:00"/>
+    <n v="4720.8"/>
+    <n v="0"/>
+    <n v="4720.8"/>
+  </r>
+  <r>
+    <s v="On-Target SCUBA"/>
+    <s v="Credit"/>
+    <s v="1112"/>
+    <d v="1993-01-02T00:00:00"/>
+    <n v="5565"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Makai SCUBA Club"/>
+    <s v="Credit"/>
+    <s v="1113"/>
+    <d v="1993-02-12T00:00:00"/>
+    <n v="2514.65"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Underwater Fantasy"/>
+    <s v="MC"/>
+    <s v="1115"/>
+    <d v="1993-03-13T00:00:00"/>
+    <n v="4894.95"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Island Finders"/>
+    <s v="AmEx"/>
+    <s v="1116"/>
+    <d v="1993-03-21T00:00:00"/>
+    <n v="23104"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="Check"/>
+    <s v="1117"/>
+    <d v="1993-04-13T00:00:00"/>
+    <n v="6734.85"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Blue Sports Club"/>
+    <s v="Check"/>
+    <s v="1118"/>
+    <d v="1993-04-23T00:00:00"/>
+    <n v="21614"/>
+    <n v="0"/>
+    <n v="21614"/>
+  </r>
+  <r>
+    <s v="Tora Tora Tora"/>
+    <s v="Credit"/>
+    <s v="1119"/>
+    <d v="1993-05-15T00:00:00"/>
+    <n v="14557.95"/>
+    <n v="0"/>
+    <n v="14557.95"/>
+  </r>
+  <r>
+    <s v="Davy Jones' Locker"/>
+    <s v="Credit"/>
+    <s v="1120"/>
+    <d v="1993-05-25T00:00:00"/>
+    <n v="784.9"/>
+    <n v="0"/>
+    <n v="784.9"/>
+  </r>
+  <r>
+    <s v="SCUBA Heaven"/>
+    <s v="Credit"/>
+    <s v="1121"/>
+    <d v="1993-06-02T00:00:00"/>
+    <n v="820"/>
+    <n v="0"/>
+    <n v="820"/>
+  </r>
+  <r>
+    <s v="SCUBA Heaven"/>
+    <s v="Credit"/>
+    <s v="1122"/>
+    <d v="1993-07-23T00:00:00"/>
+    <n v="44854"/>
+    <n v="0"/>
+    <n v="44854"/>
+  </r>
+  <r>
+    <s v="Kauai Dive Shoppe"/>
+    <s v="Check"/>
+    <s v="1123"/>
+    <d v="1993-08-24T00:00:00"/>
+    <n v="13945"/>
+    <n v="0"/>
+    <n v="13945"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Check"/>
+    <s v="1124"/>
+    <d v="1993-09-01T00:00:00"/>
+    <n v="33071"/>
+    <n v="0"/>
+    <n v="33071"/>
+  </r>
+  <r>
+    <s v="Ocean Paradise"/>
+    <s v="AmEx"/>
+    <s v="1125"/>
+    <d v="1993-09-04T00:00:00"/>
+    <n v="6583.8"/>
+    <n v="0"/>
+    <n v="6583.8"/>
+  </r>
+  <r>
+    <s v="Makai SCUBA Club"/>
+    <s v="AmEx"/>
+    <s v="1126"/>
+    <d v="1993-10-01T00:00:00"/>
+    <n v="10107"/>
+    <n v="0"/>
+    <n v="10107"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Visa"/>
+    <s v="1127"/>
+    <d v="1993-10-02T00:00:00"/>
+    <n v="25071"/>
+    <n v="0"/>
+    <n v="25071"/>
+  </r>
+  <r>
+    <s v="Jamaica SCUBA Centre"/>
+    <s v="Visa"/>
+    <s v="1128"/>
+    <d v="1993-10-08T00:00:00"/>
+    <n v="8294"/>
+    <n v="0"/>
+    <n v="8294"/>
+  </r>
+  <r>
+    <s v="Action Club"/>
+    <s v="MC"/>
+    <s v="1129"/>
+    <d v="1993-10-19T00:00:00"/>
+    <n v="1004.8"/>
+    <n v="0"/>
+    <n v="1004.8"/>
+  </r>
+  <r>
+    <s v="Divers of Venice"/>
+    <s v="MC"/>
+    <s v="1130"/>
+    <d v="1993-10-26T00:00:00"/>
+    <n v="6300"/>
+    <n v="0"/>
+    <n v="6300"/>
+  </r>
+  <r>
+    <s v="Blue Sports Club"/>
+    <s v="Credit"/>
+    <s v="1131"/>
+    <d v="1993-11-01T00:00:00"/>
+    <n v="11989.2"/>
+    <n v="0"/>
+    <n v="11989.2"/>
+  </r>
+  <r>
+    <s v="SCUBA Heaven"/>
+    <s v="Credit"/>
+    <s v="1132"/>
+    <d v="1993-11-01T00:00:00"/>
+    <n v="906"/>
+    <n v="0"/>
+    <n v="906"/>
+  </r>
+  <r>
+    <s v="Fisherman's Eye"/>
+    <s v="Cash"/>
+    <s v="1133"/>
+    <d v="1993-11-02T00:00:00"/>
+    <n v="2419"/>
+    <n v="0"/>
+    <n v="2419"/>
+  </r>
+  <r>
+    <s v="Central Underwater Supplies"/>
+    <s v="Check"/>
+    <s v="1134"/>
+    <d v="1993-11-14T00:00:00"/>
+    <n v="6675.95"/>
+    <n v="0"/>
+    <n v="6675.95"/>
+  </r>
+  <r>
+    <s v="SCUBA Heaven"/>
+    <s v="Credit"/>
+    <s v="1136"/>
+    <d v="1993-11-27T00:00:00"/>
+    <n v="2971"/>
+    <n v="0"/>
+    <n v="2971"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="Credit"/>
+    <s v="1137"/>
+    <d v="1993-11-27T00:00:00"/>
+    <n v="6785.4"/>
+    <n v="0"/>
+    <n v="6785.4"/>
+  </r>
+  <r>
+    <s v="Ocean Paradise"/>
+    <s v="Visa"/>
+    <s v="1139"/>
+    <d v="1993-12-01T00:00:00"/>
+    <n v="47710.75"/>
+    <n v="0"/>
+    <n v="47710.75"/>
+  </r>
+  <r>
+    <s v="Waterspout SCUBA Center"/>
+    <s v="Visa"/>
+    <s v="1140"/>
+    <d v="1993-12-12T00:00:00"/>
+    <n v="1240"/>
+    <n v="0"/>
+    <n v="1240"/>
+  </r>
+  <r>
+    <s v="Jamaica Sun, Inc."/>
+    <s v="AmEx"/>
+    <s v="1141"/>
+    <d v="1993-12-17T00:00:00"/>
+    <n v="1846"/>
+    <n v="0"/>
+    <n v="1846"/>
+  </r>
+  <r>
+    <s v="Blue Glass Happiness"/>
+    <s v="AmEx"/>
+    <s v="1142"/>
+    <d v="1993-12-25T00:00:00"/>
+    <n v="3546"/>
+    <n v="0"/>
+    <n v="3546"/>
+  </r>
+  <r>
+    <s v="Princess Island SCUBA"/>
+    <s v="Credit"/>
+    <s v="1143"/>
+    <d v="1994-01-01T00:00:00"/>
+    <n v="3087"/>
+    <n v="0"/>
+    <n v="3087"/>
+  </r>
+  <r>
+    <s v="Ocean Adventures"/>
+    <s v="Credit"/>
+    <s v="1144"/>
+    <d v="1994-01-09T00:00:00"/>
+    <n v="10054"/>
+    <n v="0"/>
+    <n v="10054"/>
+  </r>
+  <r>
+    <s v="Neptune's Trident Supply"/>
+    <s v="Credit"/>
+    <s v="1145"/>
+    <d v="1994-01-17T00:00:00"/>
+    <n v="4229.8"/>
+    <n v="0"/>
+    <n v="4229.8"/>
+  </r>
+  <r>
+    <s v="Divers of Corfu, Inc."/>
+    <s v="Check"/>
+    <s v="1146"/>
+    <d v="1994-02-13T00:00:00"/>
+    <n v="15052"/>
+    <n v="0"/>
+    <n v="15052"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Visa"/>
+    <s v="1148"/>
+    <d v="1994-03-03T00:00:00"/>
+    <n v="5011"/>
+    <n v="0"/>
+    <n v="5011"/>
+  </r>
+  <r>
+    <s v="Neptune's Trident Supply"/>
+    <s v="MC"/>
+    <s v="1149"/>
+    <d v="1994-03-14T00:00:00"/>
+    <n v="12900.75"/>
+    <n v="0"/>
+    <n v="12900.75"/>
+  </r>
+  <r>
+    <s v="Underwater Sports Co."/>
+    <s v="AmEx"/>
+    <s v="1150"/>
+    <d v="1994-03-25T00:00:00"/>
+    <n v="7671.9"/>
+    <n v="0"/>
+    <n v="7671.9"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Credit"/>
+    <s v="1152"/>
+    <d v="1994-04-07T00:00:00"/>
+    <n v="97698.6"/>
+    <n v="0"/>
+    <n v="97698.6"/>
+  </r>
+  <r>
+    <s v="Blue Jack Aqua Center"/>
+    <s v="Credit"/>
+    <s v="1153"/>
+    <d v="1994-04-16T00:00:00"/>
+    <n v="3860.85"/>
+    <n v="0"/>
+    <n v="3860.85"/>
+  </r>
+  <r>
+    <s v="The Depth Charge"/>
+    <s v="Visa"/>
+    <s v="1154"/>
+    <d v="1994-05-01T00:00:00"/>
+    <n v="13226.8"/>
+    <n v="0"/>
+    <n v="13226.8"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Credit"/>
+    <s v="1155"/>
+    <d v="1994-05-05T00:00:00"/>
+    <n v="13935.95"/>
+    <n v="0"/>
+    <n v="13935.95"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="MC"/>
+    <s v="1156"/>
+    <d v="1994-05-09T00:00:00"/>
+    <n v="12367"/>
+    <n v="0"/>
+    <n v="12367"/>
+  </r>
+  <r>
+    <s v="Larry's Diving School"/>
+    <s v="Credit"/>
+    <s v="1158"/>
+    <d v="1994-05-22T00:00:00"/>
+    <n v="9793.55"/>
+    <n v="0"/>
+    <n v="9793.55"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="Check"/>
+    <s v="1160"/>
+    <d v="1994-06-01T00:00:00"/>
+    <n v="2206.85"/>
+    <n v="0"/>
+    <n v="2206.85"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Credit"/>
+    <s v="1161"/>
+    <d v="1994-06-04T00:00:00"/>
+    <n v="102453.6"/>
+    <n v="0"/>
+    <n v="102453.6"/>
+  </r>
+  <r>
+    <s v="Blue Sports Club"/>
+    <s v="Credit"/>
+    <s v="1162"/>
+    <d v="1994-06-09T00:00:00"/>
+    <n v="3153"/>
+    <n v="0"/>
+    <n v="3153"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Credit"/>
+    <s v="1163"/>
+    <d v="1994-06-14T00:00:00"/>
+    <n v="342"/>
+    <n v="0"/>
+    <n v="342"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="Visa"/>
+    <s v="1165"/>
+    <d v="1994-06-26T00:00:00"/>
+    <n v="2692.85"/>
+    <n v="0"/>
+    <n v="2692.85"/>
+  </r>
+  <r>
+    <s v="Catamaran Dive Club"/>
+    <s v="Visa"/>
+    <s v="1166"/>
+    <d v="1994-07-01T00:00:00"/>
+    <n v="28862"/>
+    <n v="0"/>
+    <n v="28862"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="MC"/>
+    <s v="1168"/>
+    <d v="1994-07-04T00:00:00"/>
+    <n v="104"/>
+    <n v="0"/>
+    <n v="104"/>
+  </r>
+  <r>
+    <s v="Kauai Dive Shoppe"/>
+    <s v="Credit"/>
+    <s v="1169"/>
+    <d v="1994-07-06T00:00:00"/>
+    <n v="9471.95"/>
+    <n v="0"/>
+    <n v="9471.95"/>
+  </r>
+  <r>
+    <s v="Marmot Divers Club"/>
+    <s v="Credit"/>
+    <s v="1170"/>
+    <d v="1994-07-08T00:00:00"/>
+    <n v="5654.8"/>
+    <n v="0"/>
+    <n v="5654.8"/>
+  </r>
+  <r>
+    <s v="The Depth Charge"/>
+    <s v="Cash"/>
+    <s v="1171"/>
+    <d v="1994-07-10T00:00:00"/>
+    <n v="2356.9"/>
+    <n v="0"/>
+    <n v="2356.9"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="MC"/>
+    <s v="1173"/>
+    <d v="1994-07-16T00:00:00"/>
+    <n v="54"/>
+    <n v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <s v="San Pablo Dive Center"/>
+    <s v="MC"/>
+    <s v="1175"/>
+    <d v="1994-07-22T00:00:00"/>
+    <n v="13814.05"/>
+    <n v="0"/>
+    <n v="13814.05"/>
+  </r>
+  <r>
+    <s v="Kauai Dive Shoppe"/>
+    <s v="Visa"/>
+    <s v="1176"/>
+    <d v="1994-07-26T00:00:00"/>
+    <n v="4178.85"/>
+    <n v="0"/>
+    <n v="4178.85"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="Credit"/>
+    <s v="1178"/>
+    <d v="1994-08-02T00:00:00"/>
+    <n v="5511.75"/>
+    <n v="0"/>
+    <n v="5511.75"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Credit"/>
+    <s v="1180"/>
+    <d v="1994-08-06T00:00:00"/>
+    <n v="3640"/>
+    <n v="0"/>
+    <n v="3640"/>
+  </r>
+  <r>
+    <s v="On-Target SCUBA"/>
+    <s v="Cash"/>
+    <s v="1183"/>
+    <d v="1994-08-10T00:00:00"/>
+    <n v="3650"/>
+    <n v="0"/>
+    <n v="3650"/>
+  </r>
+  <r>
+    <s v="Tora Tora Tora"/>
+    <s v="MC"/>
+    <s v="1195"/>
+    <d v="1994-09-06T00:00:00"/>
+    <n v="7868"/>
+    <n v="0"/>
+    <n v="7868"/>
+  </r>
+  <r>
+    <s v="Kirk Enterprises"/>
+    <s v="MC"/>
+    <s v="1196"/>
+    <d v="1994-09-08T00:00:00"/>
+    <n v="5983"/>
+    <n v="0"/>
+    <n v="5983"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="MC"/>
+    <s v="1197"/>
+    <d v="1994-09-12T00:00:00"/>
+    <n v="6731"/>
+    <n v="0"/>
+    <n v="6731"/>
+  </r>
+  <r>
+    <s v="Divers of Corfu, Inc."/>
+    <s v="Credit"/>
+    <s v="1198"/>
+    <d v="1994-09-14T00:00:00"/>
+    <n v="72089.9"/>
+    <n v="0"/>
+    <n v="72089.9"/>
+  </r>
+  <r>
+    <s v="Safari Under the Sea"/>
+    <s v="Credit"/>
+    <s v="1199"/>
+    <d v="1994-09-16T00:00:00"/>
+    <n v="716"/>
+    <n v="0"/>
+    <n v="716"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Credit"/>
+    <s v="1200"/>
+    <d v="1994-09-20T00:00:00"/>
+    <n v="1827"/>
+    <n v="0"/>
+    <n v="1827"/>
+  </r>
+  <r>
+    <s v="Professional Divers, Ltd."/>
+    <s v="Credit"/>
+    <s v="1201"/>
+    <d v="1994-10-04T00:00:00"/>
+    <n v="7990"/>
+    <n v="0"/>
+    <n v="7990"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="Credit"/>
+    <s v="1202"/>
+    <d v="1994-10-06T00:00:00"/>
+    <n v="4205"/>
+    <n v="0"/>
+    <n v="4205"/>
+  </r>
+  <r>
+    <s v="American SCUBA Supply"/>
+    <s v="Check"/>
+    <s v="1204"/>
+    <d v="1994-10-18T00:00:00"/>
+    <n v="10263.75"/>
+    <n v="0"/>
+    <n v="10263.75"/>
+  </r>
+  <r>
+    <s v="Catamaran Dive Club"/>
+    <s v="Visa"/>
+    <s v="1205"/>
+    <d v="1994-10-21T00:00:00"/>
+    <n v="4029.55"/>
+    <n v="0"/>
+    <n v="4029.55"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Visa"/>
+    <s v="1207"/>
+    <d v="1994-11-11T00:00:00"/>
+    <n v="12949.7"/>
+    <n v="0"/>
+    <n v="12949.7"/>
+  </r>
+  <r>
+    <s v="Fantastique Aquatica"/>
+    <s v="COD"/>
+    <s v="1209"/>
+    <d v="1994-11-12T00:00:00"/>
+    <n v="20711.9"/>
+    <n v="0"/>
+    <n v="20711.9"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Credit"/>
+    <s v="1212"/>
+    <d v="1994-11-14T00:00:00"/>
+    <n v="3975.75"/>
+    <n v="0"/>
+    <n v="3975.75"/>
+  </r>
+  <r>
+    <s v="Jamaica SCUBA Centre"/>
+    <s v="MC"/>
+    <s v="1215"/>
+    <d v="1994-11-16T00:00:00"/>
+    <n v="8305.95"/>
+    <n v="0"/>
+    <n v="8305.95"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="Check"/>
+    <s v="1217"/>
+    <d v="1994-11-22T00:00:00"/>
+    <n v="51730.8"/>
+    <n v="0"/>
+    <n v="51730.8"/>
+  </r>
+  <r>
+    <s v="SCUBA Heaven"/>
+    <s v="Credit"/>
+    <s v="1221"/>
+    <d v="1994-11-23T00:00:00"/>
+    <n v="2099"/>
+    <n v="0"/>
+    <n v="2099"/>
+  </r>
+  <r>
+    <s v="Underwater Sports Co."/>
+    <s v="AmEx"/>
+    <s v="1250"/>
+    <d v="1994-11-24T00:00:00"/>
+    <n v="45160.1"/>
+    <n v="0"/>
+    <n v="45160.1"/>
+  </r>
+  <r>
+    <s v="Blue Jack Aqua Center"/>
+    <s v="Credit"/>
+    <s v="1253"/>
+    <d v="1994-11-26T00:00:00"/>
+    <n v="4774.85"/>
+    <n v="0"/>
+    <n v="4774.85"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="Credit"/>
+    <s v="1255"/>
+    <d v="1994-12-09T00:00:00"/>
+    <n v="64115.75"/>
+    <n v="0"/>
+    <n v="64115.75"/>
+  </r>
+  <r>
+    <s v="Divers of Blue-green"/>
+    <s v="Check"/>
+    <s v="1260"/>
+    <d v="1994-12-10T00:00:00"/>
+    <n v="2577.85"/>
+    <n v="0"/>
+    <n v="2577.85"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Credit"/>
+    <s v="1261"/>
+    <d v="1994-12-11T00:00:00"/>
+    <n v="1999"/>
+    <n v="0"/>
+    <n v="1999"/>
+  </r>
+  <r>
+    <s v="American SCUBA Supply"/>
+    <s v="Credit"/>
+    <s v="1263"/>
+    <d v="1994-12-14T00:00:00"/>
+    <n v="158922.65"/>
+    <n v="0"/>
+    <n v="158922.65"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Visa"/>
+    <s v="1266"/>
+    <d v="1994-12-15T00:00:00"/>
+    <n v="6935"/>
+    <n v="0"/>
+    <n v="6935"/>
+  </r>
+  <r>
+    <s v="Kauai Dive Shoppe"/>
+    <s v="Credit"/>
+    <s v="1269"/>
+    <d v="1994-12-16T00:00:00"/>
+    <n v="1400"/>
+    <n v="0"/>
+    <n v="1400"/>
+  </r>
+  <r>
+    <s v="The Depth Charge"/>
+    <s v="Cash"/>
+    <s v="1271"/>
+    <d v="1994-12-20T00:00:00"/>
+    <n v="304"/>
+    <n v="0"/>
+    <n v="304"/>
+  </r>
+  <r>
+    <s v="Sight Diver"/>
+    <s v="MC"/>
+    <s v="1275"/>
+    <d v="1994-12-22T00:00:00"/>
+    <n v="16939.5"/>
+    <n v="0"/>
+    <n v="16939.5"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="Credit"/>
+    <s v="1278"/>
+    <d v="1994-12-23T00:00:00"/>
+    <n v="11568"/>
+    <n v="0"/>
+    <n v="11568"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Credit"/>
+    <s v="1280"/>
+    <d v="1994-12-26T00:00:00"/>
+    <n v="4317.75"/>
+    <n v="0"/>
+    <n v="4317.75"/>
+  </r>
+  <r>
+    <s v="Blue Sports"/>
+    <s v="Cash"/>
+    <s v="1283"/>
+    <d v="1994-12-30T00:00:00"/>
+    <n v="7134"/>
+    <n v="0"/>
+    <n v="7134"/>
+  </r>
+  <r>
+    <s v="Cayman Divers World Unlimited"/>
+    <s v="Visa"/>
+    <s v="1292"/>
+    <d v="1995-01-01T00:00:00"/>
+    <n v="7986.9"/>
+    <n v="0"/>
+    <n v="7986.9"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="MC"/>
+    <s v="1294"/>
+    <d v="1995-01-04T00:00:00"/>
+    <n v="3304.85"/>
+    <n v="0"/>
+    <n v="3304.85"/>
+  </r>
+  <r>
+    <s v="Davy Jones' Locker"/>
+    <s v="MC"/>
+    <s v="1295"/>
+    <d v="1995-01-06T00:00:00"/>
+    <n v="17917"/>
+    <n v="0"/>
+    <n v="17917"/>
+  </r>
+  <r>
+    <s v="Vashon Ventures"/>
+    <s v="MC"/>
+    <s v="1296"/>
+    <d v="1995-01-08T00:00:00"/>
+    <n v="7423.35"/>
+    <n v="0"/>
+    <n v="7423.35"/>
+  </r>
+  <r>
+    <s v="Divers of Corfu, Inc."/>
+    <s v="Credit"/>
+    <s v="1298"/>
+    <d v="1995-01-09T00:00:00"/>
+    <n v="9897"/>
+    <n v="0"/>
+    <n v="9897"/>
+  </r>
+  <r>
+    <s v="VIP Divers Club"/>
+    <s v="Credit"/>
+    <s v="1300"/>
+    <d v="1995-01-10T00:00:00"/>
+    <n v="52729.25"/>
+    <n v="0"/>
+    <n v="52729.25"/>
+  </r>
+  <r>
+    <s v="Unisco"/>
+    <s v="Credit"/>
+    <s v="1302"/>
+    <d v="1995-01-16T00:00:00"/>
+    <n v="24485"/>
+    <n v="0"/>
+    <n v="24485"/>
+  </r>
+  <r>
+    <s v="Tom Sawyer Diving Centre"/>
+    <s v="Visa"/>
+    <s v="1305"/>
+    <d v="1995-01-20T00:00:00"/>
+    <n v="3065"/>
+    <n v="0"/>
+    <n v="3065"/>
+  </r>
+  <r>
+    <s v="Marina SCUBA Center"/>
+    <s v="COD"/>
+    <s v="1309"/>
+    <d v="1995-01-22T00:00:00"/>
+    <n v="465"/>
+    <n v="0"/>
+    <n v="465"/>
+  </r>
+  <r>
+    <s v="Jamaica SCUBA Centre"/>
+    <s v="MC"/>
+    <s v="1315"/>
+    <d v="1995-01-26T00:00:00"/>
+    <n v="5037.1"/>
+    <n v="0"/>
+    <n v="5037.1"/>
+  </r>
+  <r>
+    <s v="Adventure Undersea"/>
+    <s v="Check"/>
+    <s v="1317"/>
+    <d v="1995-02-01T00:00:00"/>
+    <n v="7572"/>
+    <n v="0"/>
+    <n v="7572"/>
+  </r>
+  <r>
+    <s v="Underwater Sports Co."/>
+    <s v="AmEx"/>
+    <s v="1350"/>
+    <d v="1995-02-02T00:00:00"/>
+    <n v="8939.6"/>
+    <n v="0"/>
+    <n v="8939.6"/>
+  </r>
+  <r>
+    <s v="American SCUBA Supply"/>
+    <s v="Credit"/>
+    <s v="1355"/>
+    <d v="1995-02-05T00:00:00"/>
+    <n v="13908"/>
+    <n v="0"/>
+    <n v="13908"/>
+  </r>
+  <r>
+    <s v="Marina SCUBA Center"/>
+    <s v="Check"/>
+    <s v="1860"/>
+    <m/>
+    <n v="65"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
 </file>
--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -1291,2311 +1291,649 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="7">
-    <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="55">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Payment method" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="8">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="206">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item x="54"/>
-        <x:item x="55"/>
-        <x:item x="56"/>
-        <x:item x="57"/>
-        <x:item x="58"/>
-        <x:item x="59"/>
-        <x:item x="60"/>
-        <x:item x="61"/>
-        <x:item x="62"/>
-        <x:item x="63"/>
-        <x:item x="64"/>
-        <x:item x="65"/>
-        <x:item x="66"/>
-        <x:item x="67"/>
-        <x:item x="68"/>
-        <x:item x="69"/>
-        <x:item x="70"/>
-        <x:item x="71"/>
-        <x:item x="72"/>
-        <x:item x="73"/>
-        <x:item x="74"/>
-        <x:item x="75"/>
-        <x:item x="76"/>
-        <x:item x="77"/>
-        <x:item x="78"/>
-        <x:item x="79"/>
-        <x:item x="80"/>
-        <x:item x="81"/>
-        <x:item x="82"/>
-        <x:item x="83"/>
-        <x:item x="84"/>
-        <x:item x="85"/>
-        <x:item x="86"/>
-        <x:item x="87"/>
-        <x:item x="88"/>
-        <x:item x="89"/>
-        <x:item x="90"/>
-        <x:item x="91"/>
-        <x:item x="92"/>
-        <x:item x="93"/>
-        <x:item x="94"/>
-        <x:item x="95"/>
-        <x:item x="96"/>
-        <x:item x="97"/>
-        <x:item x="98"/>
-        <x:item x="99"/>
-        <x:item x="100"/>
-        <x:item x="101"/>
-        <x:item x="102"/>
-        <x:item x="103"/>
-        <x:item x="104"/>
-        <x:item x="105"/>
-        <x:item x="106"/>
-        <x:item x="107"/>
-        <x:item x="108"/>
-        <x:item x="109"/>
-        <x:item x="110"/>
-        <x:item x="111"/>
-        <x:item x="112"/>
-        <x:item x="113"/>
-        <x:item x="114"/>
-        <x:item x="115"/>
-        <x:item x="116"/>
-        <x:item x="117"/>
-        <x:item x="118"/>
-        <x:item x="119"/>
-        <x:item x="120"/>
-        <x:item x="121"/>
-        <x:item x="122"/>
-        <x:item x="123"/>
-        <x:item x="124"/>
-        <x:item x="125"/>
-        <x:item x="126"/>
-        <x:item x="127"/>
-        <x:item x="128"/>
-        <x:item x="129"/>
-        <x:item x="130"/>
-        <x:item x="131"/>
-        <x:item x="132"/>
-        <x:item x="133"/>
-        <x:item x="134"/>
-        <x:item x="135"/>
-        <x:item x="136"/>
-        <x:item x="137"/>
-        <x:item x="138"/>
-        <x:item x="139"/>
-        <x:item x="140"/>
-        <x:item x="141"/>
-        <x:item x="142"/>
-        <x:item x="143"/>
-        <x:item x="144"/>
-        <x:item x="145"/>
-        <x:item x="146"/>
-        <x:item x="147"/>
-        <x:item x="148"/>
-        <x:item x="149"/>
-        <x:item x="150"/>
-        <x:item x="151"/>
-        <x:item x="152"/>
-        <x:item x="153"/>
-        <x:item x="154"/>
-        <x:item x="155"/>
-        <x:item x="156"/>
-        <x:item x="157"/>
-        <x:item x="158"/>
-        <x:item x="159"/>
-        <x:item x="160"/>
-        <x:item x="161"/>
-        <x:item x="162"/>
-        <x:item x="163"/>
-        <x:item x="164"/>
-        <x:item x="165"/>
-        <x:item x="166"/>
-        <x:item x="167"/>
-        <x:item x="168"/>
-        <x:item x="169"/>
-        <x:item x="170"/>
-        <x:item x="171"/>
-        <x:item x="172"/>
-        <x:item x="173"/>
-        <x:item x="174"/>
-        <x:item x="175"/>
-        <x:item x="176"/>
-        <x:item x="177"/>
-        <x:item x="178"/>
-        <x:item x="179"/>
-        <x:item x="180"/>
-        <x:item x="181"/>
-        <x:item x="182"/>
-        <x:item x="183"/>
-        <x:item x="184"/>
-        <x:item x="185"/>
-        <x:item x="186"/>
-        <x:item x="187"/>
-        <x:item x="188"/>
-        <x:item x="189"/>
-        <x:item x="190"/>
-        <x:item x="191"/>
-        <x:item x="192"/>
-        <x:item x="193"/>
-        <x:item x="194"/>
-        <x:item x="195"/>
-        <x:item x="196"/>
-        <x:item x="197"/>
-        <x:item x="198"/>
-        <x:item x="199"/>
-        <x:item x="200"/>
-        <x:item x="201"/>
-        <x:item x="202"/>
-        <x:item x="203"/>
-        <x:item x="204"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="3">
-    <x:field x="0"/>
-    <x:field x="1"/>
-    <x:field x="2"/>
-  </x:rowFields>
-  <x:rowItems count="269">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i>
-      <x:x v="54"/>
-    </x:i>
-    <x:i>
-      <x:x v="55"/>
-    </x:i>
-    <x:i>
-      <x:x v="56"/>
-    </x:i>
-    <x:i>
-      <x:x v="57"/>
-    </x:i>
-    <x:i>
-      <x:x v="58"/>
-    </x:i>
-    <x:i>
-      <x:x v="59"/>
-    </x:i>
-    <x:i>
-      <x:x v="60"/>
-    </x:i>
-    <x:i>
-      <x:x v="61"/>
-    </x:i>
-    <x:i>
-      <x:x v="62"/>
-    </x:i>
-    <x:i>
-      <x:x v="63"/>
-    </x:i>
-    <x:i>
-      <x:x v="64"/>
-    </x:i>
-    <x:i>
-      <x:x v="65"/>
-    </x:i>
-    <x:i>
-      <x:x v="66"/>
-    </x:i>
-    <x:i>
-      <x:x v="67"/>
-    </x:i>
-    <x:i>
-      <x:x v="68"/>
-    </x:i>
-    <x:i>
-      <x:x v="69"/>
-    </x:i>
-    <x:i>
-      <x:x v="70"/>
-    </x:i>
-    <x:i>
-      <x:x v="71"/>
-    </x:i>
-    <x:i>
-      <x:x v="72"/>
-    </x:i>
-    <x:i>
-      <x:x v="73"/>
-    </x:i>
-    <x:i>
-      <x:x v="74"/>
-    </x:i>
-    <x:i>
-      <x:x v="75"/>
-    </x:i>
-    <x:i>
-      <x:x v="76"/>
-    </x:i>
-    <x:i>
-      <x:x v="77"/>
-    </x:i>
-    <x:i>
-      <x:x v="78"/>
-    </x:i>
-    <x:i>
-      <x:x v="79"/>
-    </x:i>
-    <x:i>
-      <x:x v="80"/>
-    </x:i>
-    <x:i>
-      <x:x v="81"/>
-    </x:i>
-    <x:i>
-      <x:x v="82"/>
-    </x:i>
-    <x:i>
-      <x:x v="83"/>
-    </x:i>
-    <x:i>
-      <x:x v="84"/>
-    </x:i>
-    <x:i>
-      <x:x v="85"/>
-    </x:i>
-    <x:i>
-      <x:x v="86"/>
-    </x:i>
-    <x:i>
-      <x:x v="87"/>
-    </x:i>
-    <x:i>
-      <x:x v="88"/>
-    </x:i>
-    <x:i>
-      <x:x v="89"/>
-    </x:i>
-    <x:i>
-      <x:x v="90"/>
-    </x:i>
-    <x:i>
-      <x:x v="91"/>
-    </x:i>
-    <x:i>
-      <x:x v="92"/>
-    </x:i>
-    <x:i>
-      <x:x v="93"/>
-    </x:i>
-    <x:i>
-      <x:x v="94"/>
-    </x:i>
-    <x:i>
-      <x:x v="95"/>
-    </x:i>
-    <x:i>
-      <x:x v="96"/>
-    </x:i>
-    <x:i>
-      <x:x v="97"/>
-    </x:i>
-    <x:i>
-      <x:x v="98"/>
-    </x:i>
-    <x:i>
-      <x:x v="99"/>
-    </x:i>
-    <x:i>
-      <x:x v="100"/>
-    </x:i>
-    <x:i>
-      <x:x v="101"/>
-    </x:i>
-    <x:i>
-      <x:x v="102"/>
-    </x:i>
-    <x:i>
-      <x:x v="103"/>
-    </x:i>
-    <x:i>
-      <x:x v="104"/>
-    </x:i>
-    <x:i>
-      <x:x v="105"/>
-    </x:i>
-    <x:i>
-      <x:x v="106"/>
-    </x:i>
-    <x:i>
-      <x:x v="107"/>
-    </x:i>
-    <x:i>
-      <x:x v="108"/>
-    </x:i>
-    <x:i>
-      <x:x v="109"/>
-    </x:i>
-    <x:i>
-      <x:x v="110"/>
-    </x:i>
-    <x:i>
-      <x:x v="111"/>
-    </x:i>
-    <x:i>
-      <x:x v="112"/>
-    </x:i>
-    <x:i>
-      <x:x v="113"/>
-    </x:i>
-    <x:i>
-      <x:x v="114"/>
-    </x:i>
-    <x:i>
-      <x:x v="115"/>
-    </x:i>
-    <x:i>
-      <x:x v="116"/>
-    </x:i>
-    <x:i>
-      <x:x v="117"/>
-    </x:i>
-    <x:i>
-      <x:x v="118"/>
-    </x:i>
-    <x:i>
-      <x:x v="119"/>
-    </x:i>
-    <x:i>
-      <x:x v="120"/>
-    </x:i>
-    <x:i>
-      <x:x v="121"/>
-    </x:i>
-    <x:i>
-      <x:x v="122"/>
-    </x:i>
-    <x:i>
-      <x:x v="123"/>
-    </x:i>
-    <x:i>
-      <x:x v="124"/>
-    </x:i>
-    <x:i>
-      <x:x v="125"/>
-    </x:i>
-    <x:i>
-      <x:x v="126"/>
-    </x:i>
-    <x:i>
-      <x:x v="127"/>
-    </x:i>
-    <x:i>
-      <x:x v="128"/>
-    </x:i>
-    <x:i>
-      <x:x v="129"/>
-    </x:i>
-    <x:i>
-      <x:x v="130"/>
-    </x:i>
-    <x:i>
-      <x:x v="131"/>
-    </x:i>
-    <x:i>
-      <x:x v="132"/>
-    </x:i>
-    <x:i>
-      <x:x v="133"/>
-    </x:i>
-    <x:i>
-      <x:x v="134"/>
-    </x:i>
-    <x:i>
-      <x:x v="135"/>
-    </x:i>
-    <x:i>
-      <x:x v="136"/>
-    </x:i>
-    <x:i>
-      <x:x v="137"/>
-    </x:i>
-    <x:i>
-      <x:x v="138"/>
-    </x:i>
-    <x:i>
-      <x:x v="139"/>
-    </x:i>
-    <x:i>
-      <x:x v="140"/>
-    </x:i>
-    <x:i>
-      <x:x v="141"/>
-    </x:i>
-    <x:i>
-      <x:x v="142"/>
-    </x:i>
-    <x:i>
-      <x:x v="143"/>
-    </x:i>
-    <x:i>
-      <x:x v="144"/>
-    </x:i>
-    <x:i>
-      <x:x v="145"/>
-    </x:i>
-    <x:i>
-      <x:x v="146"/>
-    </x:i>
-    <x:i>
-      <x:x v="147"/>
-    </x:i>
-    <x:i>
-      <x:x v="148"/>
-    </x:i>
-    <x:i>
-      <x:x v="149"/>
-    </x:i>
-    <x:i>
-      <x:x v="150"/>
-    </x:i>
-    <x:i>
-      <x:x v="151"/>
-    </x:i>
-    <x:i>
-      <x:x v="152"/>
-    </x:i>
-    <x:i>
-      <x:x v="153"/>
-    </x:i>
-    <x:i>
-      <x:x v="154"/>
-    </x:i>
-    <x:i>
-      <x:x v="155"/>
-    </x:i>
-    <x:i>
-      <x:x v="156"/>
-    </x:i>
-    <x:i>
-      <x:x v="157"/>
-    </x:i>
-    <x:i>
-      <x:x v="158"/>
-    </x:i>
-    <x:i>
-      <x:x v="159"/>
-    </x:i>
-    <x:i>
-      <x:x v="160"/>
-    </x:i>
-    <x:i>
-      <x:x v="161"/>
-    </x:i>
-    <x:i>
-      <x:x v="162"/>
-    </x:i>
-    <x:i>
-      <x:x v="163"/>
-    </x:i>
-    <x:i>
-      <x:x v="164"/>
-    </x:i>
-    <x:i>
-      <x:x v="165"/>
-    </x:i>
-    <x:i>
-      <x:x v="166"/>
-    </x:i>
-    <x:i>
-      <x:x v="167"/>
-    </x:i>
-    <x:i>
-      <x:x v="168"/>
-    </x:i>
-    <x:i>
-      <x:x v="169"/>
-    </x:i>
-    <x:i>
-      <x:x v="170"/>
-    </x:i>
-    <x:i>
-      <x:x v="171"/>
-    </x:i>
-    <x:i>
-      <x:x v="172"/>
-    </x:i>
-    <x:i>
-      <x:x v="173"/>
-    </x:i>
-    <x:i>
-      <x:x v="174"/>
-    </x:i>
-    <x:i>
-      <x:x v="175"/>
-    </x:i>
-    <x:i>
-      <x:x v="176"/>
-    </x:i>
-    <x:i>
-      <x:x v="177"/>
-    </x:i>
-    <x:i>
-      <x:x v="178"/>
-    </x:i>
-    <x:i>
-      <x:x v="179"/>
-    </x:i>
-    <x:i>
-      <x:x v="180"/>
-    </x:i>
-    <x:i>
-      <x:x v="181"/>
-    </x:i>
-    <x:i>
-      <x:x v="182"/>
-    </x:i>
-    <x:i>
-      <x:x v="183"/>
-    </x:i>
-    <x:i>
-      <x:x v="184"/>
-    </x:i>
-    <x:i>
-      <x:x v="185"/>
-    </x:i>
-    <x:i>
-      <x:x v="186"/>
-    </x:i>
-    <x:i>
-      <x:x v="187"/>
-    </x:i>
-    <x:i>
-      <x:x v="188"/>
-    </x:i>
-    <x:i>
-      <x:x v="189"/>
-    </x:i>
-    <x:i>
-      <x:x v="190"/>
-    </x:i>
-    <x:i>
-      <x:x v="191"/>
-    </x:i>
-    <x:i>
-      <x:x v="192"/>
-    </x:i>
-    <x:i>
-      <x:x v="193"/>
-    </x:i>
-    <x:i>
-      <x:x v="194"/>
-    </x:i>
-    <x:i>
-      <x:x v="195"/>
-    </x:i>
-    <x:i>
-      <x:x v="196"/>
-    </x:i>
-    <x:i>
-      <x:x v="197"/>
-    </x:i>
-    <x:i>
-      <x:x v="198"/>
-    </x:i>
-    <x:i>
-      <x:x v="199"/>
-    </x:i>
-    <x:i>
-      <x:x v="200"/>
-    </x:i>
-    <x:i>
-      <x:x v="201"/>
-    </x:i>
-    <x:i>
-      <x:x v="202"/>
-    </x:i>
-    <x:i>
-      <x:x v="203"/>
-    </x:i>
-    <x:i>
-      <x:x v="204"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="2">
-    <x:field x="5"/>
-    <x:field x="-2"/>
-  </x:colFields>
-  <x:colItems count="4">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="Sum Amount paid" fld="6" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Sum Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:formats count="1">
-    <x:format dxfId="1">
-      <x:pivotArea type="normal" dataOnly="0" labelOnly="1" fieldPosition="0">
-        <x:references count="1">
-          <x:reference field="1"/>
-        </x:references>
-      </x:pivotArea>
-    </x:format>
-  </x:formats>
-  <x:pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="B3:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="3"/>
+  <pivotFields count="7">
+    <pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="55">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Payment method" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="206">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <colFields count="2">
+    <field x="5"/>
+    <field x="-2"/>
+  </colFields>
+  <dataFields count="2">
+    <dataField name="Amount paid" fld="6"/>
+    <dataField name="Items total" fld="4"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <x:location ref="B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="7">
-    <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
-      <x:items count="55">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Payment method" axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="8">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="206">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item x="54"/>
-        <x:item x="55"/>
-        <x:item x="56"/>
-        <x:item x="57"/>
-        <x:item x="58"/>
-        <x:item x="59"/>
-        <x:item x="60"/>
-        <x:item x="61"/>
-        <x:item x="62"/>
-        <x:item x="63"/>
-        <x:item x="64"/>
-        <x:item x="65"/>
-        <x:item x="66"/>
-        <x:item x="67"/>
-        <x:item x="68"/>
-        <x:item x="69"/>
-        <x:item x="70"/>
-        <x:item x="71"/>
-        <x:item x="72"/>
-        <x:item x="73"/>
-        <x:item x="74"/>
-        <x:item x="75"/>
-        <x:item x="76"/>
-        <x:item x="77"/>
-        <x:item x="78"/>
-        <x:item x="79"/>
-        <x:item x="80"/>
-        <x:item x="81"/>
-        <x:item x="82"/>
-        <x:item x="83"/>
-        <x:item x="84"/>
-        <x:item x="85"/>
-        <x:item x="86"/>
-        <x:item x="87"/>
-        <x:item x="88"/>
-        <x:item x="89"/>
-        <x:item x="90"/>
-        <x:item x="91"/>
-        <x:item x="92"/>
-        <x:item x="93"/>
-        <x:item x="94"/>
-        <x:item x="95"/>
-        <x:item x="96"/>
-        <x:item x="97"/>
-        <x:item x="98"/>
-        <x:item x="99"/>
-        <x:item x="100"/>
-        <x:item x="101"/>
-        <x:item x="102"/>
-        <x:item x="103"/>
-        <x:item x="104"/>
-        <x:item x="105"/>
-        <x:item x="106"/>
-        <x:item x="107"/>
-        <x:item x="108"/>
-        <x:item x="109"/>
-        <x:item x="110"/>
-        <x:item x="111"/>
-        <x:item x="112"/>
-        <x:item x="113"/>
-        <x:item x="114"/>
-        <x:item x="115"/>
-        <x:item x="116"/>
-        <x:item x="117"/>
-        <x:item x="118"/>
-        <x:item x="119"/>
-        <x:item x="120"/>
-        <x:item x="121"/>
-        <x:item x="122"/>
-        <x:item x="123"/>
-        <x:item x="124"/>
-        <x:item x="125"/>
-        <x:item x="126"/>
-        <x:item x="127"/>
-        <x:item x="128"/>
-        <x:item x="129"/>
-        <x:item x="130"/>
-        <x:item x="131"/>
-        <x:item x="132"/>
-        <x:item x="133"/>
-        <x:item x="134"/>
-        <x:item x="135"/>
-        <x:item x="136"/>
-        <x:item x="137"/>
-        <x:item x="138"/>
-        <x:item x="139"/>
-        <x:item x="140"/>
-        <x:item x="141"/>
-        <x:item x="142"/>
-        <x:item x="143"/>
-        <x:item x="144"/>
-        <x:item x="145"/>
-        <x:item x="146"/>
-        <x:item x="147"/>
-        <x:item x="148"/>
-        <x:item x="149"/>
-        <x:item x="150"/>
-        <x:item x="151"/>
-        <x:item x="152"/>
-        <x:item x="153"/>
-        <x:item x="154"/>
-        <x:item x="155"/>
-        <x:item x="156"/>
-        <x:item x="157"/>
-        <x:item x="158"/>
-        <x:item x="159"/>
-        <x:item x="160"/>
-        <x:item x="161"/>
-        <x:item x="162"/>
-        <x:item x="163"/>
-        <x:item x="164"/>
-        <x:item x="165"/>
-        <x:item x="166"/>
-        <x:item x="167"/>
-        <x:item x="168"/>
-        <x:item x="169"/>
-        <x:item x="170"/>
-        <x:item x="171"/>
-        <x:item x="172"/>
-        <x:item x="173"/>
-        <x:item x="174"/>
-        <x:item x="175"/>
-        <x:item x="176"/>
-        <x:item x="177"/>
-        <x:item x="178"/>
-        <x:item x="179"/>
-        <x:item x="180"/>
-        <x:item x="181"/>
-        <x:item x="182"/>
-        <x:item x="183"/>
-        <x:item x="184"/>
-        <x:item x="185"/>
-        <x:item x="186"/>
-        <x:item x="187"/>
-        <x:item x="188"/>
-        <x:item x="189"/>
-        <x:item x="190"/>
-        <x:item x="191"/>
-        <x:item x="192"/>
-        <x:item x="193"/>
-        <x:item x="194"/>
-        <x:item x="195"/>
-        <x:item x="196"/>
-        <x:item x="197"/>
-        <x:item x="198"/>
-        <x:item x="199"/>
-        <x:item x="200"/>
-        <x:item x="201"/>
-        <x:item x="202"/>
-        <x:item x="203"/>
-        <x:item x="204"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Tax rate" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Amount paid" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="2">
-    <x:field x="0"/>
-    <x:field x="2"/>
-  </x:rowFields>
-  <x:rowItems count="261">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i>
-      <x:x v="54"/>
-    </x:i>
-    <x:i>
-      <x:x v="55"/>
-    </x:i>
-    <x:i>
-      <x:x v="56"/>
-    </x:i>
-    <x:i>
-      <x:x v="57"/>
-    </x:i>
-    <x:i>
-      <x:x v="58"/>
-    </x:i>
-    <x:i>
-      <x:x v="59"/>
-    </x:i>
-    <x:i>
-      <x:x v="60"/>
-    </x:i>
-    <x:i>
-      <x:x v="61"/>
-    </x:i>
-    <x:i>
-      <x:x v="62"/>
-    </x:i>
-    <x:i>
-      <x:x v="63"/>
-    </x:i>
-    <x:i>
-      <x:x v="64"/>
-    </x:i>
-    <x:i>
-      <x:x v="65"/>
-    </x:i>
-    <x:i>
-      <x:x v="66"/>
-    </x:i>
-    <x:i>
-      <x:x v="67"/>
-    </x:i>
-    <x:i>
-      <x:x v="68"/>
-    </x:i>
-    <x:i>
-      <x:x v="69"/>
-    </x:i>
-    <x:i>
-      <x:x v="70"/>
-    </x:i>
-    <x:i>
-      <x:x v="71"/>
-    </x:i>
-    <x:i>
-      <x:x v="72"/>
-    </x:i>
-    <x:i>
-      <x:x v="73"/>
-    </x:i>
-    <x:i>
-      <x:x v="74"/>
-    </x:i>
-    <x:i>
-      <x:x v="75"/>
-    </x:i>
-    <x:i>
-      <x:x v="76"/>
-    </x:i>
-    <x:i>
-      <x:x v="77"/>
-    </x:i>
-    <x:i>
-      <x:x v="78"/>
-    </x:i>
-    <x:i>
-      <x:x v="79"/>
-    </x:i>
-    <x:i>
-      <x:x v="80"/>
-    </x:i>
-    <x:i>
-      <x:x v="81"/>
-    </x:i>
-    <x:i>
-      <x:x v="82"/>
-    </x:i>
-    <x:i>
-      <x:x v="83"/>
-    </x:i>
-    <x:i>
-      <x:x v="84"/>
-    </x:i>
-    <x:i>
-      <x:x v="85"/>
-    </x:i>
-    <x:i>
-      <x:x v="86"/>
-    </x:i>
-    <x:i>
-      <x:x v="87"/>
-    </x:i>
-    <x:i>
-      <x:x v="88"/>
-    </x:i>
-    <x:i>
-      <x:x v="89"/>
-    </x:i>
-    <x:i>
-      <x:x v="90"/>
-    </x:i>
-    <x:i>
-      <x:x v="91"/>
-    </x:i>
-    <x:i>
-      <x:x v="92"/>
-    </x:i>
-    <x:i>
-      <x:x v="93"/>
-    </x:i>
-    <x:i>
-      <x:x v="94"/>
-    </x:i>
-    <x:i>
-      <x:x v="95"/>
-    </x:i>
-    <x:i>
-      <x:x v="96"/>
-    </x:i>
-    <x:i>
-      <x:x v="97"/>
-    </x:i>
-    <x:i>
-      <x:x v="98"/>
-    </x:i>
-    <x:i>
-      <x:x v="99"/>
-    </x:i>
-    <x:i>
-      <x:x v="100"/>
-    </x:i>
-    <x:i>
-      <x:x v="101"/>
-    </x:i>
-    <x:i>
-      <x:x v="102"/>
-    </x:i>
-    <x:i>
-      <x:x v="103"/>
-    </x:i>
-    <x:i>
-      <x:x v="104"/>
-    </x:i>
-    <x:i>
-      <x:x v="105"/>
-    </x:i>
-    <x:i>
-      <x:x v="106"/>
-    </x:i>
-    <x:i>
-      <x:x v="107"/>
-    </x:i>
-    <x:i>
-      <x:x v="108"/>
-    </x:i>
-    <x:i>
-      <x:x v="109"/>
-    </x:i>
-    <x:i>
-      <x:x v="110"/>
-    </x:i>
-    <x:i>
-      <x:x v="111"/>
-    </x:i>
-    <x:i>
-      <x:x v="112"/>
-    </x:i>
-    <x:i>
-      <x:x v="113"/>
-    </x:i>
-    <x:i>
-      <x:x v="114"/>
-    </x:i>
-    <x:i>
-      <x:x v="115"/>
-    </x:i>
-    <x:i>
-      <x:x v="116"/>
-    </x:i>
-    <x:i>
-      <x:x v="117"/>
-    </x:i>
-    <x:i>
-      <x:x v="118"/>
-    </x:i>
-    <x:i>
-      <x:x v="119"/>
-    </x:i>
-    <x:i>
-      <x:x v="120"/>
-    </x:i>
-    <x:i>
-      <x:x v="121"/>
-    </x:i>
-    <x:i>
-      <x:x v="122"/>
-    </x:i>
-    <x:i>
-      <x:x v="123"/>
-    </x:i>
-    <x:i>
-      <x:x v="124"/>
-    </x:i>
-    <x:i>
-      <x:x v="125"/>
-    </x:i>
-    <x:i>
-      <x:x v="126"/>
-    </x:i>
-    <x:i>
-      <x:x v="127"/>
-    </x:i>
-    <x:i>
-      <x:x v="128"/>
-    </x:i>
-    <x:i>
-      <x:x v="129"/>
-    </x:i>
-    <x:i>
-      <x:x v="130"/>
-    </x:i>
-    <x:i>
-      <x:x v="131"/>
-    </x:i>
-    <x:i>
-      <x:x v="132"/>
-    </x:i>
-    <x:i>
-      <x:x v="133"/>
-    </x:i>
-    <x:i>
-      <x:x v="134"/>
-    </x:i>
-    <x:i>
-      <x:x v="135"/>
-    </x:i>
-    <x:i>
-      <x:x v="136"/>
-    </x:i>
-    <x:i>
-      <x:x v="137"/>
-    </x:i>
-    <x:i>
-      <x:x v="138"/>
-    </x:i>
-    <x:i>
-      <x:x v="139"/>
-    </x:i>
-    <x:i>
-      <x:x v="140"/>
-    </x:i>
-    <x:i>
-      <x:x v="141"/>
-    </x:i>
-    <x:i>
-      <x:x v="142"/>
-    </x:i>
-    <x:i>
-      <x:x v="143"/>
-    </x:i>
-    <x:i>
-      <x:x v="144"/>
-    </x:i>
-    <x:i>
-      <x:x v="145"/>
-    </x:i>
-    <x:i>
-      <x:x v="146"/>
-    </x:i>
-    <x:i>
-      <x:x v="147"/>
-    </x:i>
-    <x:i>
-      <x:x v="148"/>
-    </x:i>
-    <x:i>
-      <x:x v="149"/>
-    </x:i>
-    <x:i>
-      <x:x v="150"/>
-    </x:i>
-    <x:i>
-      <x:x v="151"/>
-    </x:i>
-    <x:i>
-      <x:x v="152"/>
-    </x:i>
-    <x:i>
-      <x:x v="153"/>
-    </x:i>
-    <x:i>
-      <x:x v="154"/>
-    </x:i>
-    <x:i>
-      <x:x v="155"/>
-    </x:i>
-    <x:i>
-      <x:x v="156"/>
-    </x:i>
-    <x:i>
-      <x:x v="157"/>
-    </x:i>
-    <x:i>
-      <x:x v="158"/>
-    </x:i>
-    <x:i>
-      <x:x v="159"/>
-    </x:i>
-    <x:i>
-      <x:x v="160"/>
-    </x:i>
-    <x:i>
-      <x:x v="161"/>
-    </x:i>
-    <x:i>
-      <x:x v="162"/>
-    </x:i>
-    <x:i>
-      <x:x v="163"/>
-    </x:i>
-    <x:i>
-      <x:x v="164"/>
-    </x:i>
-    <x:i>
-      <x:x v="165"/>
-    </x:i>
-    <x:i>
-      <x:x v="166"/>
-    </x:i>
-    <x:i>
-      <x:x v="167"/>
-    </x:i>
-    <x:i>
-      <x:x v="168"/>
-    </x:i>
-    <x:i>
-      <x:x v="169"/>
-    </x:i>
-    <x:i>
-      <x:x v="170"/>
-    </x:i>
-    <x:i>
-      <x:x v="171"/>
-    </x:i>
-    <x:i>
-      <x:x v="172"/>
-    </x:i>
-    <x:i>
-      <x:x v="173"/>
-    </x:i>
-    <x:i>
-      <x:x v="174"/>
-    </x:i>
-    <x:i>
-      <x:x v="175"/>
-    </x:i>
-    <x:i>
-      <x:x v="176"/>
-    </x:i>
-    <x:i>
-      <x:x v="177"/>
-    </x:i>
-    <x:i>
-      <x:x v="178"/>
-    </x:i>
-    <x:i>
-      <x:x v="179"/>
-    </x:i>
-    <x:i>
-      <x:x v="180"/>
-    </x:i>
-    <x:i>
-      <x:x v="181"/>
-    </x:i>
-    <x:i>
-      <x:x v="182"/>
-    </x:i>
-    <x:i>
-      <x:x v="183"/>
-    </x:i>
-    <x:i>
-      <x:x v="184"/>
-    </x:i>
-    <x:i>
-      <x:x v="185"/>
-    </x:i>
-    <x:i>
-      <x:x v="186"/>
-    </x:i>
-    <x:i>
-      <x:x v="187"/>
-    </x:i>
-    <x:i>
-      <x:x v="188"/>
-    </x:i>
-    <x:i>
-      <x:x v="189"/>
-    </x:i>
-    <x:i>
-      <x:x v="190"/>
-    </x:i>
-    <x:i>
-      <x:x v="191"/>
-    </x:i>
-    <x:i>
-      <x:x v="192"/>
-    </x:i>
-    <x:i>
-      <x:x v="193"/>
-    </x:i>
-    <x:i>
-      <x:x v="194"/>
-    </x:i>
-    <x:i>
-      <x:x v="195"/>
-    </x:i>
-    <x:i>
-      <x:x v="196"/>
-    </x:i>
-    <x:i>
-      <x:x v="197"/>
-    </x:i>
-    <x:i>
-      <x:x v="198"/>
-    </x:i>
-    <x:i>
-      <x:x v="199"/>
-    </x:i>
-    <x:i>
-      <x:x v="200"/>
-    </x:i>
-    <x:i>
-      <x:x v="201"/>
-    </x:i>
-    <x:i>
-      <x:x v="202"/>
-    </x:i>
-    <x:i>
-      <x:x v="203"/>
-    </x:i>
-    <x:i>
-      <x:x v="204"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="1"/>
-  </x:colFields>
-  <x:colItems count="8">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Sum of Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:formats count="1">
-    <x:format dxfId="1">
-      <x:pivotArea type="normal" dataOnly="0" labelOnly="1" fieldPosition="0">
-        <x:references count="1">
-          <x:reference field="1"/>
-        </x:references>
-      </x:pivotArea>
-    </x:format>
-  </x:formats>
-  <x:pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="B4:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="7">
+    <pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="55">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Payment method" axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="206">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <dataFields count="1">
+    <dataField name="Items total" fld="4"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -1597,8 +1597,8 @@
     <field x="-2"/>
   </colFields>
   <dataFields count="2">
-    <dataField name="Amount paid" fld="6"/>
-    <dataField name="Items total" fld="4"/>
+    <dataField name="Sum Amount paid" fld="6"/>
+    <dataField name="Sum Items total" fld="4"/>
   </dataFields>
   <formats count="1">
     <format dxfId="1">
@@ -1916,7 +1916,7 @@
     <field x="1"/>
   </colFields>
   <dataFields count="1">
-    <dataField name="Items total" fld="4"/>
+    <dataField name="Sum of Items total" fld="4"/>
   </dataFields>
   <formats count="1">
     <format dxfId="1">

--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/TwoPivotTablesWithSingleSource/output.xlsx
@@ -1291,2311 +1291,649 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <x:location ref="B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="7">
-    <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="55">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Payment method" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="8">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="206">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item x="54"/>
-        <x:item x="55"/>
-        <x:item x="56"/>
-        <x:item x="57"/>
-        <x:item x="58"/>
-        <x:item x="59"/>
-        <x:item x="60"/>
-        <x:item x="61"/>
-        <x:item x="62"/>
-        <x:item x="63"/>
-        <x:item x="64"/>
-        <x:item x="65"/>
-        <x:item x="66"/>
-        <x:item x="67"/>
-        <x:item x="68"/>
-        <x:item x="69"/>
-        <x:item x="70"/>
-        <x:item x="71"/>
-        <x:item x="72"/>
-        <x:item x="73"/>
-        <x:item x="74"/>
-        <x:item x="75"/>
-        <x:item x="76"/>
-        <x:item x="77"/>
-        <x:item x="78"/>
-        <x:item x="79"/>
-        <x:item x="80"/>
-        <x:item x="81"/>
-        <x:item x="82"/>
-        <x:item x="83"/>
-        <x:item x="84"/>
-        <x:item x="85"/>
-        <x:item x="86"/>
-        <x:item x="87"/>
-        <x:item x="88"/>
-        <x:item x="89"/>
-        <x:item x="90"/>
-        <x:item x="91"/>
-        <x:item x="92"/>
-        <x:item x="93"/>
-        <x:item x="94"/>
-        <x:item x="95"/>
-        <x:item x="96"/>
-        <x:item x="97"/>
-        <x:item x="98"/>
-        <x:item x="99"/>
-        <x:item x="100"/>
-        <x:item x="101"/>
-        <x:item x="102"/>
-        <x:item x="103"/>
-        <x:item x="104"/>
-        <x:item x="105"/>
-        <x:item x="106"/>
-        <x:item x="107"/>
-        <x:item x="108"/>
-        <x:item x="109"/>
-        <x:item x="110"/>
-        <x:item x="111"/>
-        <x:item x="112"/>
-        <x:item x="113"/>
-        <x:item x="114"/>
-        <x:item x="115"/>
-        <x:item x="116"/>
-        <x:item x="117"/>
-        <x:item x="118"/>
-        <x:item x="119"/>
-        <x:item x="120"/>
-        <x:item x="121"/>
-        <x:item x="122"/>
-        <x:item x="123"/>
-        <x:item x="124"/>
-        <x:item x="125"/>
-        <x:item x="126"/>
-        <x:item x="127"/>
-        <x:item x="128"/>
-        <x:item x="129"/>
-        <x:item x="130"/>
-        <x:item x="131"/>
-        <x:item x="132"/>
-        <x:item x="133"/>
-        <x:item x="134"/>
-        <x:item x="135"/>
-        <x:item x="136"/>
-        <x:item x="137"/>
-        <x:item x="138"/>
-        <x:item x="139"/>
-        <x:item x="140"/>
-        <x:item x="141"/>
-        <x:item x="142"/>
-        <x:item x="143"/>
-        <x:item x="144"/>
-        <x:item x="145"/>
-        <x:item x="146"/>
-        <x:item x="147"/>
-        <x:item x="148"/>
-        <x:item x="149"/>
-        <x:item x="150"/>
-        <x:item x="151"/>
-        <x:item x="152"/>
-        <x:item x="153"/>
-        <x:item x="154"/>
-        <x:item x="155"/>
-        <x:item x="156"/>
-        <x:item x="157"/>
-        <x:item x="158"/>
-        <x:item x="159"/>
-        <x:item x="160"/>
-        <x:item x="161"/>
-        <x:item x="162"/>
-        <x:item x="163"/>
-        <x:item x="164"/>
-        <x:item x="165"/>
-        <x:item x="166"/>
-        <x:item x="167"/>
-        <x:item x="168"/>
-        <x:item x="169"/>
-        <x:item x="170"/>
-        <x:item x="171"/>
-        <x:item x="172"/>
-        <x:item x="173"/>
-        <x:item x="174"/>
-        <x:item x="175"/>
-        <x:item x="176"/>
-        <x:item x="177"/>
-        <x:item x="178"/>
-        <x:item x="179"/>
-        <x:item x="180"/>
-        <x:item x="181"/>
-        <x:item x="182"/>
-        <x:item x="183"/>
-        <x:item x="184"/>
-        <x:item x="185"/>
-        <x:item x="186"/>
-        <x:item x="187"/>
-        <x:item x="188"/>
-        <x:item x="189"/>
-        <x:item x="190"/>
-        <x:item x="191"/>
-        <x:item x="192"/>
-        <x:item x="193"/>
-        <x:item x="194"/>
-        <x:item x="195"/>
-        <x:item x="196"/>
-        <x:item x="197"/>
-        <x:item x="198"/>
-        <x:item x="199"/>
-        <x:item x="200"/>
-        <x:item x="201"/>
-        <x:item x="202"/>
-        <x:item x="203"/>
-        <x:item x="204"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="4">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Amount paid" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="3">
-    <x:field x="0"/>
-    <x:field x="1"/>
-    <x:field x="2"/>
-  </x:rowFields>
-  <x:rowItems count="269">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i>
-      <x:x v="54"/>
-    </x:i>
-    <x:i>
-      <x:x v="55"/>
-    </x:i>
-    <x:i>
-      <x:x v="56"/>
-    </x:i>
-    <x:i>
-      <x:x v="57"/>
-    </x:i>
-    <x:i>
-      <x:x v="58"/>
-    </x:i>
-    <x:i>
-      <x:x v="59"/>
-    </x:i>
-    <x:i>
-      <x:x v="60"/>
-    </x:i>
-    <x:i>
-      <x:x v="61"/>
-    </x:i>
-    <x:i>
-      <x:x v="62"/>
-    </x:i>
-    <x:i>
-      <x:x v="63"/>
-    </x:i>
-    <x:i>
-      <x:x v="64"/>
-    </x:i>
-    <x:i>
-      <x:x v="65"/>
-    </x:i>
-    <x:i>
-      <x:x v="66"/>
-    </x:i>
-    <x:i>
-      <x:x v="67"/>
-    </x:i>
-    <x:i>
-      <x:x v="68"/>
-    </x:i>
-    <x:i>
-      <x:x v="69"/>
-    </x:i>
-    <x:i>
-      <x:x v="70"/>
-    </x:i>
-    <x:i>
-      <x:x v="71"/>
-    </x:i>
-    <x:i>
-      <x:x v="72"/>
-    </x:i>
-    <x:i>
-      <x:x v="73"/>
-    </x:i>
-    <x:i>
-      <x:x v="74"/>
-    </x:i>
-    <x:i>
-      <x:x v="75"/>
-    </x:i>
-    <x:i>
-      <x:x v="76"/>
-    </x:i>
-    <x:i>
-      <x:x v="77"/>
-    </x:i>
-    <x:i>
-      <x:x v="78"/>
-    </x:i>
-    <x:i>
-      <x:x v="79"/>
-    </x:i>
-    <x:i>
-      <x:x v="80"/>
-    </x:i>
-    <x:i>
-      <x:x v="81"/>
-    </x:i>
-    <x:i>
-      <x:x v="82"/>
-    </x:i>
-    <x:i>
-      <x:x v="83"/>
-    </x:i>
-    <x:i>
-      <x:x v="84"/>
-    </x:i>
-    <x:i>
-      <x:x v="85"/>
-    </x:i>
-    <x:i>
-      <x:x v="86"/>
-    </x:i>
-    <x:i>
-      <x:x v="87"/>
-    </x:i>
-    <x:i>
-      <x:x v="88"/>
-    </x:i>
-    <x:i>
-      <x:x v="89"/>
-    </x:i>
-    <x:i>
-      <x:x v="90"/>
-    </x:i>
-    <x:i>
-      <x:x v="91"/>
-    </x:i>
-    <x:i>
-      <x:x v="92"/>
-    </x:i>
-    <x:i>
-      <x:x v="93"/>
-    </x:i>
-    <x:i>
-      <x:x v="94"/>
-    </x:i>
-    <x:i>
-      <x:x v="95"/>
-    </x:i>
-    <x:i>
-      <x:x v="96"/>
-    </x:i>
-    <x:i>
-      <x:x v="97"/>
-    </x:i>
-    <x:i>
-      <x:x v="98"/>
-    </x:i>
-    <x:i>
-      <x:x v="99"/>
-    </x:i>
-    <x:i>
-      <x:x v="100"/>
-    </x:i>
-    <x:i>
-      <x:x v="101"/>
-    </x:i>
-    <x:i>
-      <x:x v="102"/>
-    </x:i>
-    <x:i>
-      <x:x v="103"/>
-    </x:i>
-    <x:i>
-      <x:x v="104"/>
-    </x:i>
-    <x:i>
-      <x:x v="105"/>
-    </x:i>
-    <x:i>
-      <x:x v="106"/>
-    </x:i>
-    <x:i>
-      <x:x v="107"/>
-    </x:i>
-    <x:i>
-      <x:x v="108"/>
-    </x:i>
-    <x:i>
-      <x:x v="109"/>
-    </x:i>
-    <x:i>
-      <x:x v="110"/>
-    </x:i>
-    <x:i>
-      <x:x v="111"/>
-    </x:i>
-    <x:i>
-      <x:x v="112"/>
-    </x:i>
-    <x:i>
-      <x:x v="113"/>
-    </x:i>
-    <x:i>
-      <x:x v="114"/>
-    </x:i>
-    <x:i>
-      <x:x v="115"/>
-    </x:i>
-    <x:i>
-      <x:x v="116"/>
-    </x:i>
-    <x:i>
-      <x:x v="117"/>
-    </x:i>
-    <x:i>
-      <x:x v="118"/>
-    </x:i>
-    <x:i>
-      <x:x v="119"/>
-    </x:i>
-    <x:i>
-      <x:x v="120"/>
-    </x:i>
-    <x:i>
-      <x:x v="121"/>
-    </x:i>
-    <x:i>
-      <x:x v="122"/>
-    </x:i>
-    <x:i>
-      <x:x v="123"/>
-    </x:i>
-    <x:i>
-      <x:x v="124"/>
-    </x:i>
-    <x:i>
-      <x:x v="125"/>
-    </x:i>
-    <x:i>
-      <x:x v="126"/>
-    </x:i>
-    <x:i>
-      <x:x v="127"/>
-    </x:i>
-    <x:i>
-      <x:x v="128"/>
-    </x:i>
-    <x:i>
-      <x:x v="129"/>
-    </x:i>
-    <x:i>
-      <x:x v="130"/>
-    </x:i>
-    <x:i>
-      <x:x v="131"/>
-    </x:i>
-    <x:i>
-      <x:x v="132"/>
-    </x:i>
-    <x:i>
-      <x:x v="133"/>
-    </x:i>
-    <x:i>
-      <x:x v="134"/>
-    </x:i>
-    <x:i>
-      <x:x v="135"/>
-    </x:i>
-    <x:i>
-      <x:x v="136"/>
-    </x:i>
-    <x:i>
-      <x:x v="137"/>
-    </x:i>
-    <x:i>
-      <x:x v="138"/>
-    </x:i>
-    <x:i>
-      <x:x v="139"/>
-    </x:i>
-    <x:i>
-      <x:x v="140"/>
-    </x:i>
-    <x:i>
-      <x:x v="141"/>
-    </x:i>
-    <x:i>
-      <x:x v="142"/>
-    </x:i>
-    <x:i>
-      <x:x v="143"/>
-    </x:i>
-    <x:i>
-      <x:x v="144"/>
-    </x:i>
-    <x:i>
-      <x:x v="145"/>
-    </x:i>
-    <x:i>
-      <x:x v="146"/>
-    </x:i>
-    <x:i>
-      <x:x v="147"/>
-    </x:i>
-    <x:i>
-      <x:x v="148"/>
-    </x:i>
-    <x:i>
-      <x:x v="149"/>
-    </x:i>
-    <x:i>
-      <x:x v="150"/>
-    </x:i>
-    <x:i>
-      <x:x v="151"/>
-    </x:i>
-    <x:i>
-      <x:x v="152"/>
-    </x:i>
-    <x:i>
-      <x:x v="153"/>
-    </x:i>
-    <x:i>
-      <x:x v="154"/>
-    </x:i>
-    <x:i>
-      <x:x v="155"/>
-    </x:i>
-    <x:i>
-      <x:x v="156"/>
-    </x:i>
-    <x:i>
-      <x:x v="157"/>
-    </x:i>
-    <x:i>
-      <x:x v="158"/>
-    </x:i>
-    <x:i>
-      <x:x v="159"/>
-    </x:i>
-    <x:i>
-      <x:x v="160"/>
-    </x:i>
-    <x:i>
-      <x:x v="161"/>
-    </x:i>
-    <x:i>
-      <x:x v="162"/>
-    </x:i>
-    <x:i>
-      <x:x v="163"/>
-    </x:i>
-    <x:i>
-      <x:x v="164"/>
-    </x:i>
-    <x:i>
-      <x:x v="165"/>
-    </x:i>
-    <x:i>
-      <x:x v="166"/>
-    </x:i>
-    <x:i>
-      <x:x v="167"/>
-    </x:i>
-    <x:i>
-      <x:x v="168"/>
-    </x:i>
-    <x:i>
-      <x:x v="169"/>
-    </x:i>
-    <x:i>
-      <x:x v="170"/>
-    </x:i>
-    <x:i>
-      <x:x v="171"/>
-    </x:i>
-    <x:i>
-      <x:x v="172"/>
-    </x:i>
-    <x:i>
-      <x:x v="173"/>
-    </x:i>
-    <x:i>
-      <x:x v="174"/>
-    </x:i>
-    <x:i>
-      <x:x v="175"/>
-    </x:i>
-    <x:i>
-      <x:x v="176"/>
-    </x:i>
-    <x:i>
-      <x:x v="177"/>
-    </x:i>
-    <x:i>
-      <x:x v="178"/>
-    </x:i>
-    <x:i>
-      <x:x v="179"/>
-    </x:i>
-    <x:i>
-      <x:x v="180"/>
-    </x:i>
-    <x:i>
-      <x:x v="181"/>
-    </x:i>
-    <x:i>
-      <x:x v="182"/>
-    </x:i>
-    <x:i>
-      <x:x v="183"/>
-    </x:i>
-    <x:i>
-      <x:x v="184"/>
-    </x:i>
-    <x:i>
-      <x:x v="185"/>
-    </x:i>
-    <x:i>
-      <x:x v="186"/>
-    </x:i>
-    <x:i>
-      <x:x v="187"/>
-    </x:i>
-    <x:i>
-      <x:x v="188"/>
-    </x:i>
-    <x:i>
-      <x:x v="189"/>
-    </x:i>
-    <x:i>
-      <x:x v="190"/>
-    </x:i>
-    <x:i>
-      <x:x v="191"/>
-    </x:i>
-    <x:i>
-      <x:x v="192"/>
-    </x:i>
-    <x:i>
-      <x:x v="193"/>
-    </x:i>
-    <x:i>
-      <x:x v="194"/>
-    </x:i>
-    <x:i>
-      <x:x v="195"/>
-    </x:i>
-    <x:i>
-      <x:x v="196"/>
-    </x:i>
-    <x:i>
-      <x:x v="197"/>
-    </x:i>
-    <x:i>
-      <x:x v="198"/>
-    </x:i>
-    <x:i>
-      <x:x v="199"/>
-    </x:i>
-    <x:i>
-      <x:x v="200"/>
-    </x:i>
-    <x:i>
-      <x:x v="201"/>
-    </x:i>
-    <x:i>
-      <x:x v="202"/>
-    </x:i>
-    <x:i>
-      <x:x v="203"/>
-    </x:i>
-    <x:i>
-      <x:x v="204"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="2">
-    <x:field x="5"/>
-    <x:field x="-2"/>
-  </x:colFields>
-  <x:colItems count="4">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="2">
-    <x:dataField name="Sum Amount paid" fld="6" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-    <x:dataField name="Sum Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:formats count="1">
-    <x:format dxfId="1">
-      <x:pivotArea type="normal" dataOnly="0" labelOnly="1" fieldPosition="0">
-        <x:references count="1">
-          <x:reference field="1"/>
-        </x:references>
-      </x:pivotArea>
-    </x:format>
-  </x:formats>
-  <x:pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" dataPosition="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="B3:H9" firstHeaderRow="1" firstDataRow="3" firstDataCol="3"/>
+  <pivotFields count="7">
+    <pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="55">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Payment method" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="206">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField name="Tax rate" axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <colFields count="2">
+    <field x="5"/>
+    <field x="-2"/>
+  </colFields>
+  <dataFields count="2">
+    <dataField name="Sum Amount paid" fld="6"/>
+    <dataField name="Sum Items total" fld="4"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" itemPrintTitles="1" mergeItem="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <x:location ref="B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <x:pivotFields count="7">
-    <x:pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
-      <x:items count="55">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Payment method" axis="axisCol" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="8">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
-      <x:items count="206">
-        <x:item x="0"/>
-        <x:item x="1"/>
-        <x:item x="2"/>
-        <x:item x="3"/>
-        <x:item x="4"/>
-        <x:item x="5"/>
-        <x:item x="6"/>
-        <x:item x="7"/>
-        <x:item x="8"/>
-        <x:item x="9"/>
-        <x:item x="10"/>
-        <x:item x="11"/>
-        <x:item x="12"/>
-        <x:item x="13"/>
-        <x:item x="14"/>
-        <x:item x="15"/>
-        <x:item x="16"/>
-        <x:item x="17"/>
-        <x:item x="18"/>
-        <x:item x="19"/>
-        <x:item x="20"/>
-        <x:item x="21"/>
-        <x:item x="22"/>
-        <x:item x="23"/>
-        <x:item x="24"/>
-        <x:item x="25"/>
-        <x:item x="26"/>
-        <x:item x="27"/>
-        <x:item x="28"/>
-        <x:item x="29"/>
-        <x:item x="30"/>
-        <x:item x="31"/>
-        <x:item x="32"/>
-        <x:item x="33"/>
-        <x:item x="34"/>
-        <x:item x="35"/>
-        <x:item x="36"/>
-        <x:item x="37"/>
-        <x:item x="38"/>
-        <x:item x="39"/>
-        <x:item x="40"/>
-        <x:item x="41"/>
-        <x:item x="42"/>
-        <x:item x="43"/>
-        <x:item x="44"/>
-        <x:item x="45"/>
-        <x:item x="46"/>
-        <x:item x="47"/>
-        <x:item x="48"/>
-        <x:item x="49"/>
-        <x:item x="50"/>
-        <x:item x="51"/>
-        <x:item x="52"/>
-        <x:item x="53"/>
-        <x:item x="54"/>
-        <x:item x="55"/>
-        <x:item x="56"/>
-        <x:item x="57"/>
-        <x:item x="58"/>
-        <x:item x="59"/>
-        <x:item x="60"/>
-        <x:item x="61"/>
-        <x:item x="62"/>
-        <x:item x="63"/>
-        <x:item x="64"/>
-        <x:item x="65"/>
-        <x:item x="66"/>
-        <x:item x="67"/>
-        <x:item x="68"/>
-        <x:item x="69"/>
-        <x:item x="70"/>
-        <x:item x="71"/>
-        <x:item x="72"/>
-        <x:item x="73"/>
-        <x:item x="74"/>
-        <x:item x="75"/>
-        <x:item x="76"/>
-        <x:item x="77"/>
-        <x:item x="78"/>
-        <x:item x="79"/>
-        <x:item x="80"/>
-        <x:item x="81"/>
-        <x:item x="82"/>
-        <x:item x="83"/>
-        <x:item x="84"/>
-        <x:item x="85"/>
-        <x:item x="86"/>
-        <x:item x="87"/>
-        <x:item x="88"/>
-        <x:item x="89"/>
-        <x:item x="90"/>
-        <x:item x="91"/>
-        <x:item x="92"/>
-        <x:item x="93"/>
-        <x:item x="94"/>
-        <x:item x="95"/>
-        <x:item x="96"/>
-        <x:item x="97"/>
-        <x:item x="98"/>
-        <x:item x="99"/>
-        <x:item x="100"/>
-        <x:item x="101"/>
-        <x:item x="102"/>
-        <x:item x="103"/>
-        <x:item x="104"/>
-        <x:item x="105"/>
-        <x:item x="106"/>
-        <x:item x="107"/>
-        <x:item x="108"/>
-        <x:item x="109"/>
-        <x:item x="110"/>
-        <x:item x="111"/>
-        <x:item x="112"/>
-        <x:item x="113"/>
-        <x:item x="114"/>
-        <x:item x="115"/>
-        <x:item x="116"/>
-        <x:item x="117"/>
-        <x:item x="118"/>
-        <x:item x="119"/>
-        <x:item x="120"/>
-        <x:item x="121"/>
-        <x:item x="122"/>
-        <x:item x="123"/>
-        <x:item x="124"/>
-        <x:item x="125"/>
-        <x:item x="126"/>
-        <x:item x="127"/>
-        <x:item x="128"/>
-        <x:item x="129"/>
-        <x:item x="130"/>
-        <x:item x="131"/>
-        <x:item x="132"/>
-        <x:item x="133"/>
-        <x:item x="134"/>
-        <x:item x="135"/>
-        <x:item x="136"/>
-        <x:item x="137"/>
-        <x:item x="138"/>
-        <x:item x="139"/>
-        <x:item x="140"/>
-        <x:item x="141"/>
-        <x:item x="142"/>
-        <x:item x="143"/>
-        <x:item x="144"/>
-        <x:item x="145"/>
-        <x:item x="146"/>
-        <x:item x="147"/>
-        <x:item x="148"/>
-        <x:item x="149"/>
-        <x:item x="150"/>
-        <x:item x="151"/>
-        <x:item x="152"/>
-        <x:item x="153"/>
-        <x:item x="154"/>
-        <x:item x="155"/>
-        <x:item x="156"/>
-        <x:item x="157"/>
-        <x:item x="158"/>
-        <x:item x="159"/>
-        <x:item x="160"/>
-        <x:item x="161"/>
-        <x:item x="162"/>
-        <x:item x="163"/>
-        <x:item x="164"/>
-        <x:item x="165"/>
-        <x:item x="166"/>
-        <x:item x="167"/>
-        <x:item x="168"/>
-        <x:item x="169"/>
-        <x:item x="170"/>
-        <x:item x="171"/>
-        <x:item x="172"/>
-        <x:item x="173"/>
-        <x:item x="174"/>
-        <x:item x="175"/>
-        <x:item x="176"/>
-        <x:item x="177"/>
-        <x:item x="178"/>
-        <x:item x="179"/>
-        <x:item x="180"/>
-        <x:item x="181"/>
-        <x:item x="182"/>
-        <x:item x="183"/>
-        <x:item x="184"/>
-        <x:item x="185"/>
-        <x:item x="186"/>
-        <x:item x="187"/>
-        <x:item x="188"/>
-        <x:item x="189"/>
-        <x:item x="190"/>
-        <x:item x="191"/>
-        <x:item x="192"/>
-        <x:item x="193"/>
-        <x:item x="194"/>
-        <x:item x="195"/>
-        <x:item x="196"/>
-        <x:item x="197"/>
-        <x:item x="198"/>
-        <x:item x="199"/>
-        <x:item x="200"/>
-        <x:item x="201"/>
-        <x:item x="202"/>
-        <x:item x="203"/>
-        <x:item x="204"/>
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Ship date" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Items total" dataField="1" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Tax rate" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-    <x:pivotField name="Amount paid" compact="0" outline="0">
-      <x:items count="1">
-        <x:item t="default"/>
-      </x:items>
-    </x:pivotField>
-  </x:pivotFields>
-  <x:rowFields count="2">
-    <x:field x="0"/>
-    <x:field x="2"/>
-  </x:rowFields>
-  <x:rowItems count="261">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i>
-      <x:x v="7"/>
-    </x:i>
-    <x:i>
-      <x:x v="8"/>
-    </x:i>
-    <x:i>
-      <x:x v="9"/>
-    </x:i>
-    <x:i>
-      <x:x v="10"/>
-    </x:i>
-    <x:i>
-      <x:x v="11"/>
-    </x:i>
-    <x:i>
-      <x:x v="12"/>
-    </x:i>
-    <x:i>
-      <x:x v="13"/>
-    </x:i>
-    <x:i>
-      <x:x v="14"/>
-    </x:i>
-    <x:i>
-      <x:x v="15"/>
-    </x:i>
-    <x:i>
-      <x:x v="16"/>
-    </x:i>
-    <x:i>
-      <x:x v="17"/>
-    </x:i>
-    <x:i>
-      <x:x v="18"/>
-    </x:i>
-    <x:i>
-      <x:x v="19"/>
-    </x:i>
-    <x:i>
-      <x:x v="20"/>
-    </x:i>
-    <x:i>
-      <x:x v="21"/>
-    </x:i>
-    <x:i>
-      <x:x v="22"/>
-    </x:i>
-    <x:i>
-      <x:x v="23"/>
-    </x:i>
-    <x:i>
-      <x:x v="24"/>
-    </x:i>
-    <x:i>
-      <x:x v="25"/>
-    </x:i>
-    <x:i>
-      <x:x v="26"/>
-    </x:i>
-    <x:i>
-      <x:x v="27"/>
-    </x:i>
-    <x:i>
-      <x:x v="28"/>
-    </x:i>
-    <x:i>
-      <x:x v="29"/>
-    </x:i>
-    <x:i>
-      <x:x v="30"/>
-    </x:i>
-    <x:i>
-      <x:x v="31"/>
-    </x:i>
-    <x:i>
-      <x:x v="32"/>
-    </x:i>
-    <x:i>
-      <x:x v="33"/>
-    </x:i>
-    <x:i>
-      <x:x v="34"/>
-    </x:i>
-    <x:i>
-      <x:x v="35"/>
-    </x:i>
-    <x:i>
-      <x:x v="36"/>
-    </x:i>
-    <x:i>
-      <x:x v="37"/>
-    </x:i>
-    <x:i>
-      <x:x v="38"/>
-    </x:i>
-    <x:i>
-      <x:x v="39"/>
-    </x:i>
-    <x:i>
-      <x:x v="40"/>
-    </x:i>
-    <x:i>
-      <x:x v="41"/>
-    </x:i>
-    <x:i>
-      <x:x v="42"/>
-    </x:i>
-    <x:i>
-      <x:x v="43"/>
-    </x:i>
-    <x:i>
-      <x:x v="44"/>
-    </x:i>
-    <x:i>
-      <x:x v="45"/>
-    </x:i>
-    <x:i>
-      <x:x v="46"/>
-    </x:i>
-    <x:i>
-      <x:x v="47"/>
-    </x:i>
-    <x:i>
-      <x:x v="48"/>
-    </x:i>
-    <x:i>
-      <x:x v="49"/>
-    </x:i>
-    <x:i>
-      <x:x v="50"/>
-    </x:i>
-    <x:i>
-      <x:x v="51"/>
-    </x:i>
-    <x:i>
-      <x:x v="52"/>
-    </x:i>
-    <x:i>
-      <x:x v="53"/>
-    </x:i>
-    <x:i>
-      <x:x v="54"/>
-    </x:i>
-    <x:i>
-      <x:x v="55"/>
-    </x:i>
-    <x:i>
-      <x:x v="56"/>
-    </x:i>
-    <x:i>
-      <x:x v="57"/>
-    </x:i>
-    <x:i>
-      <x:x v="58"/>
-    </x:i>
-    <x:i>
-      <x:x v="59"/>
-    </x:i>
-    <x:i>
-      <x:x v="60"/>
-    </x:i>
-    <x:i>
-      <x:x v="61"/>
-    </x:i>
-    <x:i>
-      <x:x v="62"/>
-    </x:i>
-    <x:i>
-      <x:x v="63"/>
-    </x:i>
-    <x:i>
-      <x:x v="64"/>
-    </x:i>
-    <x:i>
-      <x:x v="65"/>
-    </x:i>
-    <x:i>
-      <x:x v="66"/>
-    </x:i>
-    <x:i>
-      <x:x v="67"/>
-    </x:i>
-    <x:i>
-      <x:x v="68"/>
-    </x:i>
-    <x:i>
-      <x:x v="69"/>
-    </x:i>
-    <x:i>
-      <x:x v="70"/>
-    </x:i>
-    <x:i>
-      <x:x v="71"/>
-    </x:i>
-    <x:i>
-      <x:x v="72"/>
-    </x:i>
-    <x:i>
-      <x:x v="73"/>
-    </x:i>
-    <x:i>
-      <x:x v="74"/>
-    </x:i>
-    <x:i>
-      <x:x v="75"/>
-    </x:i>
-    <x:i>
-      <x:x v="76"/>
-    </x:i>
-    <x:i>
-      <x:x v="77"/>
-    </x:i>
-    <x:i>
-      <x:x v="78"/>
-    </x:i>
-    <x:i>
-      <x:x v="79"/>
-    </x:i>
-    <x:i>
-      <x:x v="80"/>
-    </x:i>
-    <x:i>
-      <x:x v="81"/>
-    </x:i>
-    <x:i>
-      <x:x v="82"/>
-    </x:i>
-    <x:i>
-      <x:x v="83"/>
-    </x:i>
-    <x:i>
-      <x:x v="84"/>
-    </x:i>
-    <x:i>
-      <x:x v="85"/>
-    </x:i>
-    <x:i>
-      <x:x v="86"/>
-    </x:i>
-    <x:i>
-      <x:x v="87"/>
-    </x:i>
-    <x:i>
-      <x:x v="88"/>
-    </x:i>
-    <x:i>
-      <x:x v="89"/>
-    </x:i>
-    <x:i>
-      <x:x v="90"/>
-    </x:i>
-    <x:i>
-      <x:x v="91"/>
-    </x:i>
-    <x:i>
-      <x:x v="92"/>
-    </x:i>
-    <x:i>
-      <x:x v="93"/>
-    </x:i>
-    <x:i>
-      <x:x v="94"/>
-    </x:i>
-    <x:i>
-      <x:x v="95"/>
-    </x:i>
-    <x:i>
-      <x:x v="96"/>
-    </x:i>
-    <x:i>
-      <x:x v="97"/>
-    </x:i>
-    <x:i>
-      <x:x v="98"/>
-    </x:i>
-    <x:i>
-      <x:x v="99"/>
-    </x:i>
-    <x:i>
-      <x:x v="100"/>
-    </x:i>
-    <x:i>
-      <x:x v="101"/>
-    </x:i>
-    <x:i>
-      <x:x v="102"/>
-    </x:i>
-    <x:i>
-      <x:x v="103"/>
-    </x:i>
-    <x:i>
-      <x:x v="104"/>
-    </x:i>
-    <x:i>
-      <x:x v="105"/>
-    </x:i>
-    <x:i>
-      <x:x v="106"/>
-    </x:i>
-    <x:i>
-      <x:x v="107"/>
-    </x:i>
-    <x:i>
-      <x:x v="108"/>
-    </x:i>
-    <x:i>
-      <x:x v="109"/>
-    </x:i>
-    <x:i>
-      <x:x v="110"/>
-    </x:i>
-    <x:i>
-      <x:x v="111"/>
-    </x:i>
-    <x:i>
-      <x:x v="112"/>
-    </x:i>
-    <x:i>
-      <x:x v="113"/>
-    </x:i>
-    <x:i>
-      <x:x v="114"/>
-    </x:i>
-    <x:i>
-      <x:x v="115"/>
-    </x:i>
-    <x:i>
-      <x:x v="116"/>
-    </x:i>
-    <x:i>
-      <x:x v="117"/>
-    </x:i>
-    <x:i>
-      <x:x v="118"/>
-    </x:i>
-    <x:i>
-      <x:x v="119"/>
-    </x:i>
-    <x:i>
-      <x:x v="120"/>
-    </x:i>
-    <x:i>
-      <x:x v="121"/>
-    </x:i>
-    <x:i>
-      <x:x v="122"/>
-    </x:i>
-    <x:i>
-      <x:x v="123"/>
-    </x:i>
-    <x:i>
-      <x:x v="124"/>
-    </x:i>
-    <x:i>
-      <x:x v="125"/>
-    </x:i>
-    <x:i>
-      <x:x v="126"/>
-    </x:i>
-    <x:i>
-      <x:x v="127"/>
-    </x:i>
-    <x:i>
-      <x:x v="128"/>
-    </x:i>
-    <x:i>
-      <x:x v="129"/>
-    </x:i>
-    <x:i>
-      <x:x v="130"/>
-    </x:i>
-    <x:i>
-      <x:x v="131"/>
-    </x:i>
-    <x:i>
-      <x:x v="132"/>
-    </x:i>
-    <x:i>
-      <x:x v="133"/>
-    </x:i>
-    <x:i>
-      <x:x v="134"/>
-    </x:i>
-    <x:i>
-      <x:x v="135"/>
-    </x:i>
-    <x:i>
-      <x:x v="136"/>
-    </x:i>
-    <x:i>
-      <x:x v="137"/>
-    </x:i>
-    <x:i>
-      <x:x v="138"/>
-    </x:i>
-    <x:i>
-      <x:x v="139"/>
-    </x:i>
-    <x:i>
-      <x:x v="140"/>
-    </x:i>
-    <x:i>
-      <x:x v="141"/>
-    </x:i>
-    <x:i>
-      <x:x v="142"/>
-    </x:i>
-    <x:i>
-      <x:x v="143"/>
-    </x:i>
-    <x:i>
-      <x:x v="144"/>
-    </x:i>
-    <x:i>
-      <x:x v="145"/>
-    </x:i>
-    <x:i>
-      <x:x v="146"/>
-    </x:i>
-    <x:i>
-      <x:x v="147"/>
-    </x:i>
-    <x:i>
-      <x:x v="148"/>
-    </x:i>
-    <x:i>
-      <x:x v="149"/>
-    </x:i>
-    <x:i>
-      <x:x v="150"/>
-    </x:i>
-    <x:i>
-      <x:x v="151"/>
-    </x:i>
-    <x:i>
-      <x:x v="152"/>
-    </x:i>
-    <x:i>
-      <x:x v="153"/>
-    </x:i>
-    <x:i>
-      <x:x v="154"/>
-    </x:i>
-    <x:i>
-      <x:x v="155"/>
-    </x:i>
-    <x:i>
-      <x:x v="156"/>
-    </x:i>
-    <x:i>
-      <x:x v="157"/>
-    </x:i>
-    <x:i>
-      <x:x v="158"/>
-    </x:i>
-    <x:i>
-      <x:x v="159"/>
-    </x:i>
-    <x:i>
-      <x:x v="160"/>
-    </x:i>
-    <x:i>
-      <x:x v="161"/>
-    </x:i>
-    <x:i>
-      <x:x v="162"/>
-    </x:i>
-    <x:i>
-      <x:x v="163"/>
-    </x:i>
-    <x:i>
-      <x:x v="164"/>
-    </x:i>
-    <x:i>
-      <x:x v="165"/>
-    </x:i>
-    <x:i>
-      <x:x v="166"/>
-    </x:i>
-    <x:i>
-      <x:x v="167"/>
-    </x:i>
-    <x:i>
-      <x:x v="168"/>
-    </x:i>
-    <x:i>
-      <x:x v="169"/>
-    </x:i>
-    <x:i>
-      <x:x v="170"/>
-    </x:i>
-    <x:i>
-      <x:x v="171"/>
-    </x:i>
-    <x:i>
-      <x:x v="172"/>
-    </x:i>
-    <x:i>
-      <x:x v="173"/>
-    </x:i>
-    <x:i>
-      <x:x v="174"/>
-    </x:i>
-    <x:i>
-      <x:x v="175"/>
-    </x:i>
-    <x:i>
-      <x:x v="176"/>
-    </x:i>
-    <x:i>
-      <x:x v="177"/>
-    </x:i>
-    <x:i>
-      <x:x v="178"/>
-    </x:i>
-    <x:i>
-      <x:x v="179"/>
-    </x:i>
-    <x:i>
-      <x:x v="180"/>
-    </x:i>
-    <x:i>
-      <x:x v="181"/>
-    </x:i>
-    <x:i>
-      <x:x v="182"/>
-    </x:i>
-    <x:i>
-      <x:x v="183"/>
-    </x:i>
-    <x:i>
-      <x:x v="184"/>
-    </x:i>
-    <x:i>
-      <x:x v="185"/>
-    </x:i>
-    <x:i>
-      <x:x v="186"/>
-    </x:i>
-    <x:i>
-      <x:x v="187"/>
-    </x:i>
-    <x:i>
-      <x:x v="188"/>
-    </x:i>
-    <x:i>
-      <x:x v="189"/>
-    </x:i>
-    <x:i>
-      <x:x v="190"/>
-    </x:i>
-    <x:i>
-      <x:x v="191"/>
-    </x:i>
-    <x:i>
-      <x:x v="192"/>
-    </x:i>
-    <x:i>
-      <x:x v="193"/>
-    </x:i>
-    <x:i>
-      <x:x v="194"/>
-    </x:i>
-    <x:i>
-      <x:x v="195"/>
-    </x:i>
-    <x:i>
-      <x:x v="196"/>
-    </x:i>
-    <x:i>
-      <x:x v="197"/>
-    </x:i>
-    <x:i>
-      <x:x v="198"/>
-    </x:i>
-    <x:i>
-      <x:x v="199"/>
-    </x:i>
-    <x:i>
-      <x:x v="200"/>
-    </x:i>
-    <x:i>
-      <x:x v="201"/>
-    </x:i>
-    <x:i>
-      <x:x v="202"/>
-    </x:i>
-    <x:i>
-      <x:x v="203"/>
-    </x:i>
-    <x:i>
-      <x:x v="204"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:rowItems>
-  <x:colFields count="1">
-    <x:field x="1"/>
-  </x:colFields>
-  <x:colItems count="8">
-    <x:i>
-      <x:x v="0"/>
-    </x:i>
-    <x:i>
-      <x:x v="1"/>
-    </x:i>
-    <x:i>
-      <x:x v="2"/>
-    </x:i>
-    <x:i>
-      <x:x v="3"/>
-    </x:i>
-    <x:i>
-      <x:x v="4"/>
-    </x:i>
-    <x:i>
-      <x:x v="5"/>
-    </x:i>
-    <x:i>
-      <x:x v="6"/>
-    </x:i>
-    <x:i t="grand">
-      <x:x/>
-    </x:i>
-  </x:colItems>
-  <x:dataFields count="1">
-    <x:dataField name="Sum of Items total" fld="4" subtotal="sum" showDataAs="normal" baseField="0" baseItem="0" numFmtId="0"/>
-  </x:dataFields>
-  <x:formats count="1">
-    <x:format dxfId="1">
-      <x:pivotArea type="normal" dataOnly="0" labelOnly="1" fieldPosition="0">
-        <x:references count="1">
-          <x:reference field="1"/>
-        </x:references>
-      </x:pivotArea>
-    </x:format>
-  </x:formats>
-  <x:pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" enableEdit="0" hideValuesRow="1"/>
-    </x:ext>
-  </x:extLst>
-</x:pivotTableDefinition>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="3" indent="0" compact="0" compactData="0" gridDropZones="1">
+  <location ref="B4:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="7">
+    <pivotField name="Company" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="55">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Payment method" axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="OrderNo" axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="206">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <dataFields count="1">
+    <dataField name="Sum of Items total" fld="4"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition enableEdit="0" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
